--- a/test-cases.xlsx
+++ b/test-cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eduar\Desktop\testing-stuff\banking-application-testing-Guru99\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8D6117-C411-43A4-BDA1-19338D6F41C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F80037C-BC4F-44C3-86AE-591FBB33D246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,14 +22,14 @@
     <sheet name="Change  password" sheetId="6" state="hidden" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'New Customer'!$A$1:$H$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'New Customer'!$A$1:$I$53</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="322">
   <si>
     <t>TestCase#</t>
   </si>
@@ -741,12 +741,323 @@
   <si>
     <t>Demo version has "Telephone Number", and SRS version has "Mobile Number"</t>
   </si>
+  <si>
+    <t>Screenshots</t>
+  </si>
+  <si>
+    <t>EC1</t>
+  </si>
+  <si>
+    <t>Verify Customer id</t>
+  </si>
+  <si>
+    <t>Customer id cannot be 
+empty</t>
+  </si>
+  <si>
+    <t>1) Do not enter a value in Customer id Field
+2) Press TAB and move to next Field</t>
+  </si>
+  <si>
+    <t>An error message "Customer ID is required" must be shown</t>
+  </si>
+  <si>
+    <t>EC2</t>
+  </si>
+  <si>
+    <t>Customer id must be numeric</t>
+  </si>
+  <si>
+    <t>1) Enter character value in Customer id Field</t>
+  </si>
+  <si>
+    <t>1234Acc
+Acc123</t>
+  </si>
+  <si>
+    <t>EC3</t>
+  </si>
+  <si>
+    <t>Customer id cannot have special character</t>
+  </si>
+  <si>
+    <t>1) Enter Special Character In Customer id Field</t>
+  </si>
+  <si>
+    <t>EC4</t>
+  </si>
+  <si>
+    <t>Valid Customer Id</t>
+  </si>
+  <si>
+    <t>1) Enter valid Customer id
+2) Submit</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>Edit Customer successfully redirect to Edit Customer Page</t>
+  </si>
+  <si>
+    <t>EC5</t>
+  </si>
+  <si>
+    <t>An error message "Name cannot be empty" must be shown</t>
+  </si>
+  <si>
+    <t>EC6</t>
+  </si>
+  <si>
+    <t>An error message "Name cannot contain numbers" must be shown</t>
+  </si>
+  <si>
+    <t>EC7</t>
+  </si>
+  <si>
+    <t>Name cannot have 
+special character</t>
+  </si>
+  <si>
+    <t>An error message "Name cannot contain Special Characters" must be shown</t>
+  </si>
+  <si>
+    <t>EC8</t>
+  </si>
+  <si>
+    <t>EC9</t>
+  </si>
+  <si>
+    <t>An error message "CITY cannot be empty" must be shown</t>
+  </si>
+  <si>
+    <t>EC10</t>
+  </si>
+  <si>
+    <t>An error message "City cannot contain Number" must be shown</t>
+  </si>
+  <si>
+    <t>EC11</t>
+  </si>
+  <si>
+    <t>An error message "City cannot contain Special Characters" must be shown</t>
+  </si>
+  <si>
+    <t>EC12</t>
+  </si>
+  <si>
+    <t>state cannot be empty</t>
+  </si>
+  <si>
+    <t>An error message "STATE cannot be empty" must be shown</t>
+  </si>
+  <si>
+    <t>EC13</t>
+  </si>
+  <si>
+    <t>EC14</t>
+  </si>
+  <si>
+    <t>EC15</t>
+  </si>
+  <si>
+    <t>An error message "PIN cannot contain character" must be shown</t>
+  </si>
+  <si>
+    <t>EC16</t>
+  </si>
+  <si>
+    <t>An error message "PIN cannot be empty" must be shown</t>
+  </si>
+  <si>
+    <t>EC17</t>
+  </si>
+  <si>
+    <t>1234567
+123</t>
+  </si>
+  <si>
+    <t>An error message "PIN must contain 6 digit"</t>
+  </si>
+  <si>
+    <t>EC18</t>
+  </si>
+  <si>
+    <t>An error message "PIN cannot contain Special Characters" must be shown</t>
+  </si>
+  <si>
+    <t>EC19</t>
+  </si>
+  <si>
+    <t>An error message "Telephone cannot be empty" must be shown</t>
+  </si>
+  <si>
+    <t>EC20</t>
+  </si>
+  <si>
+    <t>An error message "Telephone cannot contain Special Characters" must be shown</t>
+  </si>
+  <si>
+    <t>EC21</t>
+  </si>
+  <si>
+    <t>An error message "Email cannot be empty" must be shown</t>
+  </si>
+  <si>
+    <t>EC22</t>
+  </si>
+  <si>
+    <t>Email must be in format career@guru99.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guru99@gmail
+guru99
+Guru99@
+gurugmail.com
+</t>
+  </si>
+  <si>
+    <t>An error message "Email must be in format example@example.com" must be shown</t>
+  </si>
+  <si>
+    <t>EC23</t>
+  </si>
+  <si>
+    <t>An error message "Email must be in format Example@example.com" must be shown</t>
+  </si>
+  <si>
+    <t>Edit Customer Test Cases</t>
+  </si>
+  <si>
+    <t>The error message "Customer ID is required" was prompted</t>
+  </si>
+  <si>
+    <t>When entering a combination and numbers and characters, no error message is prompted</t>
+  </si>
+  <si>
+    <t>The error message "Special characters are not allowed" is prompted</t>
+  </si>
+  <si>
+    <t>Error message prompted: Connection failed: Access denied for user 'root'@'localhost' (using password: NO)</t>
+  </si>
+  <si>
+    <t>Unable to test due to error: "Connection failed: Access denied for user 'root'@'localhost' (using password: NO)".</t>
+  </si>
+  <si>
+    <t>NA1</t>
+  </si>
+  <si>
+    <t>An error message "Customer ID must not blank" must be shown</t>
+  </si>
+  <si>
+    <t>NA2</t>
+  </si>
+  <si>
+    <t>An error message "Customer id must be numeric" must be shown</t>
+  </si>
+  <si>
+    <t>NA3</t>
+  </si>
+  <si>
+    <t>An error message "Customer id cannot have special character" must be shown</t>
+  </si>
+  <si>
+    <t>NA4</t>
+  </si>
+  <si>
+    <t>Customer id cannot have blank space</t>
+  </si>
+  <si>
+    <t>1) Customer Id cannot have Blank space
+2) Press Tab</t>
+  </si>
+  <si>
+    <t>123 12</t>
+  </si>
+  <si>
+    <t>An error message "Customer id cannot have blank space" must be shown</t>
+  </si>
+  <si>
+    <t>NA5</t>
+  </si>
+  <si>
+    <t>First Character cannot be space</t>
+  </si>
+  <si>
+    <t>1) Enter first character space
+2) Press Tab</t>
+  </si>
+  <si>
+    <t>An error message "Customer id cannot have first character space" must be shown</t>
+  </si>
+  <si>
+    <t>NA6</t>
+  </si>
+  <si>
+    <t>Verify Initial Deposit</t>
+  </si>
+  <si>
+    <t>Cannot be empty</t>
+  </si>
+  <si>
+    <t>1) Do not enter a value in Initial Deposit Field
+2) Press TAB and move to next Field</t>
+  </si>
+  <si>
+    <t>An error message "Initial deposit cannot be empty" must be shown</t>
+  </si>
+  <si>
+    <t>NA7</t>
+  </si>
+  <si>
+    <t>Must be numeric</t>
+  </si>
+  <si>
+    <t>1) Enter character value in Initial Deposit Field</t>
+  </si>
+  <si>
+    <t>An error message "Initial Deposit must be numeric" must be shown</t>
+  </si>
+  <si>
+    <t>NA8</t>
+  </si>
+  <si>
+    <t>Cannot have special character</t>
+  </si>
+  <si>
+    <t>1) Enter Special Character In Initial Deposit Field</t>
+  </si>
+  <si>
+    <t>An error message "Initial Deposit cannot have special character" must be shown</t>
+  </si>
+  <si>
+    <t>NA9</t>
+  </si>
+  <si>
+    <t>Initial Deposit cannot have blank space</t>
+  </si>
+  <si>
+    <t>1) Initial Deposit cannot have Blank space
+2) Press Tab</t>
+  </si>
+  <si>
+    <t>An error message "Initial Deposit cannot have blank space" must be shown</t>
+  </si>
+  <si>
+    <t>NA10</t>
+  </si>
+  <si>
+    <t>An error message "Initial Deposit cannot have first character space" must be shown</t>
+  </si>
+  <si>
+    <t>New Account -Test Cases</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -797,6 +1108,12 @@
       <color rgb="FF800080"/>
       <name val="Inherit"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -836,7 +1153,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -910,11 +1227,292 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -951,12 +1549,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -969,26 +1561,194 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1061,16 +1821,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1009649</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>333374</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>857250</xdr:colOff>
+      <xdr:colOff>876300</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>309860</xdr:rowOff>
+      <xdr:rowOff>316745</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1099,8 +1859,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13944600" y="6505575"/>
-          <a:ext cx="857250" cy="309860"/>
+          <a:off x="13944599" y="2171699"/>
+          <a:ext cx="876301" cy="316746"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1201,6 +1961,100 @@
         <a:xfrm>
           <a:off x="13944600" y="9648825"/>
           <a:ext cx="895350" cy="323035"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>25990</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4EF7B9E-1D39-2544-6E6E-ADAAA20F9C91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13944600" y="11306175"/>
+          <a:ext cx="1019175" cy="359365"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>11971</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C09D8FCD-C95F-2695-986B-1EA98150724F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13944601" y="12134850"/>
+          <a:ext cx="1021620" cy="485775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1512,2916 +2366,3427 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y101"/>
+  <dimension ref="A1:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="19" style="14" customWidth="1"/>
-    <col min="3" max="3" width="33.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="14" customWidth="1"/>
-    <col min="6" max="6" width="36" style="14" customWidth="1"/>
-    <col min="7" max="7" width="42.5703125" style="14" customWidth="1"/>
-    <col min="8" max="22" width="15.140625" style="14" customWidth="1"/>
-    <col min="23" max="16384" width="12.5703125" style="14"/>
+    <col min="1" max="1" width="11.140625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="19" style="12" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="36" style="12" customWidth="1"/>
+    <col min="7" max="7" width="42.5703125" style="12" customWidth="1"/>
+    <col min="8" max="22" width="15.140625" style="12" customWidth="1"/>
+    <col min="23" max="16384" width="12.5703125" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" thickBot="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
+      <c r="I1" s="57" t="s">
+        <v>223</v>
+      </c>
+      <c r="J1" s="35"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
     </row>
     <row r="2" spans="1:25" ht="26.25" thickBot="1">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19" t="s">
+      <c r="E2" s="16"/>
+      <c r="F2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
     </row>
     <row r="3" spans="1:25" ht="26.25" thickBot="1">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19" t="s">
+      <c r="B3" s="25"/>
+      <c r="C3" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21" t="s">
+      <c r="G3" s="17"/>
+      <c r="H3" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
     </row>
     <row r="4" spans="1:25" ht="26.25" thickBot="1">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19" t="s">
+      <c r="B4" s="25"/>
+      <c r="C4" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21" t="s">
+      <c r="G4" s="17"/>
+      <c r="H4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="15"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
     </row>
     <row r="5" spans="1:25" ht="26.25" thickBot="1">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21" t="s">
+      <c r="B5" s="26"/>
+      <c r="C5" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21" t="s">
+      <c r="E5" s="17"/>
+      <c r="F5" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="15"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
     </row>
     <row r="6" spans="1:25" ht="26.25" thickBot="1">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21" t="s">
+      <c r="E6" s="17"/>
+      <c r="F6" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="15"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
     </row>
     <row r="7" spans="1:25" ht="26.25" thickBot="1">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="60" t="s">
         <v>123</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="28"/>
+      <c r="C7" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21" t="s">
+      <c r="E7" s="17"/>
+      <c r="F7" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="H7" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="15"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
     </row>
     <row r="8" spans="1:25" ht="26.25" thickBot="1">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="58" t="s">
         <v>125</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19" t="s">
+      <c r="E8" s="16"/>
+      <c r="F8" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21" t="s">
+      <c r="G8" s="17"/>
+      <c r="H8" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="19"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="15"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
     </row>
     <row r="9" spans="1:25" ht="26.25" thickBot="1">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="58" t="s">
         <v>130</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19" t="s">
+      <c r="B9" s="25"/>
+      <c r="C9" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21" t="s">
+      <c r="G9" s="17"/>
+      <c r="H9" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="15"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
     </row>
     <row r="10" spans="1:25" ht="26.25" thickBot="1">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="58" t="s">
         <v>134</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19" t="s">
+      <c r="B10" s="25"/>
+      <c r="C10" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21" t="s">
+      <c r="G10" s="17"/>
+      <c r="H10" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="15"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
     </row>
     <row r="11" spans="1:25" ht="26.25" thickBot="1">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21" t="s">
+      <c r="B11" s="26"/>
+      <c r="C11" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21" t="s">
+      <c r="E11" s="17"/>
+      <c r="F11" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="H11" s="23" t="s">
+      <c r="H11" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="21"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="21"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="15"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
     </row>
     <row r="12" spans="1:25" ht="26.25" thickBot="1">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="58" t="s">
         <v>140</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19" t="s">
+      <c r="E12" s="16"/>
+      <c r="F12" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21" t="s">
+      <c r="G12" s="17"/>
+      <c r="H12" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="15"/>
-      <c r="X12" s="15"/>
-      <c r="Y12" s="15"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
     </row>
     <row r="13" spans="1:25" ht="26.25" thickBot="1">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19" t="s">
+      <c r="B13" s="25"/>
+      <c r="C13" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21" t="s">
+      <c r="G13" s="17"/>
+      <c r="H13" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="15"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
     </row>
     <row r="14" spans="1:25" ht="26.25" thickBot="1">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19" t="s">
+      <c r="B14" s="25"/>
+      <c r="C14" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21" t="s">
+      <c r="G14" s="17"/>
+      <c r="H14" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="19"/>
-      <c r="V14" s="19"/>
-      <c r="W14" s="15"/>
-      <c r="X14" s="15"/>
-      <c r="Y14" s="15"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13"/>
     </row>
     <row r="15" spans="1:25" ht="26.25" thickBot="1">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="60" t="s">
         <v>153</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21" t="s">
+      <c r="B15" s="26"/>
+      <c r="C15" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21" t="s">
+      <c r="E15" s="17"/>
+      <c r="F15" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="G15" s="21" t="s">
+      <c r="G15" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="H15" s="23" t="s">
+      <c r="H15" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="21"/>
-      <c r="T15" s="21"/>
-      <c r="U15" s="21"/>
-      <c r="V15" s="21"/>
-      <c r="W15" s="15"/>
-      <c r="X15" s="15"/>
-      <c r="Y15" s="15"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="17"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
     </row>
     <row r="16" spans="1:25" ht="26.25" thickBot="1">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21" t="s">
+      <c r="G16" s="17"/>
+      <c r="H16" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="19"/>
-      <c r="T16" s="19"/>
-      <c r="U16" s="19"/>
-      <c r="V16" s="19"/>
-      <c r="W16" s="15"/>
-      <c r="X16" s="15"/>
-      <c r="Y16" s="15"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
     </row>
     <row r="17" spans="1:25" ht="26.25" thickBot="1">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19" t="s">
+      <c r="B17" s="25"/>
+      <c r="C17" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19" t="s">
+      <c r="E17" s="16"/>
+      <c r="F17" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21" t="s">
+      <c r="G17" s="17"/>
+      <c r="H17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="19"/>
-      <c r="U17" s="19"/>
-      <c r="V17" s="19"/>
-      <c r="W17" s="15"/>
-      <c r="X17" s="15"/>
-      <c r="Y17" s="15"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="16"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="13"/>
     </row>
     <row r="18" spans="1:25" ht="26.25" thickBot="1">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="58" t="s">
         <v>165</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19" t="s">
+      <c r="B18" s="25"/>
+      <c r="C18" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="F18" s="19" t="s">
+      <c r="F18" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21" t="s">
+      <c r="G18" s="17"/>
+      <c r="H18" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="19"/>
-      <c r="V18" s="19"/>
-      <c r="W18" s="15"/>
-      <c r="X18" s="15"/>
-      <c r="Y18" s="15"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="13"/>
     </row>
     <row r="19" spans="1:25" ht="26.25" thickBot="1">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="58" t="s">
         <v>170</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19" t="s">
+      <c r="B19" s="25"/>
+      <c r="C19" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="F19" s="19" t="s">
+      <c r="F19" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21" t="s">
+      <c r="G19" s="17"/>
+      <c r="H19" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="19"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="19"/>
-      <c r="U19" s="19"/>
-      <c r="V19" s="19"/>
-      <c r="W19" s="15"/>
-      <c r="X19" s="15"/>
-      <c r="Y19" s="15"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="13"/>
     </row>
     <row r="20" spans="1:25" ht="26.25" thickBot="1">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="60" t="s">
         <v>174</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21" t="s">
+      <c r="B20" s="25"/>
+      <c r="C20" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21" t="s">
+      <c r="E20" s="17"/>
+      <c r="F20" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="G20" s="21" t="s">
+      <c r="G20" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="H20" s="24" t="s">
+      <c r="H20" s="39" t="s">
         <v>217</v>
       </c>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="21"/>
-      <c r="S20" s="21"/>
-      <c r="T20" s="21"/>
-      <c r="U20" s="21"/>
-      <c r="V20" s="21"/>
-      <c r="W20" s="15"/>
-      <c r="X20" s="15"/>
-      <c r="Y20" s="15"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="13"/>
+      <c r="X20" s="13"/>
+      <c r="Y20" s="13"/>
     </row>
     <row r="21" spans="1:25" ht="26.25" thickBot="1">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="60" t="s">
         <v>176</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21" t="s">
+      <c r="B21" s="26"/>
+      <c r="C21" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21" t="s">
+      <c r="E21" s="17"/>
+      <c r="F21" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="G21" s="21" t="s">
+      <c r="G21" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="H21" s="23" t="s">
+      <c r="H21" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="21"/>
-      <c r="T21" s="21"/>
-      <c r="U21" s="21"/>
-      <c r="V21" s="21"/>
-      <c r="W21" s="15"/>
-      <c r="X21" s="15"/>
-      <c r="Y21" s="15"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="13"/>
+      <c r="X21" s="13"/>
+      <c r="Y21" s="13"/>
     </row>
     <row r="22" spans="1:25" ht="26.25" thickBot="1">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="58" t="s">
         <v>179</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19" t="s">
+      <c r="E22" s="16"/>
+      <c r="F22" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21" t="s">
+      <c r="G22" s="17"/>
+      <c r="H22" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="19"/>
-      <c r="S22" s="19"/>
-      <c r="T22" s="19"/>
-      <c r="U22" s="19"/>
-      <c r="V22" s="19"/>
-      <c r="W22" s="15"/>
-      <c r="X22" s="15"/>
-      <c r="Y22" s="15"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="16"/>
+      <c r="T22" s="16"/>
+      <c r="U22" s="16"/>
+      <c r="V22" s="16"/>
+      <c r="W22" s="13"/>
+      <c r="X22" s="13"/>
+      <c r="Y22" s="13"/>
     </row>
     <row r="23" spans="1:25" ht="26.25" thickBot="1">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="60" t="s">
         <v>184</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21" t="s">
+      <c r="B23" s="25"/>
+      <c r="C23" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21" t="s">
+      <c r="E23" s="17"/>
+      <c r="F23" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="G23" s="21" t="s">
+      <c r="G23" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="H23" s="23" t="s">
+      <c r="H23" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="21"/>
-      <c r="S23" s="21"/>
-      <c r="T23" s="21"/>
-      <c r="U23" s="21"/>
-      <c r="V23" s="21"/>
-      <c r="W23" s="15"/>
-      <c r="X23" s="15"/>
-      <c r="Y23" s="15"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="17"/>
+      <c r="W23" s="13"/>
+      <c r="X23" s="13"/>
+      <c r="Y23" s="13"/>
     </row>
     <row r="24" spans="1:25" ht="26.25" thickBot="1">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="60" t="s">
         <v>186</v>
       </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21" t="s">
+      <c r="B24" s="25"/>
+      <c r="C24" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="D24" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="E24" s="21" t="s">
+      <c r="E24" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="F24" s="21" t="s">
+      <c r="F24" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="G24" s="21" t="s">
+      <c r="G24" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="H24" s="23" t="s">
+      <c r="H24" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="21"/>
-      <c r="S24" s="21"/>
-      <c r="T24" s="21"/>
-      <c r="U24" s="21"/>
-      <c r="V24" s="21"/>
-      <c r="W24" s="15"/>
-      <c r="X24" s="15"/>
-      <c r="Y24" s="15"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="17"/>
+      <c r="T24" s="17"/>
+      <c r="U24" s="17"/>
+      <c r="V24" s="17"/>
+      <c r="W24" s="13"/>
+      <c r="X24" s="13"/>
+      <c r="Y24" s="13"/>
     </row>
     <row r="25" spans="1:25" ht="39" thickBot="1">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="58" t="s">
         <v>191</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19" t="s">
+      <c r="B25" s="26"/>
+      <c r="C25" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="E25" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="F25" s="19" t="s">
+      <c r="F25" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21" t="s">
+      <c r="G25" s="17"/>
+      <c r="H25" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="19"/>
-      <c r="S25" s="19"/>
-      <c r="T25" s="19"/>
-      <c r="U25" s="19"/>
-      <c r="V25" s="19"/>
-      <c r="W25" s="15"/>
-      <c r="X25" s="15"/>
-      <c r="Y25" s="15"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="16"/>
+      <c r="V25" s="16"/>
+      <c r="W25" s="13"/>
+      <c r="X25" s="13"/>
+      <c r="Y25" s="13"/>
     </row>
     <row r="26" spans="1:25" ht="26.25" thickBot="1">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="58" t="s">
         <v>195</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19" t="s">
+      <c r="E26" s="16"/>
+      <c r="F26" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21" t="s">
+      <c r="G26" s="17"/>
+      <c r="H26" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="19"/>
-      <c r="S26" s="19"/>
-      <c r="T26" s="19"/>
-      <c r="U26" s="19"/>
-      <c r="V26" s="19"/>
-      <c r="W26" s="15"/>
-      <c r="X26" s="15"/>
-      <c r="Y26" s="15"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="16"/>
+      <c r="V26" s="16"/>
+      <c r="W26" s="13"/>
+      <c r="X26" s="13"/>
+      <c r="Y26" s="13"/>
     </row>
     <row r="27" spans="1:25" ht="77.25" thickBot="1">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="58" t="s">
         <v>200</v>
       </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19" t="s">
+      <c r="B27" s="25"/>
+      <c r="C27" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="F27" s="19" t="s">
+      <c r="F27" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21" t="s">
+      <c r="G27" s="17"/>
+      <c r="H27" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="19"/>
-      <c r="S27" s="19"/>
-      <c r="T27" s="19"/>
-      <c r="U27" s="19"/>
-      <c r="V27" s="19"/>
-      <c r="W27" s="15"/>
-      <c r="X27" s="15"/>
-      <c r="Y27" s="15"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="16"/>
+      <c r="U27" s="16"/>
+      <c r="V27" s="16"/>
+      <c r="W27" s="13"/>
+      <c r="X27" s="13"/>
+      <c r="Y27" s="13"/>
     </row>
     <row r="28" spans="1:25" ht="26.25" thickBot="1">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="60" t="s">
         <v>205</v>
       </c>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21" t="s">
+      <c r="B28" s="26"/>
+      <c r="C28" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="D28" s="21" t="s">
+      <c r="D28" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21" t="s">
+      <c r="E28" s="17"/>
+      <c r="F28" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="G28" s="21" t="s">
+      <c r="G28" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="H28" s="23" t="s">
+      <c r="H28" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="21"/>
-      <c r="R28" s="21"/>
-      <c r="S28" s="21"/>
-      <c r="T28" s="21"/>
-      <c r="U28" s="21"/>
-      <c r="V28" s="21"/>
-      <c r="W28" s="15"/>
-      <c r="X28" s="15"/>
-      <c r="Y28" s="15"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="17"/>
+      <c r="V28" s="17"/>
+      <c r="W28" s="13"/>
+      <c r="X28" s="13"/>
+      <c r="Y28" s="13"/>
     </row>
     <row r="29" spans="1:25" ht="26.25" thickBot="1">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="62" t="s">
         <v>209</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="40" t="s">
         <v>210</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="40" t="s">
         <v>211</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="40" t="s">
         <v>212</v>
       </c>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19" t="s">
+      <c r="E29" s="40"/>
+      <c r="F29" s="40" t="s">
         <v>213</v>
       </c>
-      <c r="G29" s="21" t="s">
+      <c r="G29" s="41" t="s">
         <v>222</v>
       </c>
-      <c r="H29" s="23" t="s">
+      <c r="H29" s="42" t="s">
         <v>217</v>
       </c>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="19"/>
-      <c r="S29" s="19"/>
-      <c r="T29" s="19"/>
-      <c r="U29" s="19"/>
-      <c r="V29" s="19"/>
-      <c r="W29" s="15"/>
-      <c r="X29" s="15"/>
-      <c r="Y29" s="15"/>
-    </row>
-    <row r="30" spans="1:25" ht="13.5" thickBot="1">
-      <c r="A30" s="19"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="19"/>
-      <c r="S30" s="19"/>
-      <c r="T30" s="19"/>
-      <c r="U30" s="19"/>
-      <c r="V30" s="19"/>
-      <c r="W30" s="15"/>
-      <c r="X30" s="15"/>
-      <c r="Y30" s="15"/>
-    </row>
-    <row r="31" spans="1:25" ht="13.5" thickBot="1">
-      <c r="A31" s="19"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="19"/>
-      <c r="R31" s="19"/>
-      <c r="S31" s="19"/>
-      <c r="T31" s="19"/>
-      <c r="U31" s="19"/>
-      <c r="V31" s="19"/>
-      <c r="W31" s="15"/>
-      <c r="X31" s="15"/>
-      <c r="Y31" s="15"/>
-    </row>
-    <row r="32" spans="1:25" ht="13.5" thickBot="1">
-      <c r="A32" s="19"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="19"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="19"/>
-      <c r="S32" s="19"/>
-      <c r="T32" s="19"/>
-      <c r="U32" s="19"/>
-      <c r="V32" s="19"/>
-      <c r="W32" s="15"/>
-      <c r="X32" s="15"/>
-      <c r="Y32" s="15"/>
-    </row>
-    <row r="33" spans="1:25" ht="13.5" thickBot="1">
-      <c r="A33" s="19"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="19"/>
-      <c r="O33" s="19"/>
-      <c r="P33" s="19"/>
-      <c r="Q33" s="19"/>
-      <c r="R33" s="19"/>
-      <c r="S33" s="19"/>
-      <c r="T33" s="19"/>
-      <c r="U33" s="19"/>
-      <c r="V33" s="19"/>
-      <c r="W33" s="15"/>
-      <c r="X33" s="15"/>
-      <c r="Y33" s="15"/>
-    </row>
-    <row r="34" spans="1:25" ht="13.5" thickBot="1">
-      <c r="A34" s="19"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="19"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="19"/>
-      <c r="Q34" s="19"/>
-      <c r="R34" s="19"/>
-      <c r="S34" s="19"/>
-      <c r="T34" s="19"/>
-      <c r="U34" s="19"/>
-      <c r="V34" s="19"/>
-      <c r="W34" s="15"/>
-      <c r="X34" s="15"/>
-      <c r="Y34" s="15"/>
-    </row>
-    <row r="35" spans="1:25" ht="13.5" thickBot="1">
-      <c r="A35" s="19"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="19"/>
-      <c r="O35" s="19"/>
-      <c r="P35" s="19"/>
-      <c r="Q35" s="19"/>
-      <c r="R35" s="19"/>
-      <c r="S35" s="19"/>
-      <c r="T35" s="19"/>
-      <c r="U35" s="19"/>
-      <c r="V35" s="19"/>
-      <c r="W35" s="15"/>
-      <c r="X35" s="15"/>
-      <c r="Y35" s="15"/>
-    </row>
-    <row r="36" spans="1:25" ht="13.5" thickBot="1">
-      <c r="A36" s="19"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="19"/>
-      <c r="N36" s="19"/>
-      <c r="O36" s="19"/>
-      <c r="P36" s="19"/>
-      <c r="Q36" s="19"/>
-      <c r="R36" s="19"/>
-      <c r="S36" s="19"/>
-      <c r="T36" s="19"/>
-      <c r="U36" s="19"/>
-      <c r="V36" s="19"/>
-      <c r="W36" s="15"/>
-      <c r="X36" s="15"/>
-      <c r="Y36" s="15"/>
-    </row>
-    <row r="37" spans="1:25" ht="13.5" thickBot="1">
-      <c r="A37" s="19"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="19"/>
-      <c r="N37" s="19"/>
-      <c r="O37" s="19"/>
-      <c r="P37" s="19"/>
-      <c r="Q37" s="19"/>
-      <c r="R37" s="19"/>
-      <c r="S37" s="19"/>
-      <c r="T37" s="19"/>
-      <c r="U37" s="19"/>
-      <c r="V37" s="19"/>
-    </row>
-    <row r="38" spans="1:25" ht="13.5" thickBot="1">
-      <c r="A38" s="19"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="19"/>
-      <c r="N38" s="19"/>
-      <c r="O38" s="19"/>
-      <c r="P38" s="19"/>
-      <c r="Q38" s="19"/>
-      <c r="R38" s="19"/>
-      <c r="S38" s="19"/>
-      <c r="T38" s="19"/>
-      <c r="U38" s="19"/>
-      <c r="V38" s="19"/>
-    </row>
-    <row r="39" spans="1:25" ht="13.5" thickBot="1">
-      <c r="A39" s="19"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="19"/>
-      <c r="N39" s="19"/>
-      <c r="O39" s="19"/>
-      <c r="P39" s="19"/>
-      <c r="Q39" s="19"/>
-      <c r="R39" s="19"/>
-      <c r="S39" s="19"/>
-      <c r="T39" s="19"/>
-      <c r="U39" s="19"/>
-      <c r="V39" s="19"/>
-    </row>
-    <row r="40" spans="1:25" ht="13.5" thickBot="1">
-      <c r="A40" s="19"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="19"/>
-      <c r="M40" s="19"/>
-      <c r="N40" s="19"/>
-      <c r="O40" s="19"/>
-      <c r="P40" s="19"/>
-      <c r="Q40" s="19"/>
-      <c r="R40" s="19"/>
-      <c r="S40" s="19"/>
-      <c r="T40" s="19"/>
-      <c r="U40" s="19"/>
-      <c r="V40" s="19"/>
-    </row>
-    <row r="41" spans="1:25" ht="13.5" thickBot="1">
-      <c r="A41" s="19"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="19"/>
-      <c r="M41" s="19"/>
-      <c r="N41" s="19"/>
-      <c r="O41" s="19"/>
-      <c r="P41" s="19"/>
-      <c r="Q41" s="19"/>
-      <c r="R41" s="19"/>
-      <c r="S41" s="19"/>
-      <c r="T41" s="19"/>
-      <c r="U41" s="19"/>
-      <c r="V41" s="19"/>
-    </row>
-    <row r="42" spans="1:25" ht="13.5" thickBot="1">
-      <c r="A42" s="19"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="19"/>
-      <c r="K42" s="19"/>
-      <c r="L42" s="19"/>
-      <c r="M42" s="19"/>
-      <c r="N42" s="19"/>
-      <c r="O42" s="19"/>
-      <c r="P42" s="19"/>
-      <c r="Q42" s="19"/>
-      <c r="R42" s="19"/>
-      <c r="S42" s="19"/>
-      <c r="T42" s="19"/>
-      <c r="U42" s="19"/>
-      <c r="V42" s="19"/>
-    </row>
-    <row r="43" spans="1:25" ht="13.5" thickBot="1">
-      <c r="A43" s="19"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="19"/>
-      <c r="L43" s="19"/>
-      <c r="M43" s="19"/>
-      <c r="N43" s="19"/>
-      <c r="O43" s="19"/>
-      <c r="P43" s="19"/>
-      <c r="Q43" s="19"/>
-      <c r="R43" s="19"/>
-      <c r="S43" s="19"/>
-      <c r="T43" s="19"/>
-      <c r="U43" s="19"/>
-      <c r="V43" s="19"/>
-    </row>
-    <row r="44" spans="1:25" ht="13.5" thickBot="1">
-      <c r="A44" s="19"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="19"/>
-      <c r="K44" s="19"/>
-      <c r="L44" s="19"/>
-      <c r="M44" s="19"/>
-      <c r="N44" s="19"/>
-      <c r="O44" s="19"/>
-      <c r="P44" s="19"/>
-      <c r="Q44" s="19"/>
-      <c r="R44" s="19"/>
-      <c r="S44" s="19"/>
-      <c r="T44" s="19"/>
-      <c r="U44" s="19"/>
-      <c r="V44" s="19"/>
-    </row>
-    <row r="45" spans="1:25" ht="13.5" thickBot="1">
-      <c r="A45" s="19"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="19"/>
-      <c r="K45" s="19"/>
-      <c r="L45" s="19"/>
-      <c r="M45" s="19"/>
-      <c r="N45" s="19"/>
-      <c r="O45" s="19"/>
-      <c r="P45" s="19"/>
-      <c r="Q45" s="19"/>
-      <c r="R45" s="19"/>
-      <c r="S45" s="19"/>
-      <c r="T45" s="19"/>
-      <c r="U45" s="19"/>
-      <c r="V45" s="19"/>
-    </row>
-    <row r="46" spans="1:25" ht="13.5" thickBot="1">
-      <c r="A46" s="19"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="19"/>
-      <c r="K46" s="19"/>
-      <c r="L46" s="19"/>
-      <c r="M46" s="19"/>
-      <c r="N46" s="19"/>
-      <c r="O46" s="19"/>
-      <c r="P46" s="19"/>
-      <c r="Q46" s="19"/>
-      <c r="R46" s="19"/>
-      <c r="S46" s="19"/>
-      <c r="T46" s="19"/>
-      <c r="U46" s="19"/>
-      <c r="V46" s="19"/>
-    </row>
-    <row r="47" spans="1:25" ht="13.5" thickBot="1">
-      <c r="A47" s="19"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="19"/>
-      <c r="K47" s="19"/>
-      <c r="L47" s="19"/>
-      <c r="M47" s="19"/>
-      <c r="N47" s="19"/>
-      <c r="O47" s="19"/>
-      <c r="P47" s="19"/>
-      <c r="Q47" s="19"/>
-      <c r="R47" s="19"/>
-      <c r="S47" s="19"/>
-      <c r="T47" s="19"/>
-      <c r="U47" s="19"/>
-      <c r="V47" s="19"/>
-    </row>
-    <row r="48" spans="1:25" ht="13.5" thickBot="1">
-      <c r="A48" s="19"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="19"/>
-      <c r="K48" s="19"/>
-      <c r="L48" s="19"/>
-      <c r="M48" s="19"/>
-      <c r="N48" s="19"/>
-      <c r="O48" s="19"/>
-      <c r="P48" s="19"/>
-      <c r="Q48" s="19"/>
-      <c r="R48" s="19"/>
-      <c r="S48" s="19"/>
-      <c r="T48" s="19"/>
-      <c r="U48" s="19"/>
-      <c r="V48" s="19"/>
-    </row>
-    <row r="49" spans="1:22" ht="13.5" thickBot="1">
-      <c r="A49" s="19"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="19"/>
-      <c r="K49" s="19"/>
-      <c r="L49" s="19"/>
-      <c r="M49" s="19"/>
-      <c r="N49" s="19"/>
-      <c r="O49" s="19"/>
-      <c r="P49" s="19"/>
-      <c r="Q49" s="19"/>
-      <c r="R49" s="19"/>
-      <c r="S49" s="19"/>
-      <c r="T49" s="19"/>
-      <c r="U49" s="19"/>
-      <c r="V49" s="19"/>
-    </row>
-    <row r="50" spans="1:22" ht="13.5" thickBot="1">
-      <c r="A50" s="19"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="19"/>
-      <c r="K50" s="19"/>
-      <c r="L50" s="19"/>
-      <c r="M50" s="19"/>
-      <c r="N50" s="19"/>
-      <c r="O50" s="19"/>
-      <c r="P50" s="19"/>
-      <c r="Q50" s="19"/>
-      <c r="R50" s="19"/>
-      <c r="S50" s="19"/>
-      <c r="T50" s="19"/>
-      <c r="U50" s="19"/>
-      <c r="V50" s="19"/>
-    </row>
-    <row r="51" spans="1:22" ht="13.5" thickBot="1">
-      <c r="A51" s="19"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="19"/>
-      <c r="K51" s="19"/>
-      <c r="L51" s="19"/>
-      <c r="M51" s="19"/>
-      <c r="N51" s="19"/>
-      <c r="O51" s="19"/>
-      <c r="P51" s="19"/>
-      <c r="Q51" s="19"/>
-      <c r="R51" s="19"/>
-      <c r="S51" s="19"/>
-      <c r="T51" s="19"/>
-      <c r="U51" s="19"/>
-      <c r="V51" s="19"/>
-    </row>
-    <row r="52" spans="1:22" ht="13.5" thickBot="1">
-      <c r="A52" s="19"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="19"/>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="19"/>
-      <c r="K52" s="19"/>
-      <c r="L52" s="19"/>
-      <c r="M52" s="19"/>
-      <c r="N52" s="19"/>
-      <c r="O52" s="19"/>
-      <c r="P52" s="19"/>
-      <c r="Q52" s="19"/>
-      <c r="R52" s="19"/>
-      <c r="S52" s="19"/>
-      <c r="T52" s="19"/>
-      <c r="U52" s="19"/>
-      <c r="V52" s="19"/>
-    </row>
-    <row r="53" spans="1:22" ht="13.5" thickBot="1">
-      <c r="A53" s="19"/>
-      <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="19"/>
-      <c r="K53" s="19"/>
-      <c r="L53" s="19"/>
-      <c r="M53" s="19"/>
-      <c r="N53" s="19"/>
-      <c r="O53" s="19"/>
-      <c r="P53" s="19"/>
-      <c r="Q53" s="19"/>
-      <c r="R53" s="19"/>
-      <c r="S53" s="19"/>
-      <c r="T53" s="19"/>
-      <c r="U53" s="19"/>
-      <c r="V53" s="19"/>
-    </row>
-    <row r="54" spans="1:22" ht="13.5" thickBot="1">
-      <c r="A54" s="19"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="19"/>
-      <c r="K54" s="19"/>
-      <c r="L54" s="19"/>
-      <c r="M54" s="19"/>
-      <c r="N54" s="19"/>
-      <c r="O54" s="19"/>
-      <c r="P54" s="19"/>
-      <c r="Q54" s="19"/>
-      <c r="R54" s="19"/>
-      <c r="S54" s="19"/>
-      <c r="T54" s="19"/>
-      <c r="U54" s="19"/>
-      <c r="V54" s="19"/>
-    </row>
-    <row r="55" spans="1:22" ht="13.5" thickBot="1">
-      <c r="A55" s="19"/>
-      <c r="B55" s="19"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="19"/>
-      <c r="K55" s="19"/>
-      <c r="L55" s="19"/>
-      <c r="M55" s="19"/>
-      <c r="N55" s="19"/>
-      <c r="O55" s="19"/>
-      <c r="P55" s="19"/>
-      <c r="Q55" s="19"/>
-      <c r="R55" s="19"/>
-      <c r="S55" s="19"/>
-      <c r="T55" s="19"/>
-      <c r="U55" s="19"/>
-      <c r="V55" s="19"/>
-    </row>
-    <row r="56" spans="1:22" ht="13.5" thickBot="1">
-      <c r="A56" s="19"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="19"/>
-      <c r="K56" s="19"/>
-      <c r="L56" s="19"/>
-      <c r="M56" s="19"/>
-      <c r="N56" s="19"/>
-      <c r="O56" s="19"/>
-      <c r="P56" s="19"/>
-      <c r="Q56" s="19"/>
-      <c r="R56" s="19"/>
-      <c r="S56" s="19"/>
-      <c r="T56" s="19"/>
-      <c r="U56" s="19"/>
-      <c r="V56" s="19"/>
-    </row>
-    <row r="57" spans="1:22" ht="13.5" thickBot="1">
-      <c r="A57" s="19"/>
-      <c r="B57" s="19"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="19"/>
-      <c r="K57" s="19"/>
-      <c r="L57" s="19"/>
-      <c r="M57" s="19"/>
-      <c r="N57" s="19"/>
-      <c r="O57" s="19"/>
-      <c r="P57" s="19"/>
-      <c r="Q57" s="19"/>
-      <c r="R57" s="19"/>
-      <c r="S57" s="19"/>
-      <c r="T57" s="19"/>
-      <c r="U57" s="19"/>
-      <c r="V57" s="19"/>
-    </row>
-    <row r="58" spans="1:22" ht="13.5" thickBot="1">
-      <c r="A58" s="19"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="19"/>
-      <c r="K58" s="19"/>
-      <c r="L58" s="19"/>
-      <c r="M58" s="19"/>
-      <c r="N58" s="19"/>
-      <c r="O58" s="19"/>
-      <c r="P58" s="19"/>
-      <c r="Q58" s="19"/>
-      <c r="R58" s="19"/>
-      <c r="S58" s="19"/>
-      <c r="T58" s="19"/>
-      <c r="U58" s="19"/>
-      <c r="V58" s="19"/>
-    </row>
-    <row r="59" spans="1:22" ht="13.5" thickBot="1">
-      <c r="A59" s="19"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="19"/>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="19"/>
-      <c r="K59" s="19"/>
-      <c r="L59" s="19"/>
-      <c r="M59" s="19"/>
-      <c r="N59" s="19"/>
-      <c r="O59" s="19"/>
-      <c r="P59" s="19"/>
-      <c r="Q59" s="19"/>
-      <c r="R59" s="19"/>
-      <c r="S59" s="19"/>
-      <c r="T59" s="19"/>
-      <c r="U59" s="19"/>
-      <c r="V59" s="19"/>
-    </row>
-    <row r="60" spans="1:22" ht="13.5" thickBot="1">
-      <c r="A60" s="19"/>
-      <c r="B60" s="19"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="19"/>
-      <c r="K60" s="19"/>
-      <c r="L60" s="19"/>
-      <c r="M60" s="19"/>
-      <c r="N60" s="19"/>
-      <c r="O60" s="19"/>
-      <c r="P60" s="19"/>
-      <c r="Q60" s="19"/>
-      <c r="R60" s="19"/>
-      <c r="S60" s="19"/>
-      <c r="T60" s="19"/>
-      <c r="U60" s="19"/>
-      <c r="V60" s="19"/>
-    </row>
-    <row r="61" spans="1:22" ht="13.5" thickBot="1">
-      <c r="A61" s="19"/>
-      <c r="B61" s="19"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="19"/>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="19"/>
-      <c r="K61" s="19"/>
-      <c r="L61" s="19"/>
-      <c r="M61" s="19"/>
-      <c r="N61" s="19"/>
-      <c r="O61" s="19"/>
-      <c r="P61" s="19"/>
-      <c r="Q61" s="19"/>
-      <c r="R61" s="19"/>
-      <c r="S61" s="19"/>
-      <c r="T61" s="19"/>
-      <c r="U61" s="19"/>
-      <c r="V61" s="19"/>
-    </row>
-    <row r="62" spans="1:22" ht="13.5" thickBot="1">
-      <c r="A62" s="19"/>
-      <c r="B62" s="19"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="19"/>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="19"/>
-      <c r="K62" s="19"/>
-      <c r="L62" s="19"/>
-      <c r="M62" s="19"/>
-      <c r="N62" s="19"/>
-      <c r="O62" s="19"/>
-      <c r="P62" s="19"/>
-      <c r="Q62" s="19"/>
-      <c r="R62" s="19"/>
-      <c r="S62" s="19"/>
-      <c r="T62" s="19"/>
-      <c r="U62" s="19"/>
-      <c r="V62" s="19"/>
-    </row>
-    <row r="63" spans="1:22" ht="13.5" thickBot="1">
-      <c r="A63" s="19"/>
-      <c r="B63" s="19"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="19"/>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="19"/>
-      <c r="K63" s="19"/>
-      <c r="L63" s="19"/>
-      <c r="M63" s="19"/>
-      <c r="N63" s="19"/>
-      <c r="O63" s="19"/>
-      <c r="P63" s="19"/>
-      <c r="Q63" s="19"/>
-      <c r="R63" s="19"/>
-      <c r="S63" s="19"/>
-      <c r="T63" s="19"/>
-      <c r="U63" s="19"/>
-      <c r="V63" s="19"/>
-    </row>
-    <row r="64" spans="1:22" ht="13.5" thickBot="1">
-      <c r="A64" s="19"/>
-      <c r="B64" s="19"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="19"/>
-      <c r="G64" s="19"/>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="19"/>
-      <c r="K64" s="19"/>
-      <c r="L64" s="19"/>
-      <c r="M64" s="19"/>
-      <c r="N64" s="19"/>
-      <c r="O64" s="19"/>
-      <c r="P64" s="19"/>
-      <c r="Q64" s="19"/>
-      <c r="R64" s="19"/>
-      <c r="S64" s="19"/>
-      <c r="T64" s="19"/>
-      <c r="U64" s="19"/>
-      <c r="V64" s="19"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="16"/>
+      <c r="S29" s="16"/>
+      <c r="T29" s="16"/>
+      <c r="U29" s="16"/>
+      <c r="V29" s="16"/>
+      <c r="W29" s="13"/>
+      <c r="X29" s="13"/>
+      <c r="Y29" s="13"/>
+    </row>
+    <row r="30" spans="1:25" ht="39" customHeight="1" thickBot="1">
+      <c r="A30" s="45" t="s">
+        <v>281</v>
+      </c>
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="16"/>
+      <c r="S30" s="16"/>
+      <c r="T30" s="16"/>
+      <c r="U30" s="16"/>
+      <c r="V30" s="16"/>
+      <c r="W30" s="13"/>
+      <c r="X30" s="13"/>
+      <c r="Y30" s="13"/>
+    </row>
+    <row r="31" spans="1:25" ht="39" thickBot="1">
+      <c r="A31" s="64" t="s">
+        <v>224</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="C31" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="D31" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="E31" s="38"/>
+      <c r="F31" s="43" t="s">
+        <v>228</v>
+      </c>
+      <c r="G31" s="44" t="s">
+        <v>282</v>
+      </c>
+      <c r="H31" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31" s="65"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="16"/>
+      <c r="T31" s="16"/>
+      <c r="U31" s="16"/>
+      <c r="V31" s="16"/>
+      <c r="W31" s="13"/>
+      <c r="X31" s="13"/>
+      <c r="Y31" s="13"/>
+    </row>
+    <row r="32" spans="1:25" ht="26.25" thickBot="1">
+      <c r="A32" s="66" t="s">
+        <v>229</v>
+      </c>
+      <c r="B32" s="20"/>
+      <c r="C32" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="E32" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="F32" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="H32" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="I32" s="65"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="16"/>
+      <c r="S32" s="16"/>
+      <c r="T32" s="16"/>
+      <c r="U32" s="16"/>
+      <c r="V32" s="16"/>
+      <c r="W32" s="13"/>
+      <c r="X32" s="13"/>
+      <c r="Y32" s="13"/>
+    </row>
+    <row r="33" spans="1:25" ht="39" thickBot="1">
+      <c r="A33" s="66" t="s">
+        <v>233</v>
+      </c>
+      <c r="B33" s="20"/>
+      <c r="C33" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="D33" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="E33" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="F33" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="G33" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="H33" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I33" s="65"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="16"/>
+      <c r="R33" s="16"/>
+      <c r="S33" s="16"/>
+      <c r="T33" s="16"/>
+      <c r="U33" s="16"/>
+      <c r="V33" s="16"/>
+      <c r="W33" s="13"/>
+      <c r="X33" s="13"/>
+      <c r="Y33" s="13"/>
+    </row>
+    <row r="34" spans="1:25" ht="39" thickBot="1">
+      <c r="A34" s="66" t="s">
+        <v>236</v>
+      </c>
+      <c r="B34" s="21"/>
+      <c r="C34" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="D34" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="E34" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="F34" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="H34" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="I34" s="65"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="16"/>
+      <c r="S34" s="16"/>
+      <c r="T34" s="16"/>
+      <c r="U34" s="16"/>
+      <c r="V34" s="16"/>
+      <c r="W34" s="13"/>
+      <c r="X34" s="13"/>
+      <c r="Y34" s="13"/>
+    </row>
+    <row r="35" spans="1:25" ht="39" thickBot="1">
+      <c r="A35" s="66" t="s">
+        <v>241</v>
+      </c>
+      <c r="B35" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="16"/>
+      <c r="F35" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="H35" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="I35" s="65"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="16"/>
+      <c r="S35" s="16"/>
+      <c r="T35" s="16"/>
+      <c r="U35" s="16"/>
+      <c r="V35" s="16"/>
+      <c r="W35" s="13"/>
+      <c r="X35" s="13"/>
+      <c r="Y35" s="13"/>
+    </row>
+    <row r="36" spans="1:25" ht="39" thickBot="1">
+      <c r="A36" s="66" t="s">
+        <v>243</v>
+      </c>
+      <c r="B36" s="33"/>
+      <c r="C36" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="E36" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="F36" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="H36" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="I36" s="65"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="16"/>
+      <c r="R36" s="16"/>
+      <c r="S36" s="16"/>
+      <c r="T36" s="16"/>
+      <c r="U36" s="16"/>
+      <c r="V36" s="16"/>
+      <c r="W36" s="13"/>
+      <c r="X36" s="13"/>
+      <c r="Y36" s="13"/>
+    </row>
+    <row r="37" spans="1:25" ht="39" thickBot="1">
+      <c r="A37" s="66" t="s">
+        <v>245</v>
+      </c>
+      <c r="B37" s="34"/>
+      <c r="C37" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="D37" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="E37" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="F37" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="G37" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="H37" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="I37" s="65"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="16"/>
+      <c r="P37" s="16"/>
+      <c r="Q37" s="16"/>
+      <c r="R37" s="16"/>
+      <c r="S37" s="16"/>
+      <c r="T37" s="16"/>
+      <c r="U37" s="16"/>
+      <c r="V37" s="16"/>
+      <c r="W37" s="13"/>
+      <c r="X37" s="13"/>
+      <c r="Y37" s="13"/>
+    </row>
+    <row r="38" spans="1:25" ht="39" thickBot="1">
+      <c r="A38" s="66" t="s">
+        <v>248</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="D38" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="E38" s="16"/>
+      <c r="F38" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="G38" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="H38" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="I38" s="65"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="16"/>
+      <c r="R38" s="16"/>
+      <c r="S38" s="16"/>
+      <c r="T38" s="16"/>
+      <c r="U38" s="16"/>
+      <c r="V38" s="16"/>
+    </row>
+    <row r="39" spans="1:25" ht="39" thickBot="1">
+      <c r="A39" s="66" t="s">
+        <v>249</v>
+      </c>
+      <c r="B39" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="C39" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="D39" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="E39" s="16"/>
+      <c r="F39" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="G39" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="H39" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="I39" s="65"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="16"/>
+      <c r="Q39" s="16"/>
+      <c r="R39" s="16"/>
+      <c r="S39" s="16"/>
+      <c r="T39" s="16"/>
+      <c r="U39" s="16"/>
+      <c r="V39" s="16"/>
+    </row>
+    <row r="40" spans="1:25" ht="39" thickBot="1">
+      <c r="A40" s="66" t="s">
+        <v>251</v>
+      </c>
+      <c r="B40" s="33"/>
+      <c r="C40" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="D40" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="E40" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="F40" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="G40" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="H40" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="I40" s="65"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="16"/>
+      <c r="P40" s="16"/>
+      <c r="Q40" s="16"/>
+      <c r="R40" s="16"/>
+      <c r="S40" s="16"/>
+      <c r="T40" s="16"/>
+      <c r="U40" s="16"/>
+      <c r="V40" s="16"/>
+    </row>
+    <row r="41" spans="1:25" ht="39" thickBot="1">
+      <c r="A41" s="66" t="s">
+        <v>253</v>
+      </c>
+      <c r="B41" s="34"/>
+      <c r="C41" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="D41" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="E41" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="F41" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="G41" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="H41" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="I41" s="65"/>
+      <c r="J41" s="35"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="16"/>
+      <c r="O41" s="16"/>
+      <c r="P41" s="16"/>
+      <c r="Q41" s="16"/>
+      <c r="R41" s="16"/>
+      <c r="S41" s="16"/>
+      <c r="T41" s="16"/>
+      <c r="U41" s="16"/>
+      <c r="V41" s="16"/>
+    </row>
+    <row r="42" spans="1:25" ht="39" thickBot="1">
+      <c r="A42" s="66" t="s">
+        <v>255</v>
+      </c>
+      <c r="B42" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="C42" s="29" t="s">
+        <v>256</v>
+      </c>
+      <c r="D42" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="E42" s="16"/>
+      <c r="F42" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="G42" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="H42" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="I42" s="65"/>
+      <c r="J42" s="35"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="16"/>
+      <c r="Q42" s="16"/>
+      <c r="R42" s="16"/>
+      <c r="S42" s="16"/>
+      <c r="T42" s="16"/>
+      <c r="U42" s="16"/>
+      <c r="V42" s="16"/>
+    </row>
+    <row r="43" spans="1:25" ht="39" thickBot="1">
+      <c r="A43" s="66" t="s">
+        <v>258</v>
+      </c>
+      <c r="B43" s="33"/>
+      <c r="C43" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="D43" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="E43" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="F43" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="G43" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="H43" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="I43" s="65"/>
+      <c r="J43" s="35"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="16"/>
+      <c r="N43" s="16"/>
+      <c r="O43" s="16"/>
+      <c r="P43" s="16"/>
+      <c r="Q43" s="16"/>
+      <c r="R43" s="16"/>
+      <c r="S43" s="16"/>
+      <c r="T43" s="16"/>
+      <c r="U43" s="16"/>
+      <c r="V43" s="16"/>
+    </row>
+    <row r="44" spans="1:25" ht="39" thickBot="1">
+      <c r="A44" s="66" t="s">
+        <v>259</v>
+      </c>
+      <c r="B44" s="34"/>
+      <c r="C44" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="D44" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="E44" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="F44" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="G44" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="H44" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="I44" s="65"/>
+      <c r="J44" s="35"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="16"/>
+      <c r="N44" s="16"/>
+      <c r="O44" s="16"/>
+      <c r="P44" s="16"/>
+      <c r="Q44" s="16"/>
+      <c r="R44" s="16"/>
+      <c r="S44" s="16"/>
+      <c r="T44" s="16"/>
+      <c r="U44" s="16"/>
+      <c r="V44" s="16"/>
+    </row>
+    <row r="45" spans="1:25" ht="39" thickBot="1">
+      <c r="A45" s="66" t="s">
+        <v>260</v>
+      </c>
+      <c r="B45" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="C45" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="D45" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="E45" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="F45" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="G45" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="H45" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="I45" s="65"/>
+      <c r="J45" s="35"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="16"/>
+      <c r="N45" s="16"/>
+      <c r="O45" s="16"/>
+      <c r="P45" s="16"/>
+      <c r="Q45" s="16"/>
+      <c r="R45" s="16"/>
+      <c r="S45" s="16"/>
+      <c r="T45" s="16"/>
+      <c r="U45" s="16"/>
+      <c r="V45" s="16"/>
+    </row>
+    <row r="46" spans="1:25" ht="39" thickBot="1">
+      <c r="A46" s="66" t="s">
+        <v>262</v>
+      </c>
+      <c r="B46" s="33"/>
+      <c r="C46" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="D46" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="E46" s="16"/>
+      <c r="F46" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="G46" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="H46" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="I46" s="65"/>
+      <c r="J46" s="35"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="16"/>
+      <c r="N46" s="16"/>
+      <c r="O46" s="16"/>
+      <c r="P46" s="16"/>
+      <c r="Q46" s="16"/>
+      <c r="R46" s="16"/>
+      <c r="S46" s="16"/>
+      <c r="T46" s="16"/>
+      <c r="U46" s="16"/>
+      <c r="V46" s="16"/>
+    </row>
+    <row r="47" spans="1:25" ht="51.75" thickBot="1">
+      <c r="A47" s="66" t="s">
+        <v>264</v>
+      </c>
+      <c r="B47" s="33"/>
+      <c r="C47" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="D47" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E47" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="F47" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="G47" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="H47" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="I47" s="65"/>
+      <c r="J47" s="35"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="16"/>
+      <c r="M47" s="16"/>
+      <c r="N47" s="16"/>
+      <c r="O47" s="16"/>
+      <c r="P47" s="16"/>
+      <c r="Q47" s="16"/>
+      <c r="R47" s="16"/>
+      <c r="S47" s="16"/>
+      <c r="T47" s="16"/>
+      <c r="U47" s="16"/>
+      <c r="V47" s="16"/>
+    </row>
+    <row r="48" spans="1:25" ht="39" thickBot="1">
+      <c r="A48" s="66" t="s">
+        <v>267</v>
+      </c>
+      <c r="B48" s="34"/>
+      <c r="C48" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="D48" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="E48" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="F48" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="G48" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="H48" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="I48" s="65"/>
+      <c r="J48" s="35"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="16"/>
+      <c r="M48" s="16"/>
+      <c r="N48" s="16"/>
+      <c r="O48" s="16"/>
+      <c r="P48" s="16"/>
+      <c r="Q48" s="16"/>
+      <c r="R48" s="16"/>
+      <c r="S48" s="16"/>
+      <c r="T48" s="16"/>
+      <c r="U48" s="16"/>
+      <c r="V48" s="16"/>
+    </row>
+    <row r="49" spans="1:22" ht="39" thickBot="1">
+      <c r="A49" s="66" t="s">
+        <v>269</v>
+      </c>
+      <c r="B49" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="C49" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="D49" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="E49" s="16"/>
+      <c r="F49" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="G49" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="H49" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="I49" s="65"/>
+      <c r="J49" s="35"/>
+      <c r="K49" s="16"/>
+      <c r="L49" s="16"/>
+      <c r="M49" s="16"/>
+      <c r="N49" s="16"/>
+      <c r="O49" s="16"/>
+      <c r="P49" s="16"/>
+      <c r="Q49" s="16"/>
+      <c r="R49" s="16"/>
+      <c r="S49" s="16"/>
+      <c r="T49" s="16"/>
+      <c r="U49" s="16"/>
+      <c r="V49" s="16"/>
+    </row>
+    <row r="50" spans="1:22" ht="39" thickBot="1">
+      <c r="A50" s="66" t="s">
+        <v>271</v>
+      </c>
+      <c r="B50" s="34"/>
+      <c r="C50" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="D50" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="E50" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="F50" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="G50" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="H50" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="I50" s="65"/>
+      <c r="J50" s="35"/>
+      <c r="K50" s="16"/>
+      <c r="L50" s="16"/>
+      <c r="M50" s="16"/>
+      <c r="N50" s="16"/>
+      <c r="O50" s="16"/>
+      <c r="P50" s="16"/>
+      <c r="Q50" s="16"/>
+      <c r="R50" s="16"/>
+      <c r="S50" s="16"/>
+      <c r="T50" s="16"/>
+      <c r="U50" s="16"/>
+      <c r="V50" s="16"/>
+    </row>
+    <row r="51" spans="1:22" ht="39" thickBot="1">
+      <c r="A51" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="B51" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="C51" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="D51" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="E51" s="16"/>
+      <c r="F51" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="G51" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="H51" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="I51" s="65"/>
+      <c r="J51" s="35"/>
+      <c r="K51" s="16"/>
+      <c r="L51" s="16"/>
+      <c r="M51" s="16"/>
+      <c r="N51" s="16"/>
+      <c r="O51" s="16"/>
+      <c r="P51" s="16"/>
+      <c r="Q51" s="16"/>
+      <c r="R51" s="16"/>
+      <c r="S51" s="16"/>
+      <c r="T51" s="16"/>
+      <c r="U51" s="16"/>
+      <c r="V51" s="16"/>
+    </row>
+    <row r="52" spans="1:22" ht="64.5" thickBot="1">
+      <c r="A52" s="66" t="s">
+        <v>275</v>
+      </c>
+      <c r="B52" s="33"/>
+      <c r="C52" s="29" t="s">
+        <v>276</v>
+      </c>
+      <c r="D52" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="E52" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="F52" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="G52" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="H52" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="I52" s="65"/>
+      <c r="J52" s="35"/>
+      <c r="K52" s="16"/>
+      <c r="L52" s="16"/>
+      <c r="M52" s="16"/>
+      <c r="N52" s="16"/>
+      <c r="O52" s="16"/>
+      <c r="P52" s="16"/>
+      <c r="Q52" s="16"/>
+      <c r="R52" s="16"/>
+      <c r="S52" s="16"/>
+      <c r="T52" s="16"/>
+      <c r="U52" s="16"/>
+      <c r="V52" s="16"/>
+    </row>
+    <row r="53" spans="1:22" ht="77.25" thickBot="1">
+      <c r="A53" s="67" t="s">
+        <v>279</v>
+      </c>
+      <c r="B53" s="33"/>
+      <c r="C53" s="40" t="s">
+        <v>276</v>
+      </c>
+      <c r="D53" s="48" t="s">
+        <v>202</v>
+      </c>
+      <c r="E53" s="48" t="s">
+        <v>203</v>
+      </c>
+      <c r="F53" s="48" t="s">
+        <v>280</v>
+      </c>
+      <c r="G53" s="41" t="s">
+        <v>286</v>
+      </c>
+      <c r="H53" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="I53" s="65"/>
+      <c r="J53" s="35"/>
+      <c r="K53" s="16"/>
+      <c r="L53" s="16"/>
+      <c r="M53" s="16"/>
+      <c r="N53" s="16"/>
+      <c r="O53" s="16"/>
+      <c r="P53" s="16"/>
+      <c r="Q53" s="16"/>
+      <c r="R53" s="16"/>
+      <c r="S53" s="16"/>
+      <c r="T53" s="16"/>
+      <c r="U53" s="16"/>
+      <c r="V53" s="16"/>
+    </row>
+    <row r="54" spans="1:22" ht="39" customHeight="1" thickBot="1">
+      <c r="A54" s="52" t="s">
+        <v>321</v>
+      </c>
+      <c r="B54" s="53"/>
+      <c r="C54" s="53"/>
+      <c r="D54" s="53"/>
+      <c r="E54" s="53"/>
+      <c r="F54" s="53"/>
+      <c r="G54" s="53"/>
+      <c r="H54" s="53"/>
+      <c r="I54" s="54"/>
+      <c r="J54" s="35"/>
+      <c r="K54" s="16"/>
+      <c r="L54" s="16"/>
+      <c r="M54" s="16"/>
+      <c r="N54" s="16"/>
+      <c r="O54" s="16"/>
+      <c r="P54" s="16"/>
+      <c r="Q54" s="16"/>
+      <c r="R54" s="16"/>
+      <c r="S54" s="16"/>
+      <c r="T54" s="16"/>
+      <c r="U54" s="16"/>
+      <c r="V54" s="16"/>
+    </row>
+    <row r="55" spans="1:22" ht="39" thickBot="1">
+      <c r="A55" s="68" t="s">
+        <v>287</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="C55" s="49" t="s">
+        <v>226</v>
+      </c>
+      <c r="D55" s="50" t="s">
+        <v>227</v>
+      </c>
+      <c r="E55" s="49"/>
+      <c r="F55" s="50" t="s">
+        <v>288</v>
+      </c>
+      <c r="G55" s="41" t="s">
+        <v>286</v>
+      </c>
+      <c r="H55" s="51" t="s">
+        <v>217</v>
+      </c>
+      <c r="I55" s="69"/>
+      <c r="J55" s="37"/>
+      <c r="K55" s="30"/>
+      <c r="L55" s="16"/>
+      <c r="M55" s="16"/>
+      <c r="N55" s="16"/>
+      <c r="O55" s="16"/>
+      <c r="P55" s="16"/>
+      <c r="Q55" s="16"/>
+      <c r="R55" s="16"/>
+      <c r="S55" s="16"/>
+      <c r="T55" s="16"/>
+      <c r="U55" s="16"/>
+      <c r="V55" s="16"/>
+    </row>
+    <row r="56" spans="1:22" ht="39" thickBot="1">
+      <c r="A56" s="70" t="s">
+        <v>289</v>
+      </c>
+      <c r="B56" s="20"/>
+      <c r="C56" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="D56" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="E56" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="F56" s="31" t="s">
+        <v>290</v>
+      </c>
+      <c r="G56" s="41" t="s">
+        <v>286</v>
+      </c>
+      <c r="H56" s="51" t="s">
+        <v>217</v>
+      </c>
+      <c r="I56" s="71"/>
+      <c r="J56" s="37"/>
+      <c r="K56" s="30"/>
+      <c r="L56" s="16"/>
+      <c r="M56" s="16"/>
+      <c r="N56" s="16"/>
+      <c r="O56" s="16"/>
+      <c r="P56" s="16"/>
+      <c r="Q56" s="16"/>
+      <c r="R56" s="16"/>
+      <c r="S56" s="16"/>
+      <c r="T56" s="16"/>
+      <c r="U56" s="16"/>
+      <c r="V56" s="16"/>
+    </row>
+    <row r="57" spans="1:22" ht="39" thickBot="1">
+      <c r="A57" s="70" t="s">
+        <v>291</v>
+      </c>
+      <c r="B57" s="20"/>
+      <c r="C57" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="D57" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="E57" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="F57" s="31" t="s">
+        <v>292</v>
+      </c>
+      <c r="G57" s="41" t="s">
+        <v>286</v>
+      </c>
+      <c r="H57" s="51" t="s">
+        <v>217</v>
+      </c>
+      <c r="I57" s="71"/>
+      <c r="J57" s="37"/>
+      <c r="K57" s="30"/>
+      <c r="L57" s="16"/>
+      <c r="M57" s="16"/>
+      <c r="N57" s="16"/>
+      <c r="O57" s="16"/>
+      <c r="P57" s="16"/>
+      <c r="Q57" s="16"/>
+      <c r="R57" s="16"/>
+      <c r="S57" s="16"/>
+      <c r="T57" s="16"/>
+      <c r="U57" s="16"/>
+      <c r="V57" s="16"/>
+    </row>
+    <row r="58" spans="1:22" ht="39" thickBot="1">
+      <c r="A58" s="70" t="s">
+        <v>293</v>
+      </c>
+      <c r="B58" s="20"/>
+      <c r="C58" s="30" t="s">
+        <v>294</v>
+      </c>
+      <c r="D58" s="31" t="s">
+        <v>295</v>
+      </c>
+      <c r="E58" s="30" t="s">
+        <v>296</v>
+      </c>
+      <c r="F58" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="G58" s="41" t="s">
+        <v>286</v>
+      </c>
+      <c r="H58" s="51" t="s">
+        <v>217</v>
+      </c>
+      <c r="I58" s="71"/>
+      <c r="J58" s="37"/>
+      <c r="K58" s="30"/>
+      <c r="L58" s="16"/>
+      <c r="M58" s="16"/>
+      <c r="N58" s="16"/>
+      <c r="O58" s="16"/>
+      <c r="P58" s="16"/>
+      <c r="Q58" s="16"/>
+      <c r="R58" s="16"/>
+      <c r="S58" s="16"/>
+      <c r="T58" s="16"/>
+      <c r="U58" s="16"/>
+      <c r="V58" s="16"/>
+    </row>
+    <row r="59" spans="1:22" ht="39" thickBot="1">
+      <c r="A59" s="70" t="s">
+        <v>298</v>
+      </c>
+      <c r="B59" s="21"/>
+      <c r="C59" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="D59" s="31" t="s">
+        <v>300</v>
+      </c>
+      <c r="E59" s="30"/>
+      <c r="F59" s="31" t="s">
+        <v>301</v>
+      </c>
+      <c r="G59" s="41" t="s">
+        <v>286</v>
+      </c>
+      <c r="H59" s="51" t="s">
+        <v>217</v>
+      </c>
+      <c r="I59" s="71"/>
+      <c r="J59" s="37"/>
+      <c r="K59" s="30"/>
+      <c r="L59" s="16"/>
+      <c r="M59" s="16"/>
+      <c r="N59" s="16"/>
+      <c r="O59" s="16"/>
+      <c r="P59" s="16"/>
+      <c r="Q59" s="16"/>
+      <c r="R59" s="16"/>
+      <c r="S59" s="16"/>
+      <c r="T59" s="16"/>
+      <c r="U59" s="16"/>
+      <c r="V59" s="16"/>
+    </row>
+    <row r="60" spans="1:22" ht="39" thickBot="1">
+      <c r="A60" s="70" t="s">
+        <v>302</v>
+      </c>
+      <c r="B60" s="19" t="s">
+        <v>303</v>
+      </c>
+      <c r="C60" s="30" t="s">
+        <v>304</v>
+      </c>
+      <c r="D60" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="E60" s="30"/>
+      <c r="F60" s="31" t="s">
+        <v>306</v>
+      </c>
+      <c r="G60" s="41" t="s">
+        <v>286</v>
+      </c>
+      <c r="H60" s="51" t="s">
+        <v>217</v>
+      </c>
+      <c r="I60" s="71"/>
+      <c r="J60" s="37"/>
+      <c r="K60" s="30"/>
+      <c r="L60" s="16"/>
+      <c r="M60" s="16"/>
+      <c r="N60" s="16"/>
+      <c r="O60" s="16"/>
+      <c r="P60" s="16"/>
+      <c r="Q60" s="16"/>
+      <c r="R60" s="16"/>
+      <c r="S60" s="16"/>
+      <c r="T60" s="16"/>
+      <c r="U60" s="16"/>
+      <c r="V60" s="16"/>
+    </row>
+    <row r="61" spans="1:22" ht="39" thickBot="1">
+      <c r="A61" s="70" t="s">
+        <v>307</v>
+      </c>
+      <c r="B61" s="20"/>
+      <c r="C61" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="D61" s="31" t="s">
+        <v>309</v>
+      </c>
+      <c r="E61" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="F61" s="31" t="s">
+        <v>310</v>
+      </c>
+      <c r="G61" s="41" t="s">
+        <v>286</v>
+      </c>
+      <c r="H61" s="51" t="s">
+        <v>217</v>
+      </c>
+      <c r="I61" s="71"/>
+      <c r="J61" s="37"/>
+      <c r="K61" s="30"/>
+      <c r="L61" s="16"/>
+      <c r="M61" s="16"/>
+      <c r="N61" s="16"/>
+      <c r="O61" s="16"/>
+      <c r="P61" s="16"/>
+      <c r="Q61" s="16"/>
+      <c r="R61" s="16"/>
+      <c r="S61" s="16"/>
+      <c r="T61" s="16"/>
+      <c r="U61" s="16"/>
+      <c r="V61" s="16"/>
+    </row>
+    <row r="62" spans="1:22" ht="39" thickBot="1">
+      <c r="A62" s="70" t="s">
+        <v>311</v>
+      </c>
+      <c r="B62" s="20"/>
+      <c r="C62" s="30" t="s">
+        <v>312</v>
+      </c>
+      <c r="D62" s="31" t="s">
+        <v>313</v>
+      </c>
+      <c r="E62" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="F62" s="31" t="s">
+        <v>314</v>
+      </c>
+      <c r="G62" s="41" t="s">
+        <v>286</v>
+      </c>
+      <c r="H62" s="51" t="s">
+        <v>217</v>
+      </c>
+      <c r="I62" s="71"/>
+      <c r="J62" s="37"/>
+      <c r="K62" s="30"/>
+      <c r="L62" s="16"/>
+      <c r="M62" s="16"/>
+      <c r="N62" s="16"/>
+      <c r="O62" s="16"/>
+      <c r="P62" s="16"/>
+      <c r="Q62" s="16"/>
+      <c r="R62" s="16"/>
+      <c r="S62" s="16"/>
+      <c r="T62" s="16"/>
+      <c r="U62" s="16"/>
+      <c r="V62" s="16"/>
+    </row>
+    <row r="63" spans="1:22" ht="39" thickBot="1">
+      <c r="A63" s="70" t="s">
+        <v>315</v>
+      </c>
+      <c r="B63" s="20"/>
+      <c r="C63" s="30" t="s">
+        <v>316</v>
+      </c>
+      <c r="D63" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="E63" s="30" t="s">
+        <v>296</v>
+      </c>
+      <c r="F63" s="31" t="s">
+        <v>318</v>
+      </c>
+      <c r="G63" s="41" t="s">
+        <v>286</v>
+      </c>
+      <c r="H63" s="51" t="s">
+        <v>217</v>
+      </c>
+      <c r="I63" s="71"/>
+      <c r="J63" s="37"/>
+      <c r="K63" s="30"/>
+      <c r="L63" s="16"/>
+      <c r="M63" s="16"/>
+      <c r="N63" s="16"/>
+      <c r="O63" s="16"/>
+      <c r="P63" s="16"/>
+      <c r="Q63" s="16"/>
+      <c r="R63" s="16"/>
+      <c r="S63" s="16"/>
+      <c r="T63" s="16"/>
+      <c r="U63" s="16"/>
+      <c r="V63" s="16"/>
+    </row>
+    <row r="64" spans="1:22" ht="39" thickBot="1">
+      <c r="A64" s="72" t="s">
+        <v>319</v>
+      </c>
+      <c r="B64" s="73"/>
+      <c r="C64" s="74" t="s">
+        <v>299</v>
+      </c>
+      <c r="D64" s="75" t="s">
+        <v>300</v>
+      </c>
+      <c r="E64" s="74"/>
+      <c r="F64" s="75" t="s">
+        <v>320</v>
+      </c>
+      <c r="G64" s="78" t="s">
+        <v>286</v>
+      </c>
+      <c r="H64" s="76" t="s">
+        <v>217</v>
+      </c>
+      <c r="I64" s="77"/>
+      <c r="J64" s="37"/>
+      <c r="K64" s="30"/>
+      <c r="L64" s="16"/>
+      <c r="M64" s="16"/>
+      <c r="N64" s="16"/>
+      <c r="O64" s="16"/>
+      <c r="P64" s="16"/>
+      <c r="Q64" s="16"/>
+      <c r="R64" s="16"/>
+      <c r="S64" s="16"/>
+      <c r="T64" s="16"/>
+      <c r="U64" s="16"/>
+      <c r="V64" s="16"/>
     </row>
     <row r="65" spans="1:22" ht="13.5" thickBot="1">
-      <c r="A65" s="19"/>
-      <c r="B65" s="19"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="19"/>
-      <c r="F65" s="19"/>
-      <c r="G65" s="19"/>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="19"/>
-      <c r="K65" s="19"/>
-      <c r="L65" s="19"/>
-      <c r="M65" s="19"/>
-      <c r="N65" s="19"/>
-      <c r="O65" s="19"/>
-      <c r="P65" s="19"/>
-      <c r="Q65" s="19"/>
-      <c r="R65" s="19"/>
-      <c r="S65" s="19"/>
-      <c r="T65" s="19"/>
-      <c r="U65" s="19"/>
-      <c r="V65" s="19"/>
+      <c r="A65" s="38"/>
+      <c r="B65" s="38"/>
+      <c r="C65" s="38"/>
+      <c r="D65" s="38"/>
+      <c r="E65" s="38"/>
+      <c r="F65" s="38"/>
+      <c r="G65" s="38"/>
+      <c r="H65" s="38"/>
+      <c r="I65" s="38"/>
+      <c r="J65" s="16"/>
+      <c r="K65" s="16"/>
+      <c r="L65" s="16"/>
+      <c r="M65" s="16"/>
+      <c r="N65" s="16"/>
+      <c r="O65" s="16"/>
+      <c r="P65" s="16"/>
+      <c r="Q65" s="16"/>
+      <c r="R65" s="16"/>
+      <c r="S65" s="16"/>
+      <c r="T65" s="16"/>
+      <c r="U65" s="16"/>
+      <c r="V65" s="16"/>
     </row>
     <row r="66" spans="1:22" ht="13.5" thickBot="1">
-      <c r="A66" s="19"/>
-      <c r="B66" s="19"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="19"/>
-      <c r="F66" s="19"/>
-      <c r="G66" s="19"/>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="19"/>
-      <c r="K66" s="19"/>
-      <c r="L66" s="19"/>
-      <c r="M66" s="19"/>
-      <c r="N66" s="19"/>
-      <c r="O66" s="19"/>
-      <c r="P66" s="19"/>
-      <c r="Q66" s="19"/>
-      <c r="R66" s="19"/>
-      <c r="S66" s="19"/>
-      <c r="T66" s="19"/>
-      <c r="U66" s="19"/>
-      <c r="V66" s="19"/>
+      <c r="A66" s="16"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="16"/>
+      <c r="I66" s="16"/>
+      <c r="J66" s="16"/>
+      <c r="K66" s="16"/>
+      <c r="L66" s="16"/>
+      <c r="M66" s="16"/>
+      <c r="N66" s="16"/>
+      <c r="O66" s="16"/>
+      <c r="P66" s="16"/>
+      <c r="Q66" s="16"/>
+      <c r="R66" s="16"/>
+      <c r="S66" s="16"/>
+      <c r="T66" s="16"/>
+      <c r="U66" s="16"/>
+      <c r="V66" s="16"/>
     </row>
     <row r="67" spans="1:22" ht="13.5" thickBot="1">
-      <c r="A67" s="19"/>
-      <c r="B67" s="19"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="19"/>
-      <c r="F67" s="19"/>
-      <c r="G67" s="19"/>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="19"/>
-      <c r="K67" s="19"/>
-      <c r="L67" s="19"/>
-      <c r="M67" s="19"/>
-      <c r="N67" s="19"/>
-      <c r="O67" s="19"/>
-      <c r="P67" s="19"/>
-      <c r="Q67" s="19"/>
-      <c r="R67" s="19"/>
-      <c r="S67" s="19"/>
-      <c r="T67" s="19"/>
-      <c r="U67" s="19"/>
-      <c r="V67" s="19"/>
+      <c r="A67" s="16"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="16"/>
+      <c r="H67" s="16"/>
+      <c r="I67" s="16"/>
+      <c r="J67" s="16"/>
+      <c r="K67" s="16"/>
+      <c r="L67" s="16"/>
+      <c r="M67" s="16"/>
+      <c r="N67" s="16"/>
+      <c r="O67" s="16"/>
+      <c r="P67" s="16"/>
+      <c r="Q67" s="16"/>
+      <c r="R67" s="16"/>
+      <c r="S67" s="16"/>
+      <c r="T67" s="16"/>
+      <c r="U67" s="16"/>
+      <c r="V67" s="16"/>
     </row>
     <row r="68" spans="1:22" ht="13.5" thickBot="1">
-      <c r="A68" s="19"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="19"/>
-      <c r="G68" s="19"/>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="19"/>
-      <c r="K68" s="19"/>
-      <c r="L68" s="19"/>
-      <c r="M68" s="19"/>
-      <c r="N68" s="19"/>
-      <c r="O68" s="19"/>
-      <c r="P68" s="19"/>
-      <c r="Q68" s="19"/>
-      <c r="R68" s="19"/>
-      <c r="S68" s="19"/>
-      <c r="T68" s="19"/>
-      <c r="U68" s="19"/>
-      <c r="V68" s="19"/>
+      <c r="A68" s="16"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="16"/>
+      <c r="I68" s="16"/>
+      <c r="J68" s="16"/>
+      <c r="K68" s="16"/>
+      <c r="L68" s="16"/>
+      <c r="M68" s="16"/>
+      <c r="N68" s="16"/>
+      <c r="O68" s="16"/>
+      <c r="P68" s="16"/>
+      <c r="Q68" s="16"/>
+      <c r="R68" s="16"/>
+      <c r="S68" s="16"/>
+      <c r="T68" s="16"/>
+      <c r="U68" s="16"/>
+      <c r="V68" s="16"/>
     </row>
     <row r="69" spans="1:22" ht="13.5" thickBot="1">
-      <c r="A69" s="19"/>
-      <c r="B69" s="19"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="19"/>
-      <c r="E69" s="19"/>
-      <c r="F69" s="19"/>
-      <c r="G69" s="19"/>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="19"/>
-      <c r="K69" s="19"/>
-      <c r="L69" s="19"/>
-      <c r="M69" s="19"/>
-      <c r="N69" s="19"/>
-      <c r="O69" s="19"/>
-      <c r="P69" s="19"/>
-      <c r="Q69" s="19"/>
-      <c r="R69" s="19"/>
-      <c r="S69" s="19"/>
-      <c r="T69" s="19"/>
-      <c r="U69" s="19"/>
-      <c r="V69" s="19"/>
+      <c r="A69" s="16"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="16"/>
+      <c r="H69" s="16"/>
+      <c r="I69" s="16"/>
+      <c r="J69" s="16"/>
+      <c r="K69" s="16"/>
+      <c r="L69" s="16"/>
+      <c r="M69" s="16"/>
+      <c r="N69" s="16"/>
+      <c r="O69" s="16"/>
+      <c r="P69" s="16"/>
+      <c r="Q69" s="16"/>
+      <c r="R69" s="16"/>
+      <c r="S69" s="16"/>
+      <c r="T69" s="16"/>
+      <c r="U69" s="16"/>
+      <c r="V69" s="16"/>
     </row>
     <row r="70" spans="1:22" ht="13.5" thickBot="1">
-      <c r="A70" s="19"/>
-      <c r="B70" s="19"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="19"/>
-      <c r="E70" s="19"/>
-      <c r="F70" s="19"/>
-      <c r="G70" s="19"/>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="19"/>
-      <c r="K70" s="19"/>
-      <c r="L70" s="19"/>
-      <c r="M70" s="19"/>
-      <c r="N70" s="19"/>
-      <c r="O70" s="19"/>
-      <c r="P70" s="19"/>
-      <c r="Q70" s="19"/>
-      <c r="R70" s="19"/>
-      <c r="S70" s="19"/>
-      <c r="T70" s="19"/>
-      <c r="U70" s="19"/>
-      <c r="V70" s="19"/>
+      <c r="A70" s="16"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="16"/>
+      <c r="I70" s="16"/>
+      <c r="J70" s="16"/>
+      <c r="K70" s="16"/>
+      <c r="L70" s="16"/>
+      <c r="M70" s="16"/>
+      <c r="N70" s="16"/>
+      <c r="O70" s="16"/>
+      <c r="P70" s="16"/>
+      <c r="Q70" s="16"/>
+      <c r="R70" s="16"/>
+      <c r="S70" s="16"/>
+      <c r="T70" s="16"/>
+      <c r="U70" s="16"/>
+      <c r="V70" s="16"/>
     </row>
     <row r="71" spans="1:22" ht="13.5" thickBot="1">
-      <c r="A71" s="19"/>
-      <c r="B71" s="19"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="19"/>
-      <c r="E71" s="19"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="19"/>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="19"/>
-      <c r="K71" s="19"/>
-      <c r="L71" s="19"/>
-      <c r="M71" s="19"/>
-      <c r="N71" s="19"/>
-      <c r="O71" s="19"/>
-      <c r="P71" s="19"/>
-      <c r="Q71" s="19"/>
-      <c r="R71" s="19"/>
-      <c r="S71" s="19"/>
-      <c r="T71" s="19"/>
-      <c r="U71" s="19"/>
-      <c r="V71" s="19"/>
+      <c r="A71" s="16"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="16"/>
+      <c r="J71" s="16"/>
+      <c r="K71" s="16"/>
+      <c r="L71" s="16"/>
+      <c r="M71" s="16"/>
+      <c r="N71" s="16"/>
+      <c r="O71" s="16"/>
+      <c r="P71" s="16"/>
+      <c r="Q71" s="16"/>
+      <c r="R71" s="16"/>
+      <c r="S71" s="16"/>
+      <c r="T71" s="16"/>
+      <c r="U71" s="16"/>
+      <c r="V71" s="16"/>
     </row>
     <row r="72" spans="1:22" ht="13.5" thickBot="1">
-      <c r="A72" s="19"/>
-      <c r="B72" s="19"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19"/>
-      <c r="E72" s="19"/>
-      <c r="F72" s="19"/>
-      <c r="G72" s="19"/>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="19"/>
-      <c r="K72" s="19"/>
-      <c r="L72" s="19"/>
-      <c r="M72" s="19"/>
-      <c r="N72" s="19"/>
-      <c r="O72" s="19"/>
-      <c r="P72" s="19"/>
-      <c r="Q72" s="19"/>
-      <c r="R72" s="19"/>
-      <c r="S72" s="19"/>
-      <c r="T72" s="19"/>
-      <c r="U72" s="19"/>
-      <c r="V72" s="19"/>
+      <c r="A72" s="16"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="16"/>
+      <c r="I72" s="16"/>
+      <c r="J72" s="16"/>
+      <c r="K72" s="16"/>
+      <c r="L72" s="16"/>
+      <c r="M72" s="16"/>
+      <c r="N72" s="16"/>
+      <c r="O72" s="16"/>
+      <c r="P72" s="16"/>
+      <c r="Q72" s="16"/>
+      <c r="R72" s="16"/>
+      <c r="S72" s="16"/>
+      <c r="T72" s="16"/>
+      <c r="U72" s="16"/>
+      <c r="V72" s="16"/>
     </row>
     <row r="73" spans="1:22" ht="13.5" thickBot="1">
-      <c r="A73" s="19"/>
-      <c r="B73" s="19"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="19"/>
-      <c r="E73" s="19"/>
-      <c r="F73" s="19"/>
-      <c r="G73" s="19"/>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="19"/>
-      <c r="K73" s="19"/>
-      <c r="L73" s="19"/>
-      <c r="M73" s="19"/>
-      <c r="N73" s="19"/>
-      <c r="O73" s="19"/>
-      <c r="P73" s="19"/>
-      <c r="Q73" s="19"/>
-      <c r="R73" s="19"/>
-      <c r="S73" s="19"/>
-      <c r="T73" s="19"/>
-      <c r="U73" s="19"/>
-      <c r="V73" s="19"/>
+      <c r="A73" s="16"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="16"/>
+      <c r="I73" s="16"/>
+      <c r="J73" s="16"/>
+      <c r="K73" s="16"/>
+      <c r="L73" s="16"/>
+      <c r="M73" s="16"/>
+      <c r="N73" s="16"/>
+      <c r="O73" s="16"/>
+      <c r="P73" s="16"/>
+      <c r="Q73" s="16"/>
+      <c r="R73" s="16"/>
+      <c r="S73" s="16"/>
+      <c r="T73" s="16"/>
+      <c r="U73" s="16"/>
+      <c r="V73" s="16"/>
     </row>
     <row r="74" spans="1:22" ht="13.5" thickBot="1">
-      <c r="A74" s="19"/>
-      <c r="B74" s="19"/>
-      <c r="C74" s="19"/>
-      <c r="D74" s="19"/>
-      <c r="E74" s="19"/>
-      <c r="F74" s="19"/>
-      <c r="G74" s="19"/>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="19"/>
-      <c r="K74" s="19"/>
-      <c r="L74" s="19"/>
-      <c r="M74" s="19"/>
-      <c r="N74" s="19"/>
-      <c r="O74" s="19"/>
-      <c r="P74" s="19"/>
-      <c r="Q74" s="19"/>
-      <c r="R74" s="19"/>
-      <c r="S74" s="19"/>
-      <c r="T74" s="19"/>
-      <c r="U74" s="19"/>
-      <c r="V74" s="19"/>
+      <c r="A74" s="16"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="16"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="16"/>
+      <c r="H74" s="16"/>
+      <c r="I74" s="16"/>
+      <c r="J74" s="16"/>
+      <c r="K74" s="16"/>
+      <c r="L74" s="16"/>
+      <c r="M74" s="16"/>
+      <c r="N74" s="16"/>
+      <c r="O74" s="16"/>
+      <c r="P74" s="16"/>
+      <c r="Q74" s="16"/>
+      <c r="R74" s="16"/>
+      <c r="S74" s="16"/>
+      <c r="T74" s="16"/>
+      <c r="U74" s="16"/>
+      <c r="V74" s="16"/>
     </row>
     <row r="75" spans="1:22" ht="13.5" thickBot="1">
-      <c r="A75" s="19"/>
-      <c r="B75" s="19"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="19"/>
-      <c r="E75" s="19"/>
-      <c r="F75" s="19"/>
-      <c r="G75" s="19"/>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="19"/>
-      <c r="K75" s="19"/>
-      <c r="L75" s="19"/>
-      <c r="M75" s="19"/>
-      <c r="N75" s="19"/>
-      <c r="O75" s="19"/>
-      <c r="P75" s="19"/>
-      <c r="Q75" s="19"/>
-      <c r="R75" s="19"/>
-      <c r="S75" s="19"/>
-      <c r="T75" s="19"/>
-      <c r="U75" s="19"/>
-      <c r="V75" s="19"/>
+      <c r="A75" s="16"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="16"/>
+      <c r="H75" s="16"/>
+      <c r="I75" s="16"/>
+      <c r="J75" s="16"/>
+      <c r="K75" s="16"/>
+      <c r="L75" s="16"/>
+      <c r="M75" s="16"/>
+      <c r="N75" s="16"/>
+      <c r="O75" s="16"/>
+      <c r="P75" s="16"/>
+      <c r="Q75" s="16"/>
+      <c r="R75" s="16"/>
+      <c r="S75" s="16"/>
+      <c r="T75" s="16"/>
+      <c r="U75" s="16"/>
+      <c r="V75" s="16"/>
     </row>
     <row r="76" spans="1:22" ht="13.5" thickBot="1">
-      <c r="A76" s="19"/>
-      <c r="B76" s="19"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="19"/>
-      <c r="E76" s="19"/>
-      <c r="F76" s="19"/>
-      <c r="G76" s="19"/>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
-      <c r="J76" s="19"/>
-      <c r="K76" s="19"/>
-      <c r="L76" s="19"/>
-      <c r="M76" s="19"/>
-      <c r="N76" s="19"/>
-      <c r="O76" s="19"/>
-      <c r="P76" s="19"/>
-      <c r="Q76" s="19"/>
-      <c r="R76" s="19"/>
-      <c r="S76" s="19"/>
-      <c r="T76" s="19"/>
-      <c r="U76" s="19"/>
-      <c r="V76" s="19"/>
+      <c r="A76" s="16"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="16"/>
+      <c r="H76" s="16"/>
+      <c r="I76" s="16"/>
+      <c r="J76" s="16"/>
+      <c r="K76" s="16"/>
+      <c r="L76" s="16"/>
+      <c r="M76" s="16"/>
+      <c r="N76" s="16"/>
+      <c r="O76" s="16"/>
+      <c r="P76" s="16"/>
+      <c r="Q76" s="16"/>
+      <c r="R76" s="16"/>
+      <c r="S76" s="16"/>
+      <c r="T76" s="16"/>
+      <c r="U76" s="16"/>
+      <c r="V76" s="16"/>
     </row>
     <row r="77" spans="1:22" ht="13.5" thickBot="1">
-      <c r="A77" s="19"/>
-      <c r="B77" s="19"/>
-      <c r="C77" s="19"/>
-      <c r="D77" s="19"/>
-      <c r="E77" s="19"/>
-      <c r="F77" s="19"/>
-      <c r="G77" s="19"/>
-      <c r="H77" s="19"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="19"/>
-      <c r="K77" s="19"/>
-      <c r="L77" s="19"/>
-      <c r="M77" s="19"/>
-      <c r="N77" s="19"/>
-      <c r="O77" s="19"/>
-      <c r="P77" s="19"/>
-      <c r="Q77" s="19"/>
-      <c r="R77" s="19"/>
-      <c r="S77" s="19"/>
-      <c r="T77" s="19"/>
-      <c r="U77" s="19"/>
-      <c r="V77" s="19"/>
+      <c r="A77" s="16"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="16"/>
+      <c r="H77" s="16"/>
+      <c r="I77" s="16"/>
+      <c r="J77" s="16"/>
+      <c r="K77" s="16"/>
+      <c r="L77" s="16"/>
+      <c r="M77" s="16"/>
+      <c r="N77" s="16"/>
+      <c r="O77" s="16"/>
+      <c r="P77" s="16"/>
+      <c r="Q77" s="16"/>
+      <c r="R77" s="16"/>
+      <c r="S77" s="16"/>
+      <c r="T77" s="16"/>
+      <c r="U77" s="16"/>
+      <c r="V77" s="16"/>
     </row>
     <row r="78" spans="1:22" ht="13.5" thickBot="1">
-      <c r="A78" s="19"/>
-      <c r="B78" s="19"/>
-      <c r="C78" s="19"/>
-      <c r="D78" s="19"/>
-      <c r="E78" s="19"/>
-      <c r="F78" s="19"/>
-      <c r="G78" s="19"/>
-      <c r="H78" s="19"/>
-      <c r="I78" s="19"/>
-      <c r="J78" s="19"/>
-      <c r="K78" s="19"/>
-      <c r="L78" s="19"/>
-      <c r="M78" s="19"/>
-      <c r="N78" s="19"/>
-      <c r="O78" s="19"/>
-      <c r="P78" s="19"/>
-      <c r="Q78" s="19"/>
-      <c r="R78" s="19"/>
-      <c r="S78" s="19"/>
-      <c r="T78" s="19"/>
-      <c r="U78" s="19"/>
-      <c r="V78" s="19"/>
+      <c r="A78" s="16"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="16"/>
+      <c r="H78" s="16"/>
+      <c r="I78" s="16"/>
+      <c r="J78" s="16"/>
+      <c r="K78" s="16"/>
+      <c r="L78" s="16"/>
+      <c r="M78" s="16"/>
+      <c r="N78" s="16"/>
+      <c r="O78" s="16"/>
+      <c r="P78" s="16"/>
+      <c r="Q78" s="16"/>
+      <c r="R78" s="16"/>
+      <c r="S78" s="16"/>
+      <c r="T78" s="16"/>
+      <c r="U78" s="16"/>
+      <c r="V78" s="16"/>
     </row>
     <row r="79" spans="1:22" ht="13.5" thickBot="1">
-      <c r="A79" s="19"/>
-      <c r="B79" s="19"/>
-      <c r="C79" s="19"/>
-      <c r="D79" s="19"/>
-      <c r="E79" s="19"/>
-      <c r="F79" s="19"/>
-      <c r="G79" s="19"/>
-      <c r="H79" s="19"/>
-      <c r="I79" s="19"/>
-      <c r="J79" s="19"/>
-      <c r="K79" s="19"/>
-      <c r="L79" s="19"/>
-      <c r="M79" s="19"/>
-      <c r="N79" s="19"/>
-      <c r="O79" s="19"/>
-      <c r="P79" s="19"/>
-      <c r="Q79" s="19"/>
-      <c r="R79" s="19"/>
-      <c r="S79" s="19"/>
-      <c r="T79" s="19"/>
-      <c r="U79" s="19"/>
-      <c r="V79" s="19"/>
+      <c r="A79" s="16"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="16"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="16"/>
+      <c r="H79" s="16"/>
+      <c r="I79" s="16"/>
+      <c r="J79" s="16"/>
+      <c r="K79" s="16"/>
+      <c r="L79" s="16"/>
+      <c r="M79" s="16"/>
+      <c r="N79" s="16"/>
+      <c r="O79" s="16"/>
+      <c r="P79" s="16"/>
+      <c r="Q79" s="16"/>
+      <c r="R79" s="16"/>
+      <c r="S79" s="16"/>
+      <c r="T79" s="16"/>
+      <c r="U79" s="16"/>
+      <c r="V79" s="16"/>
     </row>
     <row r="80" spans="1:22" ht="13.5" thickBot="1">
-      <c r="A80" s="19"/>
-      <c r="B80" s="19"/>
-      <c r="C80" s="19"/>
-      <c r="D80" s="19"/>
-      <c r="E80" s="19"/>
-      <c r="F80" s="19"/>
-      <c r="G80" s="19"/>
-      <c r="H80" s="19"/>
-      <c r="I80" s="19"/>
-      <c r="J80" s="19"/>
-      <c r="K80" s="19"/>
-      <c r="L80" s="19"/>
-      <c r="M80" s="19"/>
-      <c r="N80" s="19"/>
-      <c r="O80" s="19"/>
-      <c r="P80" s="19"/>
-      <c r="Q80" s="19"/>
-      <c r="R80" s="19"/>
-      <c r="S80" s="19"/>
-      <c r="T80" s="19"/>
-      <c r="U80" s="19"/>
-      <c r="V80" s="19"/>
+      <c r="A80" s="16"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="16"/>
+      <c r="F80" s="16"/>
+      <c r="G80" s="16"/>
+      <c r="H80" s="16"/>
+      <c r="I80" s="16"/>
+      <c r="J80" s="16"/>
+      <c r="K80" s="16"/>
+      <c r="L80" s="16"/>
+      <c r="M80" s="16"/>
+      <c r="N80" s="16"/>
+      <c r="O80" s="16"/>
+      <c r="P80" s="16"/>
+      <c r="Q80" s="16"/>
+      <c r="R80" s="16"/>
+      <c r="S80" s="16"/>
+      <c r="T80" s="16"/>
+      <c r="U80" s="16"/>
+      <c r="V80" s="16"/>
     </row>
     <row r="81" spans="1:22" ht="13.5" thickBot="1">
-      <c r="A81" s="19"/>
-      <c r="B81" s="19"/>
-      <c r="C81" s="19"/>
-      <c r="D81" s="19"/>
-      <c r="E81" s="19"/>
-      <c r="F81" s="19"/>
-      <c r="G81" s="19"/>
-      <c r="H81" s="19"/>
-      <c r="I81" s="19"/>
-      <c r="J81" s="19"/>
-      <c r="K81" s="19"/>
-      <c r="L81" s="19"/>
-      <c r="M81" s="19"/>
-      <c r="N81" s="19"/>
-      <c r="O81" s="19"/>
-      <c r="P81" s="19"/>
-      <c r="Q81" s="19"/>
-      <c r="R81" s="19"/>
-      <c r="S81" s="19"/>
-      <c r="T81" s="19"/>
-      <c r="U81" s="19"/>
-      <c r="V81" s="19"/>
+      <c r="A81" s="16"/>
+      <c r="B81" s="16"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="16"/>
+      <c r="E81" s="16"/>
+      <c r="F81" s="16"/>
+      <c r="G81" s="16"/>
+      <c r="H81" s="16"/>
+      <c r="I81" s="16"/>
+      <c r="J81" s="16"/>
+      <c r="K81" s="16"/>
+      <c r="L81" s="16"/>
+      <c r="M81" s="16"/>
+      <c r="N81" s="16"/>
+      <c r="O81" s="16"/>
+      <c r="P81" s="16"/>
+      <c r="Q81" s="16"/>
+      <c r="R81" s="16"/>
+      <c r="S81" s="16"/>
+      <c r="T81" s="16"/>
+      <c r="U81" s="16"/>
+      <c r="V81" s="16"/>
     </row>
     <row r="82" spans="1:22" ht="13.5" thickBot="1">
-      <c r="A82" s="19"/>
-      <c r="B82" s="19"/>
-      <c r="C82" s="19"/>
-      <c r="D82" s="19"/>
-      <c r="E82" s="19"/>
-      <c r="F82" s="19"/>
-      <c r="G82" s="19"/>
-      <c r="H82" s="19"/>
-      <c r="I82" s="19"/>
-      <c r="J82" s="19"/>
-      <c r="K82" s="19"/>
-      <c r="L82" s="19"/>
-      <c r="M82" s="19"/>
-      <c r="N82" s="19"/>
-      <c r="O82" s="19"/>
-      <c r="P82" s="19"/>
-      <c r="Q82" s="19"/>
-      <c r="R82" s="19"/>
-      <c r="S82" s="19"/>
-      <c r="T82" s="19"/>
-      <c r="U82" s="19"/>
-      <c r="V82" s="19"/>
+      <c r="A82" s="16"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="16"/>
+      <c r="F82" s="16"/>
+      <c r="G82" s="16"/>
+      <c r="H82" s="16"/>
+      <c r="I82" s="16"/>
+      <c r="J82" s="16"/>
+      <c r="K82" s="16"/>
+      <c r="L82" s="16"/>
+      <c r="M82" s="16"/>
+      <c r="N82" s="16"/>
+      <c r="O82" s="16"/>
+      <c r="P82" s="16"/>
+      <c r="Q82" s="16"/>
+      <c r="R82" s="16"/>
+      <c r="S82" s="16"/>
+      <c r="T82" s="16"/>
+      <c r="U82" s="16"/>
+      <c r="V82" s="16"/>
     </row>
     <row r="83" spans="1:22" ht="13.5" thickBot="1">
-      <c r="A83" s="19"/>
-      <c r="B83" s="19"/>
-      <c r="C83" s="19"/>
-      <c r="D83" s="19"/>
-      <c r="E83" s="19"/>
-      <c r="F83" s="19"/>
-      <c r="G83" s="19"/>
-      <c r="H83" s="19"/>
-      <c r="I83" s="19"/>
-      <c r="J83" s="19"/>
-      <c r="K83" s="19"/>
-      <c r="L83" s="19"/>
-      <c r="M83" s="19"/>
-      <c r="N83" s="19"/>
-      <c r="O83" s="19"/>
-      <c r="P83" s="19"/>
-      <c r="Q83" s="19"/>
-      <c r="R83" s="19"/>
-      <c r="S83" s="19"/>
-      <c r="T83" s="19"/>
-      <c r="U83" s="19"/>
-      <c r="V83" s="19"/>
+      <c r="A83" s="16"/>
+      <c r="B83" s="16"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="16"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="16"/>
+      <c r="H83" s="16"/>
+      <c r="I83" s="16"/>
+      <c r="J83" s="16"/>
+      <c r="K83" s="16"/>
+      <c r="L83" s="16"/>
+      <c r="M83" s="16"/>
+      <c r="N83" s="16"/>
+      <c r="O83" s="16"/>
+      <c r="P83" s="16"/>
+      <c r="Q83" s="16"/>
+      <c r="R83" s="16"/>
+      <c r="S83" s="16"/>
+      <c r="T83" s="16"/>
+      <c r="U83" s="16"/>
+      <c r="V83" s="16"/>
     </row>
     <row r="84" spans="1:22" ht="13.5" thickBot="1">
-      <c r="A84" s="19"/>
-      <c r="B84" s="19"/>
-      <c r="C84" s="19"/>
-      <c r="D84" s="19"/>
-      <c r="E84" s="19"/>
-      <c r="F84" s="19"/>
-      <c r="G84" s="19"/>
-      <c r="H84" s="19"/>
-      <c r="I84" s="19"/>
-      <c r="J84" s="19"/>
-      <c r="K84" s="19"/>
-      <c r="L84" s="19"/>
-      <c r="M84" s="19"/>
-      <c r="N84" s="19"/>
-      <c r="O84" s="19"/>
-      <c r="P84" s="19"/>
-      <c r="Q84" s="19"/>
-      <c r="R84" s="19"/>
-      <c r="S84" s="19"/>
-      <c r="T84" s="19"/>
-      <c r="U84" s="19"/>
-      <c r="V84" s="19"/>
+      <c r="A84" s="16"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="16"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="16"/>
+      <c r="H84" s="16"/>
+      <c r="I84" s="16"/>
+      <c r="J84" s="16"/>
+      <c r="K84" s="16"/>
+      <c r="L84" s="16"/>
+      <c r="M84" s="16"/>
+      <c r="N84" s="16"/>
+      <c r="O84" s="16"/>
+      <c r="P84" s="16"/>
+      <c r="Q84" s="16"/>
+      <c r="R84" s="16"/>
+      <c r="S84" s="16"/>
+      <c r="T84" s="16"/>
+      <c r="U84" s="16"/>
+      <c r="V84" s="16"/>
     </row>
     <row r="85" spans="1:22" ht="13.5" thickBot="1">
-      <c r="A85" s="19"/>
-      <c r="B85" s="19"/>
-      <c r="C85" s="19"/>
-      <c r="D85" s="19"/>
-      <c r="E85" s="19"/>
-      <c r="F85" s="19"/>
-      <c r="G85" s="19"/>
-      <c r="H85" s="19"/>
-      <c r="I85" s="19"/>
-      <c r="J85" s="19"/>
-      <c r="K85" s="19"/>
-      <c r="L85" s="19"/>
-      <c r="M85" s="19"/>
-      <c r="N85" s="19"/>
-      <c r="O85" s="19"/>
-      <c r="P85" s="19"/>
-      <c r="Q85" s="19"/>
-      <c r="R85" s="19"/>
-      <c r="S85" s="19"/>
-      <c r="T85" s="19"/>
-      <c r="U85" s="19"/>
-      <c r="V85" s="19"/>
+      <c r="A85" s="16"/>
+      <c r="B85" s="16"/>
+      <c r="C85" s="16"/>
+      <c r="D85" s="16"/>
+      <c r="E85" s="16"/>
+      <c r="F85" s="16"/>
+      <c r="G85" s="16"/>
+      <c r="H85" s="16"/>
+      <c r="I85" s="16"/>
+      <c r="J85" s="16"/>
+      <c r="K85" s="16"/>
+      <c r="L85" s="16"/>
+      <c r="M85" s="16"/>
+      <c r="N85" s="16"/>
+      <c r="O85" s="16"/>
+      <c r="P85" s="16"/>
+      <c r="Q85" s="16"/>
+      <c r="R85" s="16"/>
+      <c r="S85" s="16"/>
+      <c r="T85" s="16"/>
+      <c r="U85" s="16"/>
+      <c r="V85" s="16"/>
     </row>
     <row r="86" spans="1:22" ht="13.5" thickBot="1">
-      <c r="A86" s="19"/>
-      <c r="B86" s="19"/>
-      <c r="C86" s="19"/>
-      <c r="D86" s="19"/>
-      <c r="E86" s="19"/>
-      <c r="F86" s="19"/>
-      <c r="G86" s="19"/>
-      <c r="H86" s="19"/>
-      <c r="I86" s="19"/>
-      <c r="J86" s="19"/>
-      <c r="K86" s="19"/>
-      <c r="L86" s="19"/>
-      <c r="M86" s="19"/>
-      <c r="N86" s="19"/>
-      <c r="O86" s="19"/>
-      <c r="P86" s="19"/>
-      <c r="Q86" s="19"/>
-      <c r="R86" s="19"/>
-      <c r="S86" s="19"/>
-      <c r="T86" s="19"/>
-      <c r="U86" s="19"/>
-      <c r="V86" s="19"/>
+      <c r="A86" s="16"/>
+      <c r="B86" s="16"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="16"/>
+      <c r="E86" s="16"/>
+      <c r="F86" s="16"/>
+      <c r="G86" s="16"/>
+      <c r="H86" s="16"/>
+      <c r="I86" s="16"/>
+      <c r="J86" s="16"/>
+      <c r="K86" s="16"/>
+      <c r="L86" s="16"/>
+      <c r="M86" s="16"/>
+      <c r="N86" s="16"/>
+      <c r="O86" s="16"/>
+      <c r="P86" s="16"/>
+      <c r="Q86" s="16"/>
+      <c r="R86" s="16"/>
+      <c r="S86" s="16"/>
+      <c r="T86" s="16"/>
+      <c r="U86" s="16"/>
+      <c r="V86" s="16"/>
     </row>
     <row r="87" spans="1:22" ht="13.5" thickBot="1">
-      <c r="A87" s="19"/>
-      <c r="B87" s="19"/>
-      <c r="C87" s="19"/>
-      <c r="D87" s="19"/>
-      <c r="E87" s="19"/>
-      <c r="F87" s="19"/>
-      <c r="G87" s="19"/>
-      <c r="H87" s="19"/>
-      <c r="I87" s="19"/>
-      <c r="J87" s="19"/>
-      <c r="K87" s="19"/>
-      <c r="L87" s="19"/>
-      <c r="M87" s="19"/>
-      <c r="N87" s="19"/>
-      <c r="O87" s="19"/>
-      <c r="P87" s="19"/>
-      <c r="Q87" s="19"/>
-      <c r="R87" s="19"/>
-      <c r="S87" s="19"/>
-      <c r="T87" s="19"/>
-      <c r="U87" s="19"/>
-      <c r="V87" s="19"/>
+      <c r="A87" s="16"/>
+      <c r="B87" s="16"/>
+      <c r="C87" s="16"/>
+      <c r="D87" s="16"/>
+      <c r="E87" s="16"/>
+      <c r="F87" s="16"/>
+      <c r="G87" s="16"/>
+      <c r="H87" s="16"/>
+      <c r="I87" s="16"/>
+      <c r="J87" s="16"/>
+      <c r="K87" s="16"/>
+      <c r="L87" s="16"/>
+      <c r="M87" s="16"/>
+      <c r="N87" s="16"/>
+      <c r="O87" s="16"/>
+      <c r="P87" s="16"/>
+      <c r="Q87" s="16"/>
+      <c r="R87" s="16"/>
+      <c r="S87" s="16"/>
+      <c r="T87" s="16"/>
+      <c r="U87" s="16"/>
+      <c r="V87" s="16"/>
     </row>
     <row r="88" spans="1:22" ht="13.5" thickBot="1">
-      <c r="A88" s="19"/>
-      <c r="B88" s="19"/>
-      <c r="C88" s="19"/>
-      <c r="D88" s="19"/>
-      <c r="E88" s="19"/>
-      <c r="F88" s="19"/>
-      <c r="G88" s="19"/>
-      <c r="H88" s="19"/>
-      <c r="I88" s="19"/>
-      <c r="J88" s="19"/>
-      <c r="K88" s="19"/>
-      <c r="L88" s="19"/>
-      <c r="M88" s="19"/>
-      <c r="N88" s="19"/>
-      <c r="O88" s="19"/>
-      <c r="P88" s="19"/>
-      <c r="Q88" s="19"/>
-      <c r="R88" s="19"/>
-      <c r="S88" s="19"/>
-      <c r="T88" s="19"/>
-      <c r="U88" s="19"/>
-      <c r="V88" s="19"/>
+      <c r="A88" s="16"/>
+      <c r="B88" s="16"/>
+      <c r="C88" s="16"/>
+      <c r="D88" s="16"/>
+      <c r="E88" s="16"/>
+      <c r="F88" s="16"/>
+      <c r="G88" s="16"/>
+      <c r="H88" s="16"/>
+      <c r="I88" s="16"/>
+      <c r="J88" s="16"/>
+      <c r="K88" s="16"/>
+      <c r="L88" s="16"/>
+      <c r="M88" s="16"/>
+      <c r="N88" s="16"/>
+      <c r="O88" s="16"/>
+      <c r="P88" s="16"/>
+      <c r="Q88" s="16"/>
+      <c r="R88" s="16"/>
+      <c r="S88" s="16"/>
+      <c r="T88" s="16"/>
+      <c r="U88" s="16"/>
+      <c r="V88" s="16"/>
     </row>
     <row r="89" spans="1:22" ht="13.5" thickBot="1">
-      <c r="A89" s="19"/>
-      <c r="B89" s="19"/>
-      <c r="C89" s="19"/>
-      <c r="D89" s="19"/>
-      <c r="E89" s="19"/>
-      <c r="F89" s="19"/>
-      <c r="G89" s="19"/>
-      <c r="H89" s="19"/>
-      <c r="I89" s="19"/>
-      <c r="J89" s="19"/>
-      <c r="K89" s="19"/>
-      <c r="L89" s="19"/>
-      <c r="M89" s="19"/>
-      <c r="N89" s="19"/>
-      <c r="O89" s="19"/>
-      <c r="P89" s="19"/>
-      <c r="Q89" s="19"/>
-      <c r="R89" s="19"/>
-      <c r="S89" s="19"/>
-      <c r="T89" s="19"/>
-      <c r="U89" s="19"/>
-      <c r="V89" s="19"/>
+      <c r="A89" s="16"/>
+      <c r="B89" s="16"/>
+      <c r="C89" s="16"/>
+      <c r="D89" s="16"/>
+      <c r="E89" s="16"/>
+      <c r="F89" s="16"/>
+      <c r="G89" s="16"/>
+      <c r="H89" s="16"/>
+      <c r="I89" s="16"/>
+      <c r="J89" s="16"/>
+      <c r="K89" s="16"/>
+      <c r="L89" s="16"/>
+      <c r="M89" s="16"/>
+      <c r="N89" s="16"/>
+      <c r="O89" s="16"/>
+      <c r="P89" s="16"/>
+      <c r="Q89" s="16"/>
+      <c r="R89" s="16"/>
+      <c r="S89" s="16"/>
+      <c r="T89" s="16"/>
+      <c r="U89" s="16"/>
+      <c r="V89" s="16"/>
     </row>
     <row r="90" spans="1:22" ht="13.5" thickBot="1">
-      <c r="A90" s="19"/>
-      <c r="B90" s="19"/>
-      <c r="C90" s="19"/>
-      <c r="D90" s="19"/>
-      <c r="E90" s="19"/>
-      <c r="F90" s="19"/>
-      <c r="G90" s="19"/>
-      <c r="H90" s="19"/>
-      <c r="I90" s="19"/>
-      <c r="J90" s="19"/>
-      <c r="K90" s="19"/>
-      <c r="L90" s="19"/>
-      <c r="M90" s="19"/>
-      <c r="N90" s="19"/>
-      <c r="O90" s="19"/>
-      <c r="P90" s="19"/>
-      <c r="Q90" s="19"/>
-      <c r="R90" s="19"/>
-      <c r="S90" s="19"/>
-      <c r="T90" s="19"/>
-      <c r="U90" s="19"/>
-      <c r="V90" s="19"/>
+      <c r="A90" s="16"/>
+      <c r="B90" s="16"/>
+      <c r="C90" s="16"/>
+      <c r="D90" s="16"/>
+      <c r="E90" s="16"/>
+      <c r="F90" s="16"/>
+      <c r="G90" s="16"/>
+      <c r="H90" s="16"/>
+      <c r="I90" s="16"/>
+      <c r="J90" s="16"/>
+      <c r="K90" s="16"/>
+      <c r="L90" s="16"/>
+      <c r="M90" s="16"/>
+      <c r="N90" s="16"/>
+      <c r="O90" s="16"/>
+      <c r="P90" s="16"/>
+      <c r="Q90" s="16"/>
+      <c r="R90" s="16"/>
+      <c r="S90" s="16"/>
+      <c r="T90" s="16"/>
+      <c r="U90" s="16"/>
+      <c r="V90" s="16"/>
     </row>
     <row r="91" spans="1:22" ht="13.5" thickBot="1">
-      <c r="A91" s="19"/>
-      <c r="B91" s="19"/>
-      <c r="C91" s="19"/>
-      <c r="D91" s="19"/>
-      <c r="E91" s="19"/>
-      <c r="F91" s="19"/>
-      <c r="G91" s="19"/>
-      <c r="H91" s="19"/>
-      <c r="I91" s="19"/>
-      <c r="J91" s="19"/>
-      <c r="K91" s="19"/>
-      <c r="L91" s="19"/>
-      <c r="M91" s="19"/>
-      <c r="N91" s="19"/>
-      <c r="O91" s="19"/>
-      <c r="P91" s="19"/>
-      <c r="Q91" s="19"/>
-      <c r="R91" s="19"/>
-      <c r="S91" s="19"/>
-      <c r="T91" s="19"/>
-      <c r="U91" s="19"/>
-      <c r="V91" s="19"/>
+      <c r="A91" s="16"/>
+      <c r="B91" s="16"/>
+      <c r="C91" s="16"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="16"/>
+      <c r="F91" s="16"/>
+      <c r="G91" s="16"/>
+      <c r="H91" s="16"/>
+      <c r="I91" s="16"/>
+      <c r="J91" s="16"/>
+      <c r="K91" s="16"/>
+      <c r="L91" s="16"/>
+      <c r="M91" s="16"/>
+      <c r="N91" s="16"/>
+      <c r="O91" s="16"/>
+      <c r="P91" s="16"/>
+      <c r="Q91" s="16"/>
+      <c r="R91" s="16"/>
+      <c r="S91" s="16"/>
+      <c r="T91" s="16"/>
+      <c r="U91" s="16"/>
+      <c r="V91" s="16"/>
     </row>
     <row r="92" spans="1:22" ht="13.5" thickBot="1">
-      <c r="A92" s="19"/>
-      <c r="B92" s="19"/>
-      <c r="C92" s="19"/>
-      <c r="D92" s="19"/>
-      <c r="E92" s="19"/>
-      <c r="F92" s="19"/>
-      <c r="G92" s="19"/>
-      <c r="H92" s="19"/>
-      <c r="I92" s="19"/>
-      <c r="J92" s="19"/>
-      <c r="K92" s="19"/>
-      <c r="L92" s="19"/>
-      <c r="M92" s="19"/>
-      <c r="N92" s="19"/>
-      <c r="O92" s="19"/>
-      <c r="P92" s="19"/>
-      <c r="Q92" s="19"/>
-      <c r="R92" s="19"/>
-      <c r="S92" s="19"/>
-      <c r="T92" s="19"/>
-      <c r="U92" s="19"/>
-      <c r="V92" s="19"/>
+      <c r="A92" s="16"/>
+      <c r="B92" s="16"/>
+      <c r="C92" s="16"/>
+      <c r="D92" s="16"/>
+      <c r="E92" s="16"/>
+      <c r="F92" s="16"/>
+      <c r="G92" s="16"/>
+      <c r="H92" s="16"/>
+      <c r="I92" s="16"/>
+      <c r="J92" s="16"/>
+      <c r="K92" s="16"/>
+      <c r="L92" s="16"/>
+      <c r="M92" s="16"/>
+      <c r="N92" s="16"/>
+      <c r="O92" s="16"/>
+      <c r="P92" s="16"/>
+      <c r="Q92" s="16"/>
+      <c r="R92" s="16"/>
+      <c r="S92" s="16"/>
+      <c r="T92" s="16"/>
+      <c r="U92" s="16"/>
+      <c r="V92" s="16"/>
     </row>
     <row r="93" spans="1:22" ht="13.5" thickBot="1">
-      <c r="A93" s="19"/>
-      <c r="B93" s="19"/>
-      <c r="C93" s="19"/>
-      <c r="D93" s="19"/>
-      <c r="E93" s="19"/>
-      <c r="F93" s="19"/>
-      <c r="G93" s="19"/>
-      <c r="H93" s="19"/>
-      <c r="I93" s="19"/>
-      <c r="J93" s="19"/>
-      <c r="K93" s="19"/>
-      <c r="L93" s="19"/>
-      <c r="M93" s="19"/>
-      <c r="N93" s="19"/>
-      <c r="O93" s="19"/>
-      <c r="P93" s="19"/>
-      <c r="Q93" s="19"/>
-      <c r="R93" s="19"/>
-      <c r="S93" s="19"/>
-      <c r="T93" s="19"/>
-      <c r="U93" s="19"/>
-      <c r="V93" s="19"/>
+      <c r="A93" s="16"/>
+      <c r="B93" s="16"/>
+      <c r="C93" s="16"/>
+      <c r="D93" s="16"/>
+      <c r="E93" s="16"/>
+      <c r="F93" s="16"/>
+      <c r="G93" s="16"/>
+      <c r="H93" s="16"/>
+      <c r="I93" s="16"/>
+      <c r="J93" s="16"/>
+      <c r="K93" s="16"/>
+      <c r="L93" s="16"/>
+      <c r="M93" s="16"/>
+      <c r="N93" s="16"/>
+      <c r="O93" s="16"/>
+      <c r="P93" s="16"/>
+      <c r="Q93" s="16"/>
+      <c r="R93" s="16"/>
+      <c r="S93" s="16"/>
+      <c r="T93" s="16"/>
+      <c r="U93" s="16"/>
+      <c r="V93" s="16"/>
     </row>
     <row r="94" spans="1:22" ht="13.5" thickBot="1">
-      <c r="A94" s="19"/>
-      <c r="B94" s="19"/>
-      <c r="C94" s="19"/>
-      <c r="D94" s="19"/>
-      <c r="E94" s="19"/>
-      <c r="F94" s="19"/>
-      <c r="G94" s="19"/>
-      <c r="H94" s="19"/>
-      <c r="I94" s="19"/>
-      <c r="J94" s="19"/>
-      <c r="K94" s="19"/>
-      <c r="L94" s="19"/>
-      <c r="M94" s="19"/>
-      <c r="N94" s="19"/>
-      <c r="O94" s="19"/>
-      <c r="P94" s="19"/>
-      <c r="Q94" s="19"/>
-      <c r="R94" s="19"/>
-      <c r="S94" s="19"/>
-      <c r="T94" s="19"/>
-      <c r="U94" s="19"/>
-      <c r="V94" s="19"/>
+      <c r="A94" s="16"/>
+      <c r="B94" s="16"/>
+      <c r="C94" s="16"/>
+      <c r="D94" s="16"/>
+      <c r="E94" s="16"/>
+      <c r="F94" s="16"/>
+      <c r="G94" s="16"/>
+      <c r="H94" s="16"/>
+      <c r="I94" s="16"/>
+      <c r="J94" s="16"/>
+      <c r="K94" s="16"/>
+      <c r="L94" s="16"/>
+      <c r="M94" s="16"/>
+      <c r="N94" s="16"/>
+      <c r="O94" s="16"/>
+      <c r="P94" s="16"/>
+      <c r="Q94" s="16"/>
+      <c r="R94" s="16"/>
+      <c r="S94" s="16"/>
+      <c r="T94" s="16"/>
+      <c r="U94" s="16"/>
+      <c r="V94" s="16"/>
     </row>
     <row r="95" spans="1:22" ht="13.5" thickBot="1">
-      <c r="A95" s="19"/>
-      <c r="B95" s="19"/>
-      <c r="C95" s="19"/>
-      <c r="D95" s="19"/>
-      <c r="E95" s="19"/>
-      <c r="F95" s="19"/>
-      <c r="G95" s="19"/>
-      <c r="H95" s="19"/>
-      <c r="I95" s="19"/>
-      <c r="J95" s="19"/>
-      <c r="K95" s="19"/>
-      <c r="L95" s="19"/>
-      <c r="M95" s="19"/>
-      <c r="N95" s="19"/>
-      <c r="O95" s="19"/>
-      <c r="P95" s="19"/>
-      <c r="Q95" s="19"/>
-      <c r="R95" s="19"/>
-      <c r="S95" s="19"/>
-      <c r="T95" s="19"/>
-      <c r="U95" s="19"/>
-      <c r="V95" s="19"/>
+      <c r="A95" s="16"/>
+      <c r="B95" s="16"/>
+      <c r="C95" s="16"/>
+      <c r="D95" s="16"/>
+      <c r="E95" s="16"/>
+      <c r="F95" s="16"/>
+      <c r="G95" s="16"/>
+      <c r="H95" s="16"/>
+      <c r="I95" s="16"/>
+      <c r="J95" s="16"/>
+      <c r="K95" s="16"/>
+      <c r="L95" s="16"/>
+      <c r="M95" s="16"/>
+      <c r="N95" s="16"/>
+      <c r="O95" s="16"/>
+      <c r="P95" s="16"/>
+      <c r="Q95" s="16"/>
+      <c r="R95" s="16"/>
+      <c r="S95" s="16"/>
+      <c r="T95" s="16"/>
+      <c r="U95" s="16"/>
+      <c r="V95" s="16"/>
     </row>
     <row r="96" spans="1:22" ht="13.5" thickBot="1">
-      <c r="A96" s="19"/>
-      <c r="B96" s="19"/>
-      <c r="C96" s="19"/>
-      <c r="D96" s="19"/>
-      <c r="E96" s="19"/>
-      <c r="F96" s="19"/>
-      <c r="G96" s="19"/>
-      <c r="H96" s="19"/>
-      <c r="I96" s="19"/>
-      <c r="J96" s="19"/>
-      <c r="K96" s="19"/>
-      <c r="L96" s="19"/>
-      <c r="M96" s="19"/>
-      <c r="N96" s="19"/>
-      <c r="O96" s="19"/>
-      <c r="P96" s="19"/>
-      <c r="Q96" s="19"/>
-      <c r="R96" s="19"/>
-      <c r="S96" s="19"/>
-      <c r="T96" s="19"/>
-      <c r="U96" s="19"/>
-      <c r="V96" s="19"/>
+      <c r="A96" s="16"/>
+      <c r="B96" s="16"/>
+      <c r="C96" s="16"/>
+      <c r="D96" s="16"/>
+      <c r="E96" s="16"/>
+      <c r="F96" s="16"/>
+      <c r="G96" s="16"/>
+      <c r="H96" s="16"/>
+      <c r="I96" s="16"/>
+      <c r="J96" s="16"/>
+      <c r="K96" s="16"/>
+      <c r="L96" s="16"/>
+      <c r="M96" s="16"/>
+      <c r="N96" s="16"/>
+      <c r="O96" s="16"/>
+      <c r="P96" s="16"/>
+      <c r="Q96" s="16"/>
+      <c r="R96" s="16"/>
+      <c r="S96" s="16"/>
+      <c r="T96" s="16"/>
+      <c r="U96" s="16"/>
+      <c r="V96" s="16"/>
     </row>
     <row r="97" spans="1:22" ht="13.5" thickBot="1">
-      <c r="A97" s="19"/>
-      <c r="B97" s="19"/>
-      <c r="C97" s="19"/>
-      <c r="D97" s="19"/>
-      <c r="E97" s="19"/>
-      <c r="F97" s="19"/>
-      <c r="G97" s="19"/>
-      <c r="H97" s="19"/>
-      <c r="I97" s="19"/>
-      <c r="J97" s="19"/>
-      <c r="K97" s="19"/>
-      <c r="L97" s="19"/>
-      <c r="M97" s="19"/>
-      <c r="N97" s="19"/>
-      <c r="O97" s="19"/>
-      <c r="P97" s="19"/>
-      <c r="Q97" s="19"/>
-      <c r="R97" s="19"/>
-      <c r="S97" s="19"/>
-      <c r="T97" s="19"/>
-      <c r="U97" s="19"/>
-      <c r="V97" s="19"/>
+      <c r="A97" s="16"/>
+      <c r="B97" s="16"/>
+      <c r="C97" s="16"/>
+      <c r="D97" s="16"/>
+      <c r="E97" s="16"/>
+      <c r="F97" s="16"/>
+      <c r="G97" s="16"/>
+      <c r="H97" s="16"/>
+      <c r="I97" s="16"/>
+      <c r="J97" s="16"/>
+      <c r="K97" s="16"/>
+      <c r="L97" s="16"/>
+      <c r="M97" s="16"/>
+      <c r="N97" s="16"/>
+      <c r="O97" s="16"/>
+      <c r="P97" s="16"/>
+      <c r="Q97" s="16"/>
+      <c r="R97" s="16"/>
+      <c r="S97" s="16"/>
+      <c r="T97" s="16"/>
+      <c r="U97" s="16"/>
+      <c r="V97" s="16"/>
     </row>
     <row r="98" spans="1:22" ht="13.5" thickBot="1">
-      <c r="A98" s="19"/>
-      <c r="B98" s="19"/>
-      <c r="C98" s="19"/>
-      <c r="D98" s="19"/>
-      <c r="E98" s="19"/>
-      <c r="F98" s="19"/>
-      <c r="G98" s="19"/>
-      <c r="H98" s="19"/>
-      <c r="I98" s="19"/>
-      <c r="J98" s="19"/>
-      <c r="K98" s="19"/>
-      <c r="L98" s="19"/>
-      <c r="M98" s="19"/>
-      <c r="N98" s="19"/>
-      <c r="O98" s="19"/>
-      <c r="P98" s="19"/>
-      <c r="Q98" s="19"/>
-      <c r="R98" s="19"/>
-      <c r="S98" s="19"/>
-      <c r="T98" s="19"/>
-      <c r="U98" s="19"/>
-      <c r="V98" s="19"/>
+      <c r="A98" s="16"/>
+      <c r="B98" s="16"/>
+      <c r="C98" s="16"/>
+      <c r="D98" s="16"/>
+      <c r="E98" s="16"/>
+      <c r="F98" s="16"/>
+      <c r="G98" s="16"/>
+      <c r="H98" s="16"/>
+      <c r="I98" s="16"/>
+      <c r="J98" s="16"/>
+      <c r="K98" s="16"/>
+      <c r="L98" s="16"/>
+      <c r="M98" s="16"/>
+      <c r="N98" s="16"/>
+      <c r="O98" s="16"/>
+      <c r="P98" s="16"/>
+      <c r="Q98" s="16"/>
+      <c r="R98" s="16"/>
+      <c r="S98" s="16"/>
+      <c r="T98" s="16"/>
+      <c r="U98" s="16"/>
+      <c r="V98" s="16"/>
     </row>
     <row r="99" spans="1:22" ht="13.5" thickBot="1">
-      <c r="A99" s="19"/>
-      <c r="B99" s="19"/>
-      <c r="C99" s="19"/>
-      <c r="D99" s="19"/>
-      <c r="E99" s="19"/>
-      <c r="F99" s="19"/>
-      <c r="G99" s="19"/>
-      <c r="H99" s="19"/>
-      <c r="I99" s="19"/>
-      <c r="J99" s="19"/>
-      <c r="K99" s="19"/>
-      <c r="L99" s="19"/>
-      <c r="M99" s="19"/>
-      <c r="N99" s="19"/>
-      <c r="O99" s="19"/>
-      <c r="P99" s="19"/>
-      <c r="Q99" s="19"/>
-      <c r="R99" s="19"/>
-      <c r="S99" s="19"/>
-      <c r="T99" s="19"/>
-      <c r="U99" s="19"/>
-      <c r="V99" s="19"/>
+      <c r="A99" s="16"/>
+      <c r="B99" s="16"/>
+      <c r="C99" s="16"/>
+      <c r="D99" s="16"/>
+      <c r="E99" s="16"/>
+      <c r="F99" s="16"/>
+      <c r="G99" s="16"/>
+      <c r="H99" s="16"/>
+      <c r="I99" s="16"/>
+      <c r="J99" s="16"/>
+      <c r="K99" s="16"/>
+      <c r="L99" s="16"/>
+      <c r="M99" s="16"/>
+      <c r="N99" s="16"/>
+      <c r="O99" s="16"/>
+      <c r="P99" s="16"/>
+      <c r="Q99" s="16"/>
+      <c r="R99" s="16"/>
+      <c r="S99" s="16"/>
+      <c r="T99" s="16"/>
+      <c r="U99" s="16"/>
+      <c r="V99" s="16"/>
     </row>
     <row r="100" spans="1:22" ht="13.5" thickBot="1">
-      <c r="A100" s="19"/>
-      <c r="B100" s="19"/>
-      <c r="C100" s="19"/>
-      <c r="D100" s="19"/>
-      <c r="E100" s="19"/>
-      <c r="F100" s="19"/>
-      <c r="G100" s="19"/>
-      <c r="H100" s="19"/>
-      <c r="I100" s="19"/>
-      <c r="J100" s="19"/>
-      <c r="K100" s="19"/>
-      <c r="L100" s="19"/>
-      <c r="M100" s="19"/>
-      <c r="N100" s="19"/>
-      <c r="O100" s="19"/>
-      <c r="P100" s="19"/>
-      <c r="Q100" s="19"/>
-      <c r="R100" s="19"/>
-      <c r="S100" s="19"/>
-      <c r="T100" s="19"/>
-      <c r="U100" s="19"/>
-      <c r="V100" s="19"/>
+      <c r="A100" s="16"/>
+      <c r="B100" s="16"/>
+      <c r="C100" s="16"/>
+      <c r="D100" s="16"/>
+      <c r="E100" s="16"/>
+      <c r="F100" s="16"/>
+      <c r="G100" s="16"/>
+      <c r="H100" s="16"/>
+      <c r="I100" s="16"/>
+      <c r="J100" s="16"/>
+      <c r="K100" s="16"/>
+      <c r="L100" s="16"/>
+      <c r="M100" s="16"/>
+      <c r="N100" s="16"/>
+      <c r="O100" s="16"/>
+      <c r="P100" s="16"/>
+      <c r="Q100" s="16"/>
+      <c r="R100" s="16"/>
+      <c r="S100" s="16"/>
+      <c r="T100" s="16"/>
+      <c r="U100" s="16"/>
+      <c r="V100" s="16"/>
     </row>
     <row r="101" spans="1:22" ht="13.5" thickBot="1">
-      <c r="A101" s="19"/>
-      <c r="B101" s="19"/>
-      <c r="C101" s="19"/>
-      <c r="D101" s="19"/>
-      <c r="E101" s="19"/>
-      <c r="F101" s="19"/>
-      <c r="G101" s="19"/>
-      <c r="H101" s="19"/>
-      <c r="I101" s="19"/>
-      <c r="J101" s="19"/>
-      <c r="K101" s="19"/>
-      <c r="L101" s="19"/>
-      <c r="M101" s="19"/>
-      <c r="N101" s="19"/>
-      <c r="O101" s="19"/>
-      <c r="P101" s="19"/>
-      <c r="Q101" s="19"/>
-      <c r="R101" s="19"/>
-      <c r="S101" s="19"/>
-      <c r="T101" s="19"/>
-      <c r="U101" s="19"/>
-      <c r="V101" s="19"/>
+      <c r="A101" s="16"/>
+      <c r="B101" s="16"/>
+      <c r="C101" s="16"/>
+      <c r="D101" s="16"/>
+      <c r="E101" s="16"/>
+      <c r="F101" s="16"/>
+      <c r="G101" s="16"/>
+      <c r="H101" s="16"/>
+      <c r="I101" s="16"/>
+      <c r="J101" s="16"/>
+      <c r="K101" s="16"/>
+      <c r="L101" s="16"/>
+      <c r="M101" s="16"/>
+      <c r="N101" s="16"/>
+      <c r="O101" s="16"/>
+      <c r="P101" s="16"/>
+      <c r="Q101" s="16"/>
+      <c r="R101" s="16"/>
+      <c r="S101" s="16"/>
+      <c r="T101" s="16"/>
+      <c r="U101" s="16"/>
+      <c r="V101" s="16"/>
+    </row>
+    <row r="102" spans="1:22" ht="13.5" thickBot="1">
+      <c r="A102" s="16"/>
+      <c r="B102" s="16"/>
+      <c r="C102" s="16"/>
+      <c r="D102" s="16"/>
+      <c r="E102" s="16"/>
+      <c r="F102" s="16"/>
+      <c r="G102" s="16"/>
+      <c r="H102" s="16"/>
+      <c r="I102" s="16"/>
+      <c r="J102" s="16"/>
+      <c r="K102" s="16"/>
+      <c r="L102" s="16"/>
+      <c r="M102" s="16"/>
+      <c r="N102" s="16"/>
+      <c r="O102" s="16"/>
+      <c r="P102" s="16"/>
+      <c r="Q102" s="16"/>
+      <c r="R102" s="16"/>
+      <c r="S102" s="16"/>
+      <c r="T102" s="16"/>
+      <c r="U102" s="16"/>
+      <c r="V102" s="16"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H29" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I53" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <mergeCells count="18">
+    <mergeCell ref="A30:I30"/>
+    <mergeCell ref="A54:I54"/>
+    <mergeCell ref="B55:B59"/>
+    <mergeCell ref="B60:B64"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="B22:B25"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4432,7 +5797,7 @@
   <dimension ref="B2:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4441,17 +5806,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:2" ht="15.75">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="3" spans="2:2" ht="35.25" customHeight="1">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="15" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="15.75">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="14" t="s">
         <v>215</v>
       </c>
     </row>
@@ -4505,12 +5870,12 @@
     </row>
     <row r="2" spans="1:20" ht="12.75" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>

--- a/test-cases.xlsx
+++ b/test-cases.xlsx
@@ -8,28 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eduar\Desktop\testing-stuff\banking-application-testing-Guru99\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F80037C-BC4F-44C3-86AE-591FBB33D246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D0FC09-CA56-49D9-8013-EE79D29F7130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="New Customer" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
-    <sheet name="Changelog" sheetId="2" r:id="rId3"/>
-    <sheet name="FundTransfer" sheetId="3" state="hidden" r:id="rId4"/>
-    <sheet name="BalenceEnquiry" sheetId="4" state="hidden" r:id="rId5"/>
-    <sheet name="Inter Bank Fund  Transfer" sheetId="5" state="hidden" r:id="rId6"/>
-    <sheet name="Change  password" sheetId="6" state="hidden" r:id="rId7"/>
+    <sheet name="Unit Testing" sheetId="1" r:id="rId1"/>
+    <sheet name="Integration Testing" sheetId="8" r:id="rId2"/>
+    <sheet name="Demo Credentials" sheetId="7" r:id="rId3"/>
+    <sheet name="Changelog" sheetId="2" r:id="rId4"/>
+    <sheet name="FundTransfer" sheetId="3" state="hidden" r:id="rId5"/>
+    <sheet name="BalenceEnquiry" sheetId="4" state="hidden" r:id="rId6"/>
+    <sheet name="Inter Bank Fund  Transfer" sheetId="5" state="hidden" r:id="rId7"/>
+    <sheet name="Change  password" sheetId="6" state="hidden" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'New Customer'!$A$1:$I$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Unit Testing'!$A$1:$I$64</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="398">
   <si>
     <t>TestCase#</t>
   </si>
@@ -1051,6 +1052,258 @@
   </si>
   <si>
     <t>New Account -Test Cases</t>
+  </si>
+  <si>
+    <t>IP1</t>
+  </si>
+  <si>
+    <t>New Customer</t>
+  </si>
+  <si>
+    <t>Check new Customer is created</t>
+  </si>
+  <si>
+    <t>1) Enter all required fields
+2) Submit</t>
+  </si>
+  <si>
+    <t>Sanjay
+Male
+24/02/1990
+Address - Ahmedabad
+City - Ahmedabad
+State - Gujarat
+PIN - 380009
+Telephone - 8000187025
+Email - sanjayrathod273@gmail.com
+UserId - 1234
+and submit</t>
+  </si>
+  <si>
+    <t>Message Should be display "Customer added successfully !!"</t>
+  </si>
+  <si>
+    <t>IP2</t>
+  </si>
+  <si>
+    <t>Verify Customer is not added twice</t>
+  </si>
+  <si>
+    <t>1) Enter all required field with existing user data
+2) Submit</t>
+  </si>
+  <si>
+    <t>Message Should be displayed"Email address already exist"</t>
+  </si>
+  <si>
+    <t>IP3</t>
+  </si>
+  <si>
+    <t>Edit Customer</t>
+  </si>
+  <si>
+    <t>Check Customer can be edited</t>
+  </si>
+  <si>
+    <t>Message Should be displayed" customer records updated successfully!!"</t>
+  </si>
+  <si>
+    <t>IP4</t>
+  </si>
+  <si>
+    <t>Verify Customer should not be edited for same email id and user id</t>
+  </si>
+  <si>
+    <t>Fill up all fields with repeated email and user id
+for example - Hirenwebdp@gmail.com is associate with userid - 1234
+then for edit other user (name - xyz ) hirenwebdp cannot be associate with user xyz</t>
+  </si>
+  <si>
+    <t>Message Should be display" customer records updated successfully!!"</t>
+  </si>
+  <si>
+    <t>IP5</t>
+  </si>
+  <si>
+    <t>Verify Non existing Customer is not Edited</t>
+  </si>
+  <si>
+    <t>1) Enter the required fields
+2) Submit</t>
+  </si>
+  <si>
+    <t>Customer Id = ABCD</t>
+  </si>
+  <si>
+    <t>Message Should be display" You are not authorise to edit this customer!!"</t>
+  </si>
+  <si>
+    <t>IP6</t>
+  </si>
+  <si>
+    <t>New Account</t>
+  </si>
+  <si>
+    <t>Check New account is added</t>
+  </si>
+  <si>
+    <t>customer id -1234
+account type-saving/current
+Initial Deposit-500</t>
+  </si>
+  <si>
+    <t>Message Should be display " account
+generated successfully"</t>
+  </si>
+  <si>
+    <t>IP7</t>
+  </si>
+  <si>
+    <t>Verify that New Account is not added when same account id already exist</t>
+  </si>
+  <si>
+    <t>1) Enter all fields with customer id and account type already exist</t>
+  </si>
+  <si>
+    <t>IP8</t>
+  </si>
+  <si>
+    <t>Check Ministatement is generated</t>
+  </si>
+  <si>
+    <t>1) Enter Account Number
+2) Submit</t>
+  </si>
+  <si>
+    <t>Account Number - 360560330396</t>
+  </si>
+  <si>
+    <t>Display Generated ministatement</t>
+  </si>
+  <si>
+    <t>IP9</t>
+  </si>
+  <si>
+    <t>Edit Account</t>
+  </si>
+  <si>
+    <t>Check Account is edit</t>
+  </si>
+  <si>
+    <t>1) Enter account number
+2) Submit</t>
+  </si>
+  <si>
+    <t>account number of added account</t>
+  </si>
+  <si>
+    <t>Message Should be display " account
+detail successfully updated"</t>
+  </si>
+  <si>
+    <t>IP10</t>
+  </si>
+  <si>
+    <t>Check Customized Statement is generate</t>
+  </si>
+  <si>
+    <t>IP11</t>
+  </si>
+  <si>
+    <t>Delete Account</t>
+  </si>
+  <si>
+    <t>Verify Account is delete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">customer id -1234
+account type-saving/current
+</t>
+  </si>
+  <si>
+    <t>Message Should be display"Account deleted Successfully"</t>
+  </si>
+  <si>
+    <t>IP12</t>
+  </si>
+  <si>
+    <t>Verify Non Existing Account is not edited</t>
+  </si>
+  <si>
+    <t>Message Should be display"Account does not exist "</t>
+  </si>
+  <si>
+    <t>IP13</t>
+  </si>
+  <si>
+    <t>Verify Non Existing Account is not be deleted</t>
+  </si>
+  <si>
+    <t>IP14</t>
+  </si>
+  <si>
+    <t>Check Ministatement is not generated</t>
+  </si>
+  <si>
+    <t>1)Enter all required field of deleted account
+2)Submit</t>
+  </si>
+  <si>
+    <t>Account number of deleted account</t>
+  </si>
+  <si>
+    <t>Message Should be display - "Account does not exist"</t>
+  </si>
+  <si>
+    <t>IP15</t>
+  </si>
+  <si>
+    <t>Delete customer</t>
+  </si>
+  <si>
+    <t>Verify Customer is Deleted</t>
+  </si>
+  <si>
+    <t>Customer Id - 1234</t>
+  </si>
+  <si>
+    <t>Message Should be display"Customer could not be deleted "</t>
+  </si>
+  <si>
+    <t>IP16</t>
+  </si>
+  <si>
+    <t>Check Customized Statement is not generated</t>
+  </si>
+  <si>
+    <t>Message Should be display"You are not authorise to delete this account "</t>
+  </si>
+  <si>
+    <t>IP17</t>
+  </si>
+  <si>
+    <t>Mini Statement</t>
+  </si>
+  <si>
+    <t>Verify Ministatement is generated</t>
+  </si>
+  <si>
+    <t>Displayed Generated ministatement</t>
+  </si>
+  <si>
+    <t>IP18</t>
+  </si>
+  <si>
+    <t>Customized Statement</t>
+  </si>
+  <si>
+    <t>Check Customized Statement is generated</t>
+  </si>
+  <si>
+    <t>Display Generated Customized statement</t>
+  </si>
+  <si>
+    <t>Failure</t>
   </si>
 </sst>
 </file>
@@ -1084,10 +1337,12 @@
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1153,7 +1408,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -1508,11 +1763,128 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1570,36 +1942,6 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1608,15 +1950,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1630,7 +1963,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1648,15 +1981,6 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1668,15 +1992,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1732,16 +2047,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1749,6 +2058,123 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2369,7 +2795,7 @@
   <dimension ref="A1:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
@@ -2386,34 +2812,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" thickBot="1">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="56" t="s">
+      <c r="G1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="56" t="s">
+      <c r="H1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="I1" s="38" t="s">
         <v>223</v>
       </c>
-      <c r="J1" s="35"/>
+      <c r="J1" s="22"/>
       <c r="K1" s="16"/>
       <c r="L1" s="16"/>
       <c r="M1" s="16"/>
@@ -2428,10 +2854,10 @@
       <c r="V1" s="16"/>
     </row>
     <row r="2" spans="1:25" ht="26.25" thickBot="1">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="75" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="16" t="s">
@@ -2450,8 +2876,8 @@
       <c r="H2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="59"/>
-      <c r="J2" s="35"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="22"/>
       <c r="K2" s="16"/>
       <c r="L2" s="16"/>
       <c r="M2" s="16"/>
@@ -2469,10 +2895,10 @@
       <c r="Y2" s="13"/>
     </row>
     <row r="3" spans="1:25" ht="26.25" thickBot="1">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="25"/>
+      <c r="B3" s="76"/>
       <c r="C3" s="16" t="s">
         <v>108</v>
       </c>
@@ -2489,8 +2915,8 @@
       <c r="H3" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="59"/>
-      <c r="J3" s="35"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="22"/>
       <c r="K3" s="16"/>
       <c r="L3" s="16"/>
       <c r="M3" s="16"/>
@@ -2508,10 +2934,10 @@
       <c r="Y3" s="13"/>
     </row>
     <row r="4" spans="1:25" ht="26.25" thickBot="1">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="25"/>
+      <c r="B4" s="76"/>
       <c r="C4" s="16" t="s">
         <v>112</v>
       </c>
@@ -2528,8 +2954,8 @@
       <c r="H4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="59"/>
-      <c r="J4" s="35"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="22"/>
       <c r="K4" s="16"/>
       <c r="L4" s="16"/>
       <c r="M4" s="16"/>
@@ -2547,10 +2973,10 @@
       <c r="Y4" s="13"/>
     </row>
     <row r="5" spans="1:25" ht="26.25" thickBot="1">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="26"/>
+      <c r="B5" s="77"/>
       <c r="C5" s="17" t="s">
         <v>116</v>
       </c>
@@ -2567,8 +2993,8 @@
       <c r="H5" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="I5" s="61"/>
-      <c r="J5" s="36"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="23"/>
       <c r="K5" s="17"/>
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
@@ -2586,10 +3012,10 @@
       <c r="Y5" s="13"/>
     </row>
     <row r="6" spans="1:25" ht="26.25" thickBot="1">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="78" t="s">
         <v>119</v>
       </c>
       <c r="C6" s="17" t="s">
@@ -2608,8 +3034,8 @@
       <c r="H6" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="I6" s="61"/>
-      <c r="J6" s="36"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="23"/>
       <c r="K6" s="17"/>
       <c r="L6" s="17"/>
       <c r="M6" s="17"/>
@@ -2627,10 +3053,10 @@
       <c r="Y6" s="13"/>
     </row>
     <row r="7" spans="1:25" ht="26.25" thickBot="1">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="B7" s="28"/>
+      <c r="B7" s="79"/>
       <c r="C7" s="17" t="s">
         <v>124</v>
       </c>
@@ -2647,8 +3073,8 @@
       <c r="H7" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="I7" s="61"/>
-      <c r="J7" s="36"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="23"/>
       <c r="K7" s="17"/>
       <c r="L7" s="17"/>
       <c r="M7" s="17"/>
@@ -2666,10 +3092,10 @@
       <c r="Y7" s="13"/>
     </row>
     <row r="8" spans="1:25" ht="26.25" thickBot="1">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="75" t="s">
         <v>126</v>
       </c>
       <c r="C8" s="16" t="s">
@@ -2686,8 +3112,8 @@
       <c r="H8" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="59"/>
-      <c r="J8" s="35"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="22"/>
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
       <c r="M8" s="16"/>
@@ -2705,10 +3131,10 @@
       <c r="Y8" s="13"/>
     </row>
     <row r="9" spans="1:25" ht="26.25" thickBot="1">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="B9" s="25"/>
+      <c r="B9" s="76"/>
       <c r="C9" s="16" t="s">
         <v>131</v>
       </c>
@@ -2725,8 +3151,8 @@
       <c r="H9" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="59"/>
-      <c r="J9" s="35"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="22"/>
       <c r="K9" s="16"/>
       <c r="L9" s="16"/>
       <c r="M9" s="16"/>
@@ -2744,10 +3170,10 @@
       <c r="Y9" s="13"/>
     </row>
     <row r="10" spans="1:25" ht="26.25" thickBot="1">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="B10" s="25"/>
+      <c r="B10" s="76"/>
       <c r="C10" s="16" t="s">
         <v>135</v>
       </c>
@@ -2764,8 +3190,8 @@
       <c r="H10" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="59"/>
-      <c r="J10" s="35"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="22"/>
       <c r="K10" s="16"/>
       <c r="L10" s="16"/>
       <c r="M10" s="16"/>
@@ -2783,10 +3209,10 @@
       <c r="Y10" s="13"/>
     </row>
     <row r="11" spans="1:25" ht="26.25" thickBot="1">
-      <c r="A11" s="60" t="s">
+      <c r="A11" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="B11" s="26"/>
+      <c r="B11" s="77"/>
       <c r="C11" s="17" t="s">
         <v>139</v>
       </c>
@@ -2803,8 +3229,8 @@
       <c r="H11" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="I11" s="61"/>
-      <c r="J11" s="36"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="23"/>
       <c r="K11" s="17"/>
       <c r="L11" s="17"/>
       <c r="M11" s="17"/>
@@ -2822,10 +3248,10 @@
       <c r="Y11" s="13"/>
     </row>
     <row r="12" spans="1:25" ht="26.25" thickBot="1">
-      <c r="A12" s="58" t="s">
+      <c r="A12" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="75" t="s">
         <v>141</v>
       </c>
       <c r="C12" s="16" t="s">
@@ -2842,8 +3268,8 @@
       <c r="H12" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="59"/>
-      <c r="J12" s="35"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="22"/>
       <c r="K12" s="16"/>
       <c r="L12" s="16"/>
       <c r="M12" s="16"/>
@@ -2861,10 +3287,10 @@
       <c r="Y12" s="13"/>
     </row>
     <row r="13" spans="1:25" ht="26.25" thickBot="1">
-      <c r="A13" s="58" t="s">
+      <c r="A13" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="B13" s="25"/>
+      <c r="B13" s="76"/>
       <c r="C13" s="16" t="s">
         <v>146</v>
       </c>
@@ -2881,8 +3307,8 @@
       <c r="H13" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="59"/>
-      <c r="J13" s="35"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="22"/>
       <c r="K13" s="16"/>
       <c r="L13" s="16"/>
       <c r="M13" s="16"/>
@@ -2900,10 +3326,10 @@
       <c r="Y13" s="13"/>
     </row>
     <row r="14" spans="1:25" ht="26.25" thickBot="1">
-      <c r="A14" s="58" t="s">
+      <c r="A14" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="B14" s="25"/>
+      <c r="B14" s="76"/>
       <c r="C14" s="16" t="s">
         <v>150</v>
       </c>
@@ -2920,8 +3346,8 @@
       <c r="H14" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I14" s="59"/>
-      <c r="J14" s="35"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="22"/>
       <c r="K14" s="16"/>
       <c r="L14" s="16"/>
       <c r="M14" s="16"/>
@@ -2939,10 +3365,10 @@
       <c r="Y14" s="13"/>
     </row>
     <row r="15" spans="1:25" ht="26.25" thickBot="1">
-      <c r="A15" s="60" t="s">
+      <c r="A15" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="B15" s="26"/>
+      <c r="B15" s="77"/>
       <c r="C15" s="17" t="s">
         <v>154</v>
       </c>
@@ -2959,8 +3385,8 @@
       <c r="H15" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="I15" s="61"/>
-      <c r="J15" s="36"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="23"/>
       <c r="K15" s="17"/>
       <c r="L15" s="17"/>
       <c r="M15" s="17"/>
@@ -2978,10 +3404,10 @@
       <c r="Y15" s="13"/>
     </row>
     <row r="16" spans="1:25" ht="26.25" thickBot="1">
-      <c r="A16" s="58" t="s">
+      <c r="A16" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="75" t="s">
         <v>156</v>
       </c>
       <c r="C16" s="16" t="s">
@@ -3000,8 +3426,8 @@
       <c r="H16" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="59"/>
-      <c r="J16" s="35"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="22"/>
       <c r="K16" s="16"/>
       <c r="L16" s="16"/>
       <c r="M16" s="16"/>
@@ -3019,10 +3445,10 @@
       <c r="Y16" s="13"/>
     </row>
     <row r="17" spans="1:25" ht="26.25" thickBot="1">
-      <c r="A17" s="58" t="s">
+      <c r="A17" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="B17" s="25"/>
+      <c r="B17" s="76"/>
       <c r="C17" s="16" t="s">
         <v>162</v>
       </c>
@@ -3037,8 +3463,8 @@
       <c r="H17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I17" s="59"/>
-      <c r="J17" s="35"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="22"/>
       <c r="K17" s="16"/>
       <c r="L17" s="16"/>
       <c r="M17" s="16"/>
@@ -3056,10 +3482,10 @@
       <c r="Y17" s="13"/>
     </row>
     <row r="18" spans="1:25" ht="26.25" thickBot="1">
-      <c r="A18" s="58" t="s">
+      <c r="A18" s="39" t="s">
         <v>165</v>
       </c>
-      <c r="B18" s="25"/>
+      <c r="B18" s="76"/>
       <c r="C18" s="16" t="s">
         <v>166</v>
       </c>
@@ -3076,8 +3502,8 @@
       <c r="H18" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I18" s="59"/>
-      <c r="J18" s="35"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="22"/>
       <c r="K18" s="16"/>
       <c r="L18" s="16"/>
       <c r="M18" s="16"/>
@@ -3095,10 +3521,10 @@
       <c r="Y18" s="13"/>
     </row>
     <row r="19" spans="1:25" ht="26.25" thickBot="1">
-      <c r="A19" s="58" t="s">
+      <c r="A19" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="B19" s="25"/>
+      <c r="B19" s="76"/>
       <c r="C19" s="16" t="s">
         <v>171</v>
       </c>
@@ -3115,8 +3541,8 @@
       <c r="H19" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I19" s="59"/>
-      <c r="J19" s="35"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="22"/>
       <c r="K19" s="16"/>
       <c r="L19" s="16"/>
       <c r="M19" s="16"/>
@@ -3134,10 +3560,10 @@
       <c r="Y19" s="13"/>
     </row>
     <row r="20" spans="1:25" ht="26.25" thickBot="1">
-      <c r="A20" s="60" t="s">
+      <c r="A20" s="41" t="s">
         <v>174</v>
       </c>
-      <c r="B20" s="25"/>
+      <c r="B20" s="76"/>
       <c r="C20" s="17" t="s">
         <v>175</v>
       </c>
@@ -3151,11 +3577,11 @@
       <c r="G20" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="H20" s="39" t="s">
+      <c r="H20" s="26" t="s">
         <v>217</v>
       </c>
-      <c r="I20" s="61"/>
-      <c r="J20" s="36"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="23"/>
       <c r="K20" s="17"/>
       <c r="L20" s="17"/>
       <c r="M20" s="17"/>
@@ -3173,10 +3599,10 @@
       <c r="Y20" s="13"/>
     </row>
     <row r="21" spans="1:25" ht="26.25" thickBot="1">
-      <c r="A21" s="60" t="s">
+      <c r="A21" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="B21" s="26"/>
+      <c r="B21" s="77"/>
       <c r="C21" s="17" t="s">
         <v>177</v>
       </c>
@@ -3193,8 +3619,8 @@
       <c r="H21" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="I21" s="61"/>
-      <c r="J21" s="36"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="23"/>
       <c r="K21" s="17"/>
       <c r="L21" s="17"/>
       <c r="M21" s="17"/>
@@ -3212,10 +3638,10 @@
       <c r="Y21" s="13"/>
     </row>
     <row r="22" spans="1:25" ht="26.25" thickBot="1">
-      <c r="A22" s="58" t="s">
+      <c r="A22" s="39" t="s">
         <v>179</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="75" t="s">
         <v>180</v>
       </c>
       <c r="C22" s="16" t="s">
@@ -3232,8 +3658,8 @@
       <c r="H22" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I22" s="59"/>
-      <c r="J22" s="35"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="22"/>
       <c r="K22" s="16"/>
       <c r="L22" s="16"/>
       <c r="M22" s="16"/>
@@ -3251,10 +3677,10 @@
       <c r="Y22" s="13"/>
     </row>
     <row r="23" spans="1:25" ht="26.25" thickBot="1">
-      <c r="A23" s="60" t="s">
+      <c r="A23" s="41" t="s">
         <v>184</v>
       </c>
-      <c r="B23" s="25"/>
+      <c r="B23" s="76"/>
       <c r="C23" s="17" t="s">
         <v>185</v>
       </c>
@@ -3271,8 +3697,8 @@
       <c r="H23" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="I23" s="61"/>
-      <c r="J23" s="36"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="23"/>
       <c r="K23" s="17"/>
       <c r="L23" s="17"/>
       <c r="M23" s="17"/>
@@ -3290,10 +3716,10 @@
       <c r="Y23" s="13"/>
     </row>
     <row r="24" spans="1:25" ht="26.25" thickBot="1">
-      <c r="A24" s="60" t="s">
+      <c r="A24" s="41" t="s">
         <v>186</v>
       </c>
-      <c r="B24" s="25"/>
+      <c r="B24" s="76"/>
       <c r="C24" s="17" t="s">
         <v>187</v>
       </c>
@@ -3312,8 +3738,8 @@
       <c r="H24" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="I24" s="61"/>
-      <c r="J24" s="36"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="23"/>
       <c r="K24" s="17"/>
       <c r="L24" s="17"/>
       <c r="M24" s="17"/>
@@ -3331,10 +3757,10 @@
       <c r="Y24" s="13"/>
     </row>
     <row r="25" spans="1:25" ht="39" thickBot="1">
-      <c r="A25" s="58" t="s">
+      <c r="A25" s="39" t="s">
         <v>191</v>
       </c>
-      <c r="B25" s="26"/>
+      <c r="B25" s="77"/>
       <c r="C25" s="16" t="s">
         <v>192</v>
       </c>
@@ -3351,8 +3777,8 @@
       <c r="H25" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I25" s="59"/>
-      <c r="J25" s="35"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="22"/>
       <c r="K25" s="16"/>
       <c r="L25" s="16"/>
       <c r="M25" s="16"/>
@@ -3370,10 +3796,10 @@
       <c r="Y25" s="13"/>
     </row>
     <row r="26" spans="1:25" ht="26.25" thickBot="1">
-      <c r="A26" s="58" t="s">
+      <c r="A26" s="39" t="s">
         <v>195</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="75" t="s">
         <v>196</v>
       </c>
       <c r="C26" s="16" t="s">
@@ -3390,8 +3816,8 @@
       <c r="H26" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I26" s="59"/>
-      <c r="J26" s="35"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="22"/>
       <c r="K26" s="16"/>
       <c r="L26" s="16"/>
       <c r="M26" s="16"/>
@@ -3409,10 +3835,10 @@
       <c r="Y26" s="13"/>
     </row>
     <row r="27" spans="1:25" ht="77.25" thickBot="1">
-      <c r="A27" s="58" t="s">
+      <c r="A27" s="39" t="s">
         <v>200</v>
       </c>
-      <c r="B27" s="25"/>
+      <c r="B27" s="76"/>
       <c r="C27" s="16" t="s">
         <v>201</v>
       </c>
@@ -3429,8 +3855,8 @@
       <c r="H27" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I27" s="59"/>
-      <c r="J27" s="35"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="22"/>
       <c r="K27" s="16"/>
       <c r="L27" s="16"/>
       <c r="M27" s="16"/>
@@ -3448,10 +3874,10 @@
       <c r="Y27" s="13"/>
     </row>
     <row r="28" spans="1:25" ht="26.25" thickBot="1">
-      <c r="A28" s="60" t="s">
+      <c r="A28" s="41" t="s">
         <v>205</v>
       </c>
-      <c r="B28" s="26"/>
+      <c r="B28" s="77"/>
       <c r="C28" s="17" t="s">
         <v>206</v>
       </c>
@@ -3468,8 +3894,8 @@
       <c r="H28" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="I28" s="61"/>
-      <c r="J28" s="36"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="23"/>
       <c r="K28" s="17"/>
       <c r="L28" s="17"/>
       <c r="M28" s="17"/>
@@ -3487,30 +3913,30 @@
       <c r="Y28" s="13"/>
     </row>
     <row r="29" spans="1:25" ht="26.25" thickBot="1">
-      <c r="A29" s="62" t="s">
+      <c r="A29" s="43" t="s">
         <v>209</v>
       </c>
-      <c r="B29" s="40" t="s">
+      <c r="B29" s="27" t="s">
         <v>210</v>
       </c>
-      <c r="C29" s="40" t="s">
+      <c r="C29" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="D29" s="40" t="s">
+      <c r="D29" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40" t="s">
+      <c r="E29" s="27"/>
+      <c r="F29" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="G29" s="41" t="s">
+      <c r="G29" s="28" t="s">
         <v>222</v>
       </c>
-      <c r="H29" s="42" t="s">
+      <c r="H29" s="29" t="s">
         <v>217</v>
       </c>
-      <c r="I29" s="63"/>
-      <c r="J29" s="35"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="22"/>
       <c r="K29" s="16"/>
       <c r="L29" s="16"/>
       <c r="M29" s="16"/>
@@ -3528,18 +3954,18 @@
       <c r="Y29" s="13"/>
     </row>
     <row r="30" spans="1:25" ht="39" customHeight="1" thickBot="1">
-      <c r="A30" s="45" t="s">
+      <c r="A30" s="80" t="s">
         <v>281</v>
       </c>
-      <c r="B30" s="46"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="35"/>
+      <c r="B30" s="81"/>
+      <c r="C30" s="81"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="81"/>
+      <c r="G30" s="81"/>
+      <c r="H30" s="81"/>
+      <c r="I30" s="82"/>
+      <c r="J30" s="22"/>
       <c r="K30" s="16"/>
       <c r="L30" s="16"/>
       <c r="M30" s="16"/>
@@ -3557,30 +3983,30 @@
       <c r="Y30" s="13"/>
     </row>
     <row r="31" spans="1:25" ht="39" thickBot="1">
-      <c r="A31" s="64" t="s">
+      <c r="A31" s="45" t="s">
         <v>224</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="86" t="s">
         <v>225</v>
       </c>
-      <c r="C31" s="38" t="s">
+      <c r="C31" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="D31" s="43" t="s">
+      <c r="D31" s="30" t="s">
         <v>227</v>
       </c>
-      <c r="E31" s="38"/>
-      <c r="F31" s="43" t="s">
+      <c r="E31" s="25"/>
+      <c r="F31" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="G31" s="44" t="s">
+      <c r="G31" s="31" t="s">
         <v>282</v>
       </c>
-      <c r="H31" s="44" t="s">
+      <c r="H31" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="I31" s="65"/>
-      <c r="J31" s="35"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="22"/>
       <c r="K31" s="16"/>
       <c r="L31" s="16"/>
       <c r="M31" s="16"/>
@@ -3598,30 +4024,30 @@
       <c r="Y31" s="13"/>
     </row>
     <row r="32" spans="1:25" ht="26.25" thickBot="1">
-      <c r="A32" s="66" t="s">
+      <c r="A32" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="B32" s="20"/>
+      <c r="B32" s="86"/>
       <c r="C32" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="D32" s="29" t="s">
+      <c r="D32" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="E32" s="29" t="s">
+      <c r="E32" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="F32" s="29" t="s">
+      <c r="F32" s="19" t="s">
         <v>160</v>
       </c>
       <c r="G32" s="17" t="s">
         <v>283</v>
       </c>
-      <c r="H32" s="17" t="s">
+      <c r="H32" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="I32" s="65"/>
-      <c r="J32" s="35"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="22"/>
       <c r="K32" s="16"/>
       <c r="L32" s="16"/>
       <c r="M32" s="16"/>
@@ -3639,30 +4065,30 @@
       <c r="Y32" s="13"/>
     </row>
     <row r="33" spans="1:25" ht="39" thickBot="1">
-      <c r="A33" s="66" t="s">
+      <c r="A33" s="47" t="s">
         <v>233</v>
       </c>
-      <c r="B33" s="20"/>
+      <c r="B33" s="86"/>
       <c r="C33" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="D33" s="29" t="s">
+      <c r="D33" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="E33" s="29" t="s">
+      <c r="E33" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F33" s="29" t="s">
+      <c r="F33" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="G33" s="29" t="s">
+      <c r="G33" s="19" t="s">
         <v>284</v>
       </c>
       <c r="H33" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I33" s="65"/>
-      <c r="J33" s="35"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="22"/>
       <c r="K33" s="16"/>
       <c r="L33" s="16"/>
       <c r="M33" s="16"/>
@@ -3680,30 +4106,30 @@
       <c r="Y33" s="13"/>
     </row>
     <row r="34" spans="1:25" ht="39" thickBot="1">
-      <c r="A34" s="66" t="s">
+      <c r="A34" s="47" t="s">
         <v>236</v>
       </c>
-      <c r="B34" s="21"/>
+      <c r="B34" s="87"/>
       <c r="C34" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="D34" s="29" t="s">
+      <c r="D34" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="E34" s="29" t="s">
+      <c r="E34" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="F34" s="29" t="s">
+      <c r="F34" s="19" t="s">
         <v>240</v>
       </c>
       <c r="G34" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="H34" s="17" t="s">
+      <c r="H34" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="I34" s="65"/>
-      <c r="J34" s="35"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="22"/>
       <c r="K34" s="16"/>
       <c r="L34" s="16"/>
       <c r="M34" s="16"/>
@@ -3721,30 +4147,30 @@
       <c r="Y34" s="13"/>
     </row>
     <row r="35" spans="1:25" ht="39" thickBot="1">
-      <c r="A35" s="66" t="s">
+      <c r="A35" s="47" t="s">
         <v>241</v>
       </c>
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="29" t="s">
+      <c r="C35" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D35" s="29" t="s">
+      <c r="D35" s="19" t="s">
         <v>11</v>
       </c>
       <c r="E35" s="16"/>
-      <c r="F35" s="29" t="s">
+      <c r="F35" s="19" t="s">
         <v>242</v>
       </c>
       <c r="G35" s="17" t="s">
         <v>286</v>
       </c>
       <c r="H35" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="I35" s="65"/>
-      <c r="J35" s="35"/>
+        <v>397</v>
+      </c>
+      <c r="I35" s="46"/>
+      <c r="J35" s="22"/>
       <c r="K35" s="16"/>
       <c r="L35" s="16"/>
       <c r="M35" s="16"/>
@@ -3762,30 +4188,30 @@
       <c r="Y35" s="13"/>
     </row>
     <row r="36" spans="1:25" ht="39" thickBot="1">
-      <c r="A36" s="66" t="s">
+      <c r="A36" s="47" t="s">
         <v>243</v>
       </c>
-      <c r="B36" s="33"/>
-      <c r="C36" s="29" t="s">
+      <c r="B36" s="91"/>
+      <c r="C36" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="D36" s="29" t="s">
+      <c r="D36" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="E36" s="29" t="s">
+      <c r="E36" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="F36" s="29" t="s">
+      <c r="F36" s="19" t="s">
         <v>244</v>
       </c>
       <c r="G36" s="17" t="s">
         <v>286</v>
       </c>
       <c r="H36" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="I36" s="65"/>
-      <c r="J36" s="35"/>
+        <v>397</v>
+      </c>
+      <c r="I36" s="46"/>
+      <c r="J36" s="22"/>
       <c r="K36" s="16"/>
       <c r="L36" s="16"/>
       <c r="M36" s="16"/>
@@ -3803,30 +4229,30 @@
       <c r="Y36" s="13"/>
     </row>
     <row r="37" spans="1:25" ht="39" thickBot="1">
-      <c r="A37" s="66" t="s">
+      <c r="A37" s="47" t="s">
         <v>245</v>
       </c>
-      <c r="B37" s="34"/>
-      <c r="C37" s="29" t="s">
+      <c r="B37" s="92"/>
+      <c r="C37" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="D37" s="29" t="s">
+      <c r="D37" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="E37" s="29" t="s">
+      <c r="E37" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="F37" s="29" t="s">
+      <c r="F37" s="19" t="s">
         <v>247</v>
       </c>
       <c r="G37" s="17" t="s">
         <v>286</v>
       </c>
       <c r="H37" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="I37" s="65"/>
-      <c r="J37" s="35"/>
+        <v>397</v>
+      </c>
+      <c r="I37" s="46"/>
+      <c r="J37" s="22"/>
       <c r="K37" s="16"/>
       <c r="L37" s="16"/>
       <c r="M37" s="16"/>
@@ -3844,30 +4270,30 @@
       <c r="Y37" s="13"/>
     </row>
     <row r="38" spans="1:25" ht="39" thickBot="1">
-      <c r="A38" s="66" t="s">
+      <c r="A38" s="47" t="s">
         <v>248</v>
       </c>
-      <c r="B38" s="29" t="s">
+      <c r="B38" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="C38" s="29" t="s">
+      <c r="C38" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="D38" s="29" t="s">
+      <c r="D38" s="19" t="s">
         <v>121</v>
       </c>
       <c r="E38" s="16"/>
-      <c r="F38" s="29" t="s">
+      <c r="F38" s="19" t="s">
         <v>122</v>
       </c>
       <c r="G38" s="17" t="s">
         <v>286</v>
       </c>
       <c r="H38" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="I38" s="65"/>
-      <c r="J38" s="35"/>
+        <v>397</v>
+      </c>
+      <c r="I38" s="46"/>
+      <c r="J38" s="22"/>
       <c r="K38" s="16"/>
       <c r="L38" s="16"/>
       <c r="M38" s="16"/>
@@ -3882,30 +4308,30 @@
       <c r="V38" s="16"/>
     </row>
     <row r="39" spans="1:25" ht="39" thickBot="1">
-      <c r="A39" s="66" t="s">
+      <c r="A39" s="47" t="s">
         <v>249</v>
       </c>
-      <c r="B39" s="32" t="s">
+      <c r="B39" s="90" t="s">
         <v>126</v>
       </c>
-      <c r="C39" s="29" t="s">
+      <c r="C39" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="D39" s="29" t="s">
+      <c r="D39" s="19" t="s">
         <v>128</v>
       </c>
       <c r="E39" s="16"/>
-      <c r="F39" s="29" t="s">
+      <c r="F39" s="19" t="s">
         <v>250</v>
       </c>
       <c r="G39" s="17" t="s">
         <v>286</v>
       </c>
       <c r="H39" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="I39" s="65"/>
-      <c r="J39" s="35"/>
+        <v>397</v>
+      </c>
+      <c r="I39" s="46"/>
+      <c r="J39" s="22"/>
       <c r="K39" s="16"/>
       <c r="L39" s="16"/>
       <c r="M39" s="16"/>
@@ -3920,30 +4346,30 @@
       <c r="V39" s="16"/>
     </row>
     <row r="40" spans="1:25" ht="39" thickBot="1">
-      <c r="A40" s="66" t="s">
+      <c r="A40" s="47" t="s">
         <v>251</v>
       </c>
-      <c r="B40" s="33"/>
-      <c r="C40" s="29" t="s">
+      <c r="B40" s="91"/>
+      <c r="C40" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="D40" s="29" t="s">
+      <c r="D40" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="E40" s="29" t="s">
+      <c r="E40" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="F40" s="29" t="s">
+      <c r="F40" s="19" t="s">
         <v>252</v>
       </c>
       <c r="G40" s="17" t="s">
         <v>286</v>
       </c>
       <c r="H40" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="I40" s="65"/>
-      <c r="J40" s="35"/>
+        <v>397</v>
+      </c>
+      <c r="I40" s="46"/>
+      <c r="J40" s="22"/>
       <c r="K40" s="16"/>
       <c r="L40" s="16"/>
       <c r="M40" s="16"/>
@@ -3958,30 +4384,30 @@
       <c r="V40" s="16"/>
     </row>
     <row r="41" spans="1:25" ht="39" thickBot="1">
-      <c r="A41" s="66" t="s">
+      <c r="A41" s="47" t="s">
         <v>253</v>
       </c>
-      <c r="B41" s="34"/>
-      <c r="C41" s="29" t="s">
+      <c r="B41" s="92"/>
+      <c r="C41" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="D41" s="29" t="s">
+      <c r="D41" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="E41" s="29" t="s">
+      <c r="E41" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="F41" s="29" t="s">
+      <c r="F41" s="19" t="s">
         <v>254</v>
       </c>
       <c r="G41" s="17" t="s">
         <v>286</v>
       </c>
       <c r="H41" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="I41" s="65"/>
-      <c r="J41" s="35"/>
+        <v>397</v>
+      </c>
+      <c r="I41" s="46"/>
+      <c r="J41" s="22"/>
       <c r="K41" s="16"/>
       <c r="L41" s="16"/>
       <c r="M41" s="16"/>
@@ -3996,30 +4422,30 @@
       <c r="V41" s="16"/>
     </row>
     <row r="42" spans="1:25" ht="39" thickBot="1">
-      <c r="A42" s="66" t="s">
+      <c r="A42" s="47" t="s">
         <v>255</v>
       </c>
-      <c r="B42" s="32" t="s">
+      <c r="B42" s="90" t="s">
         <v>141</v>
       </c>
-      <c r="C42" s="29" t="s">
+      <c r="C42" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="D42" s="29" t="s">
+      <c r="D42" s="19" t="s">
         <v>143</v>
       </c>
       <c r="E42" s="16"/>
-      <c r="F42" s="29" t="s">
+      <c r="F42" s="19" t="s">
         <v>257</v>
       </c>
       <c r="G42" s="17" t="s">
         <v>286</v>
       </c>
       <c r="H42" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="I42" s="65"/>
-      <c r="J42" s="35"/>
+        <v>397</v>
+      </c>
+      <c r="I42" s="46"/>
+      <c r="J42" s="22"/>
       <c r="K42" s="16"/>
       <c r="L42" s="16"/>
       <c r="M42" s="16"/>
@@ -4034,30 +4460,30 @@
       <c r="V42" s="16"/>
     </row>
     <row r="43" spans="1:25" ht="39" thickBot="1">
-      <c r="A43" s="66" t="s">
+      <c r="A43" s="47" t="s">
         <v>258</v>
       </c>
-      <c r="B43" s="33"/>
-      <c r="C43" s="29" t="s">
+      <c r="B43" s="91"/>
+      <c r="C43" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="D43" s="29" t="s">
+      <c r="D43" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="E43" s="29" t="s">
+      <c r="E43" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="F43" s="29" t="s">
+      <c r="F43" s="19" t="s">
         <v>111</v>
       </c>
       <c r="G43" s="17" t="s">
         <v>286</v>
       </c>
       <c r="H43" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="I43" s="65"/>
-      <c r="J43" s="35"/>
+        <v>397</v>
+      </c>
+      <c r="I43" s="46"/>
+      <c r="J43" s="22"/>
       <c r="K43" s="16"/>
       <c r="L43" s="16"/>
       <c r="M43" s="16"/>
@@ -4072,30 +4498,30 @@
       <c r="V43" s="16"/>
     </row>
     <row r="44" spans="1:25" ht="39" thickBot="1">
-      <c r="A44" s="66" t="s">
+      <c r="A44" s="47" t="s">
         <v>259</v>
       </c>
-      <c r="B44" s="34"/>
-      <c r="C44" s="29" t="s">
+      <c r="B44" s="92"/>
+      <c r="C44" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="D44" s="29" t="s">
+      <c r="D44" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="E44" s="29" t="s">
+      <c r="E44" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="F44" s="29" t="s">
+      <c r="F44" s="19" t="s">
         <v>254</v>
       </c>
       <c r="G44" s="17" t="s">
         <v>286</v>
       </c>
       <c r="H44" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="I44" s="65"/>
-      <c r="J44" s="35"/>
+        <v>397</v>
+      </c>
+      <c r="I44" s="46"/>
+      <c r="J44" s="22"/>
       <c r="K44" s="16"/>
       <c r="L44" s="16"/>
       <c r="M44" s="16"/>
@@ -4110,32 +4536,32 @@
       <c r="V44" s="16"/>
     </row>
     <row r="45" spans="1:25" ht="39" thickBot="1">
-      <c r="A45" s="66" t="s">
+      <c r="A45" s="47" t="s">
         <v>260</v>
       </c>
-      <c r="B45" s="32" t="s">
+      <c r="B45" s="90" t="s">
         <v>156</v>
       </c>
-      <c r="C45" s="29" t="s">
+      <c r="C45" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="D45" s="29" t="s">
+      <c r="D45" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="E45" s="29" t="s">
+      <c r="E45" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="F45" s="29" t="s">
+      <c r="F45" s="19" t="s">
         <v>261</v>
       </c>
       <c r="G45" s="17" t="s">
         <v>286</v>
       </c>
       <c r="H45" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="I45" s="65"/>
-      <c r="J45" s="35"/>
+        <v>397</v>
+      </c>
+      <c r="I45" s="46"/>
+      <c r="J45" s="22"/>
       <c r="K45" s="16"/>
       <c r="L45" s="16"/>
       <c r="M45" s="16"/>
@@ -4150,28 +4576,28 @@
       <c r="V45" s="16"/>
     </row>
     <row r="46" spans="1:25" ht="39" thickBot="1">
-      <c r="A46" s="66" t="s">
+      <c r="A46" s="47" t="s">
         <v>262</v>
       </c>
-      <c r="B46" s="33"/>
-      <c r="C46" s="29" t="s">
+      <c r="B46" s="91"/>
+      <c r="C46" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="D46" s="29" t="s">
+      <c r="D46" s="19" t="s">
         <v>163</v>
       </c>
       <c r="E46" s="16"/>
-      <c r="F46" s="29" t="s">
+      <c r="F46" s="19" t="s">
         <v>263</v>
       </c>
       <c r="G46" s="17" t="s">
         <v>286</v>
       </c>
       <c r="H46" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="I46" s="65"/>
-      <c r="J46" s="35"/>
+        <v>397</v>
+      </c>
+      <c r="I46" s="46"/>
+      <c r="J46" s="22"/>
       <c r="K46" s="16"/>
       <c r="L46" s="16"/>
       <c r="M46" s="16"/>
@@ -4186,30 +4612,30 @@
       <c r="V46" s="16"/>
     </row>
     <row r="47" spans="1:25" ht="51.75" thickBot="1">
-      <c r="A47" s="66" t="s">
+      <c r="A47" s="47" t="s">
         <v>264</v>
       </c>
-      <c r="B47" s="33"/>
-      <c r="C47" s="29" t="s">
+      <c r="B47" s="91"/>
+      <c r="C47" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="D47" s="29" t="s">
+      <c r="D47" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="E47" s="29" t="s">
+      <c r="E47" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="F47" s="29" t="s">
+      <c r="F47" s="19" t="s">
         <v>266</v>
       </c>
       <c r="G47" s="17" t="s">
         <v>286</v>
       </c>
       <c r="H47" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="I47" s="65"/>
-      <c r="J47" s="35"/>
+        <v>397</v>
+      </c>
+      <c r="I47" s="46"/>
+      <c r="J47" s="22"/>
       <c r="K47" s="16"/>
       <c r="L47" s="16"/>
       <c r="M47" s="16"/>
@@ -4224,30 +4650,30 @@
       <c r="V47" s="16"/>
     </row>
     <row r="48" spans="1:25" ht="39" thickBot="1">
-      <c r="A48" s="66" t="s">
+      <c r="A48" s="47" t="s">
         <v>267</v>
       </c>
-      <c r="B48" s="34"/>
-      <c r="C48" s="29" t="s">
+      <c r="B48" s="92"/>
+      <c r="C48" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="D48" s="29" t="s">
+      <c r="D48" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="E48" s="29" t="s">
+      <c r="E48" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="F48" s="29" t="s">
+      <c r="F48" s="19" t="s">
         <v>268</v>
       </c>
       <c r="G48" s="17" t="s">
         <v>286</v>
       </c>
       <c r="H48" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="I48" s="65"/>
-      <c r="J48" s="35"/>
+        <v>397</v>
+      </c>
+      <c r="I48" s="46"/>
+      <c r="J48" s="22"/>
       <c r="K48" s="16"/>
       <c r="L48" s="16"/>
       <c r="M48" s="16"/>
@@ -4262,30 +4688,30 @@
       <c r="V48" s="16"/>
     </row>
     <row r="49" spans="1:22" ht="39" thickBot="1">
-      <c r="A49" s="66" t="s">
+      <c r="A49" s="47" t="s">
         <v>269</v>
       </c>
-      <c r="B49" s="32" t="s">
+      <c r="B49" s="90" t="s">
         <v>180</v>
       </c>
-      <c r="C49" s="29" t="s">
+      <c r="C49" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="D49" s="29" t="s">
+      <c r="D49" s="19" t="s">
         <v>182</v>
       </c>
       <c r="E49" s="16"/>
-      <c r="F49" s="29" t="s">
+      <c r="F49" s="19" t="s">
         <v>270</v>
       </c>
       <c r="G49" s="17" t="s">
         <v>286</v>
       </c>
       <c r="H49" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="I49" s="65"/>
-      <c r="J49" s="35"/>
+        <v>397</v>
+      </c>
+      <c r="I49" s="46"/>
+      <c r="J49" s="22"/>
       <c r="K49" s="16"/>
       <c r="L49" s="16"/>
       <c r="M49" s="16"/>
@@ -4300,30 +4726,30 @@
       <c r="V49" s="16"/>
     </row>
     <row r="50" spans="1:22" ht="39" thickBot="1">
-      <c r="A50" s="66" t="s">
+      <c r="A50" s="47" t="s">
         <v>271</v>
       </c>
-      <c r="B50" s="34"/>
-      <c r="C50" s="29" t="s">
+      <c r="B50" s="92"/>
+      <c r="C50" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="D50" s="29" t="s">
+      <c r="D50" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="E50" s="29" t="s">
+      <c r="E50" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="F50" s="29" t="s">
+      <c r="F50" s="19" t="s">
         <v>272</v>
       </c>
       <c r="G50" s="17" t="s">
         <v>286</v>
       </c>
       <c r="H50" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="I50" s="65"/>
-      <c r="J50" s="35"/>
+        <v>397</v>
+      </c>
+      <c r="I50" s="46"/>
+      <c r="J50" s="22"/>
       <c r="K50" s="16"/>
       <c r="L50" s="16"/>
       <c r="M50" s="16"/>
@@ -4338,30 +4764,30 @@
       <c r="V50" s="16"/>
     </row>
     <row r="51" spans="1:22" ht="39" thickBot="1">
-      <c r="A51" s="66" t="s">
+      <c r="A51" s="47" t="s">
         <v>273</v>
       </c>
-      <c r="B51" s="32" t="s">
+      <c r="B51" s="90" t="s">
         <v>196</v>
       </c>
-      <c r="C51" s="29" t="s">
+      <c r="C51" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="D51" s="29" t="s">
+      <c r="D51" s="19" t="s">
         <v>198</v>
       </c>
       <c r="E51" s="16"/>
-      <c r="F51" s="29" t="s">
+      <c r="F51" s="19" t="s">
         <v>274</v>
       </c>
       <c r="G51" s="17" t="s">
         <v>286</v>
       </c>
       <c r="H51" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="I51" s="65"/>
-      <c r="J51" s="35"/>
+        <v>397</v>
+      </c>
+      <c r="I51" s="46"/>
+      <c r="J51" s="22"/>
       <c r="K51" s="16"/>
       <c r="L51" s="16"/>
       <c r="M51" s="16"/>
@@ -4376,30 +4802,30 @@
       <c r="V51" s="16"/>
     </row>
     <row r="52" spans="1:22" ht="64.5" thickBot="1">
-      <c r="A52" s="66" t="s">
+      <c r="A52" s="47" t="s">
         <v>275</v>
       </c>
-      <c r="B52" s="33"/>
-      <c r="C52" s="29" t="s">
+      <c r="B52" s="91"/>
+      <c r="C52" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="D52" s="29" t="s">
+      <c r="D52" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="E52" s="29" t="s">
+      <c r="E52" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="F52" s="29" t="s">
+      <c r="F52" s="19" t="s">
         <v>278</v>
       </c>
       <c r="G52" s="17" t="s">
         <v>286</v>
       </c>
       <c r="H52" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="I52" s="65"/>
-      <c r="J52" s="35"/>
+        <v>397</v>
+      </c>
+      <c r="I52" s="46"/>
+      <c r="J52" s="22"/>
       <c r="K52" s="16"/>
       <c r="L52" s="16"/>
       <c r="M52" s="16"/>
@@ -4414,30 +4840,30 @@
       <c r="V52" s="16"/>
     </row>
     <row r="53" spans="1:22" ht="77.25" thickBot="1">
-      <c r="A53" s="67" t="s">
+      <c r="A53" s="48" t="s">
         <v>279</v>
       </c>
-      <c r="B53" s="33"/>
-      <c r="C53" s="40" t="s">
+      <c r="B53" s="91"/>
+      <c r="C53" s="27" t="s">
         <v>276</v>
       </c>
-      <c r="D53" s="48" t="s">
+      <c r="D53" s="32" t="s">
         <v>202</v>
       </c>
-      <c r="E53" s="48" t="s">
+      <c r="E53" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="F53" s="48" t="s">
+      <c r="F53" s="32" t="s">
         <v>280</v>
       </c>
-      <c r="G53" s="41" t="s">
+      <c r="G53" s="28" t="s">
         <v>286</v>
       </c>
-      <c r="H53" s="41" t="s">
-        <v>217</v>
-      </c>
-      <c r="I53" s="65"/>
-      <c r="J53" s="35"/>
+      <c r="H53" s="17" t="s">
+        <v>397</v>
+      </c>
+      <c r="I53" s="46"/>
+      <c r="J53" s="22"/>
       <c r="K53" s="16"/>
       <c r="L53" s="16"/>
       <c r="M53" s="16"/>
@@ -4452,18 +4878,18 @@
       <c r="V53" s="16"/>
     </row>
     <row r="54" spans="1:22" ht="39" customHeight="1" thickBot="1">
-      <c r="A54" s="52" t="s">
+      <c r="A54" s="83" t="s">
         <v>321</v>
       </c>
-      <c r="B54" s="53"/>
-      <c r="C54" s="53"/>
-      <c r="D54" s="53"/>
-      <c r="E54" s="53"/>
-      <c r="F54" s="53"/>
-      <c r="G54" s="53"/>
-      <c r="H54" s="53"/>
-      <c r="I54" s="54"/>
-      <c r="J54" s="35"/>
+      <c r="B54" s="84"/>
+      <c r="C54" s="84"/>
+      <c r="D54" s="84"/>
+      <c r="E54" s="84"/>
+      <c r="F54" s="84"/>
+      <c r="G54" s="84"/>
+      <c r="H54" s="84"/>
+      <c r="I54" s="85"/>
+      <c r="J54" s="22"/>
       <c r="K54" s="16"/>
       <c r="L54" s="16"/>
       <c r="M54" s="16"/>
@@ -4478,31 +4904,31 @@
       <c r="V54" s="16"/>
     </row>
     <row r="55" spans="1:22" ht="39" thickBot="1">
-      <c r="A55" s="68" t="s">
+      <c r="A55" s="49" t="s">
         <v>287</v>
       </c>
-      <c r="B55" s="20" t="s">
+      <c r="B55" s="86" t="s">
         <v>225</v>
       </c>
-      <c r="C55" s="49" t="s">
+      <c r="C55" s="33" t="s">
         <v>226</v>
       </c>
-      <c r="D55" s="50" t="s">
+      <c r="D55" s="34" t="s">
         <v>227</v>
       </c>
-      <c r="E55" s="49"/>
-      <c r="F55" s="50" t="s">
+      <c r="E55" s="33"/>
+      <c r="F55" s="34" t="s">
         <v>288</v>
       </c>
-      <c r="G55" s="41" t="s">
+      <c r="G55" s="28" t="s">
         <v>286</v>
       </c>
-      <c r="H55" s="51" t="s">
-        <v>217</v>
-      </c>
-      <c r="I55" s="69"/>
-      <c r="J55" s="37"/>
-      <c r="K55" s="30"/>
+      <c r="H55" s="35" t="s">
+        <v>397</v>
+      </c>
+      <c r="I55" s="50"/>
+      <c r="J55" s="24"/>
+      <c r="K55" s="20"/>
       <c r="L55" s="16"/>
       <c r="M55" s="16"/>
       <c r="N55" s="16"/>
@@ -4516,31 +4942,31 @@
       <c r="V55" s="16"/>
     </row>
     <row r="56" spans="1:22" ht="39" thickBot="1">
-      <c r="A56" s="70" t="s">
+      <c r="A56" s="51" t="s">
         <v>289</v>
       </c>
-      <c r="B56" s="20"/>
-      <c r="C56" s="30" t="s">
+      <c r="B56" s="86"/>
+      <c r="C56" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="D56" s="31" t="s">
+      <c r="D56" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="E56" s="31" t="s">
+      <c r="E56" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="F56" s="31" t="s">
+      <c r="F56" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="G56" s="41" t="s">
+      <c r="G56" s="28" t="s">
         <v>286</v>
       </c>
-      <c r="H56" s="51" t="s">
-        <v>217</v>
-      </c>
-      <c r="I56" s="71"/>
-      <c r="J56" s="37"/>
-      <c r="K56" s="30"/>
+      <c r="H56" s="35" t="s">
+        <v>397</v>
+      </c>
+      <c r="I56" s="52"/>
+      <c r="J56" s="24"/>
+      <c r="K56" s="20"/>
       <c r="L56" s="16"/>
       <c r="M56" s="16"/>
       <c r="N56" s="16"/>
@@ -4554,31 +4980,31 @@
       <c r="V56" s="16"/>
     </row>
     <row r="57" spans="1:22" ht="39" thickBot="1">
-      <c r="A57" s="70" t="s">
+      <c r="A57" s="51" t="s">
         <v>291</v>
       </c>
-      <c r="B57" s="20"/>
-      <c r="C57" s="30" t="s">
+      <c r="B57" s="86"/>
+      <c r="C57" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="D57" s="31" t="s">
+      <c r="D57" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="E57" s="31" t="s">
+      <c r="E57" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="F57" s="31" t="s">
+      <c r="F57" s="21" t="s">
         <v>292</v>
       </c>
-      <c r="G57" s="41" t="s">
+      <c r="G57" s="28" t="s">
         <v>286</v>
       </c>
-      <c r="H57" s="51" t="s">
-        <v>217</v>
-      </c>
-      <c r="I57" s="71"/>
-      <c r="J57" s="37"/>
-      <c r="K57" s="30"/>
+      <c r="H57" s="35" t="s">
+        <v>397</v>
+      </c>
+      <c r="I57" s="52"/>
+      <c r="J57" s="24"/>
+      <c r="K57" s="20"/>
       <c r="L57" s="16"/>
       <c r="M57" s="16"/>
       <c r="N57" s="16"/>
@@ -4592,31 +5018,31 @@
       <c r="V57" s="16"/>
     </row>
     <row r="58" spans="1:22" ht="39" thickBot="1">
-      <c r="A58" s="70" t="s">
+      <c r="A58" s="51" t="s">
         <v>293</v>
       </c>
-      <c r="B58" s="20"/>
-      <c r="C58" s="30" t="s">
+      <c r="B58" s="86"/>
+      <c r="C58" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="D58" s="31" t="s">
+      <c r="D58" s="21" t="s">
         <v>295</v>
       </c>
-      <c r="E58" s="30" t="s">
+      <c r="E58" s="20" t="s">
         <v>296</v>
       </c>
-      <c r="F58" s="31" t="s">
+      <c r="F58" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="G58" s="41" t="s">
+      <c r="G58" s="28" t="s">
         <v>286</v>
       </c>
-      <c r="H58" s="51" t="s">
-        <v>217</v>
-      </c>
-      <c r="I58" s="71"/>
-      <c r="J58" s="37"/>
-      <c r="K58" s="30"/>
+      <c r="H58" s="35" t="s">
+        <v>397</v>
+      </c>
+      <c r="I58" s="52"/>
+      <c r="J58" s="24"/>
+      <c r="K58" s="20"/>
       <c r="L58" s="16"/>
       <c r="M58" s="16"/>
       <c r="N58" s="16"/>
@@ -4630,29 +5056,29 @@
       <c r="V58" s="16"/>
     </row>
     <row r="59" spans="1:22" ht="39" thickBot="1">
-      <c r="A59" s="70" t="s">
+      <c r="A59" s="51" t="s">
         <v>298</v>
       </c>
-      <c r="B59" s="21"/>
-      <c r="C59" s="30" t="s">
+      <c r="B59" s="87"/>
+      <c r="C59" s="20" t="s">
         <v>299</v>
       </c>
-      <c r="D59" s="31" t="s">
+      <c r="D59" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="E59" s="30"/>
-      <c r="F59" s="31" t="s">
+      <c r="E59" s="20"/>
+      <c r="F59" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="G59" s="41" t="s">
+      <c r="G59" s="28" t="s">
         <v>286</v>
       </c>
-      <c r="H59" s="51" t="s">
-        <v>217</v>
-      </c>
-      <c r="I59" s="71"/>
-      <c r="J59" s="37"/>
-      <c r="K59" s="30"/>
+      <c r="H59" s="35" t="s">
+        <v>397</v>
+      </c>
+      <c r="I59" s="52"/>
+      <c r="J59" s="24"/>
+      <c r="K59" s="20"/>
       <c r="L59" s="16"/>
       <c r="M59" s="16"/>
       <c r="N59" s="16"/>
@@ -4666,31 +5092,31 @@
       <c r="V59" s="16"/>
     </row>
     <row r="60" spans="1:22" ht="39" thickBot="1">
-      <c r="A60" s="70" t="s">
+      <c r="A60" s="51" t="s">
         <v>302</v>
       </c>
-      <c r="B60" s="19" t="s">
+      <c r="B60" s="88" t="s">
         <v>303</v>
       </c>
-      <c r="C60" s="30" t="s">
+      <c r="C60" s="20" t="s">
         <v>304</v>
       </c>
-      <c r="D60" s="31" t="s">
+      <c r="D60" s="21" t="s">
         <v>305</v>
       </c>
-      <c r="E60" s="30"/>
-      <c r="F60" s="31" t="s">
+      <c r="E60" s="20"/>
+      <c r="F60" s="21" t="s">
         <v>306</v>
       </c>
-      <c r="G60" s="41" t="s">
+      <c r="G60" s="28" t="s">
         <v>286</v>
       </c>
-      <c r="H60" s="51" t="s">
-        <v>217</v>
-      </c>
-      <c r="I60" s="71"/>
-      <c r="J60" s="37"/>
-      <c r="K60" s="30"/>
+      <c r="H60" s="35" t="s">
+        <v>397</v>
+      </c>
+      <c r="I60" s="52"/>
+      <c r="J60" s="24"/>
+      <c r="K60" s="20"/>
       <c r="L60" s="16"/>
       <c r="M60" s="16"/>
       <c r="N60" s="16"/>
@@ -4704,31 +5130,31 @@
       <c r="V60" s="16"/>
     </row>
     <row r="61" spans="1:22" ht="39" thickBot="1">
-      <c r="A61" s="70" t="s">
+      <c r="A61" s="51" t="s">
         <v>307</v>
       </c>
-      <c r="B61" s="20"/>
-      <c r="C61" s="30" t="s">
+      <c r="B61" s="86"/>
+      <c r="C61" s="20" t="s">
         <v>308</v>
       </c>
-      <c r="D61" s="31" t="s">
+      <c r="D61" s="21" t="s">
         <v>309</v>
       </c>
-      <c r="E61" s="31" t="s">
+      <c r="E61" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="F61" s="31" t="s">
+      <c r="F61" s="21" t="s">
         <v>310</v>
       </c>
-      <c r="G61" s="41" t="s">
+      <c r="G61" s="28" t="s">
         <v>286</v>
       </c>
-      <c r="H61" s="51" t="s">
-        <v>217</v>
-      </c>
-      <c r="I61" s="71"/>
-      <c r="J61" s="37"/>
-      <c r="K61" s="30"/>
+      <c r="H61" s="35" t="s">
+        <v>397</v>
+      </c>
+      <c r="I61" s="52"/>
+      <c r="J61" s="24"/>
+      <c r="K61" s="20"/>
       <c r="L61" s="16"/>
       <c r="M61" s="16"/>
       <c r="N61" s="16"/>
@@ -4742,31 +5168,31 @@
       <c r="V61" s="16"/>
     </row>
     <row r="62" spans="1:22" ht="39" thickBot="1">
-      <c r="A62" s="70" t="s">
+      <c r="A62" s="51" t="s">
         <v>311</v>
       </c>
-      <c r="B62" s="20"/>
-      <c r="C62" s="30" t="s">
+      <c r="B62" s="86"/>
+      <c r="C62" s="20" t="s">
         <v>312</v>
       </c>
-      <c r="D62" s="31" t="s">
+      <c r="D62" s="21" t="s">
         <v>313</v>
       </c>
-      <c r="E62" s="31" t="s">
+      <c r="E62" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="F62" s="31" t="s">
+      <c r="F62" s="21" t="s">
         <v>314</v>
       </c>
-      <c r="G62" s="41" t="s">
+      <c r="G62" s="28" t="s">
         <v>286</v>
       </c>
-      <c r="H62" s="51" t="s">
-        <v>217</v>
-      </c>
-      <c r="I62" s="71"/>
-      <c r="J62" s="37"/>
-      <c r="K62" s="30"/>
+      <c r="H62" s="35" t="s">
+        <v>397</v>
+      </c>
+      <c r="I62" s="52"/>
+      <c r="J62" s="24"/>
+      <c r="K62" s="20"/>
       <c r="L62" s="16"/>
       <c r="M62" s="16"/>
       <c r="N62" s="16"/>
@@ -4780,31 +5206,31 @@
       <c r="V62" s="16"/>
     </row>
     <row r="63" spans="1:22" ht="39" thickBot="1">
-      <c r="A63" s="70" t="s">
+      <c r="A63" s="51" t="s">
         <v>315</v>
       </c>
-      <c r="B63" s="20"/>
-      <c r="C63" s="30" t="s">
+      <c r="B63" s="86"/>
+      <c r="C63" s="20" t="s">
         <v>316</v>
       </c>
-      <c r="D63" s="31" t="s">
+      <c r="D63" s="21" t="s">
         <v>317</v>
       </c>
-      <c r="E63" s="30" t="s">
+      <c r="E63" s="20" t="s">
         <v>296</v>
       </c>
-      <c r="F63" s="31" t="s">
+      <c r="F63" s="21" t="s">
         <v>318</v>
       </c>
-      <c r="G63" s="41" t="s">
+      <c r="G63" s="28" t="s">
         <v>286</v>
       </c>
-      <c r="H63" s="51" t="s">
-        <v>217</v>
-      </c>
-      <c r="I63" s="71"/>
-      <c r="J63" s="37"/>
-      <c r="K63" s="30"/>
+      <c r="H63" s="73" t="s">
+        <v>397</v>
+      </c>
+      <c r="I63" s="52"/>
+      <c r="J63" s="24"/>
+      <c r="K63" s="20"/>
       <c r="L63" s="16"/>
       <c r="M63" s="16"/>
       <c r="N63" s="16"/>
@@ -4818,29 +5244,29 @@
       <c r="V63" s="16"/>
     </row>
     <row r="64" spans="1:22" ht="39" thickBot="1">
-      <c r="A64" s="72" t="s">
+      <c r="A64" s="53" t="s">
         <v>319</v>
       </c>
-      <c r="B64" s="73"/>
-      <c r="C64" s="74" t="s">
+      <c r="B64" s="89"/>
+      <c r="C64" s="54" t="s">
         <v>299</v>
       </c>
-      <c r="D64" s="75" t="s">
+      <c r="D64" s="55" t="s">
         <v>300</v>
       </c>
-      <c r="E64" s="74"/>
-      <c r="F64" s="75" t="s">
+      <c r="E64" s="54"/>
+      <c r="F64" s="55" t="s">
         <v>320</v>
       </c>
-      <c r="G64" s="78" t="s">
+      <c r="G64" s="57" t="s">
         <v>286</v>
       </c>
-      <c r="H64" s="76" t="s">
-        <v>217</v>
-      </c>
-      <c r="I64" s="77"/>
-      <c r="J64" s="37"/>
-      <c r="K64" s="30"/>
+      <c r="H64" s="74" t="s">
+        <v>397</v>
+      </c>
+      <c r="I64" s="56"/>
+      <c r="J64" s="24"/>
+      <c r="K64" s="20"/>
       <c r="L64" s="16"/>
       <c r="M64" s="16"/>
       <c r="N64" s="16"/>
@@ -4854,15 +5280,15 @@
       <c r="V64" s="16"/>
     </row>
     <row r="65" spans="1:22" ht="13.5" thickBot="1">
-      <c r="A65" s="38"/>
-      <c r="B65" s="38"/>
-      <c r="C65" s="38"/>
-      <c r="D65" s="38"/>
-      <c r="E65" s="38"/>
-      <c r="F65" s="38"/>
-      <c r="G65" s="38"/>
-      <c r="H65" s="38"/>
-      <c r="I65" s="38"/>
+      <c r="A65" s="25"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="25"/>
+      <c r="H65" s="25"/>
+      <c r="I65" s="25"/>
       <c r="J65" s="16"/>
       <c r="K65" s="16"/>
       <c r="L65" s="16"/>
@@ -5766,7 +6192,7 @@
       <c r="V102" s="16"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I53" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I64" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="18">
     <mergeCell ref="A30:I30"/>
     <mergeCell ref="A54:I54"/>
@@ -5793,11 +6219,537 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4EB391B-857A-416C-84A8-979130FEB219}">
+  <dimension ref="A1:I19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" style="58" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" style="58" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="58" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="58" customWidth="1"/>
+    <col min="5" max="5" width="44" style="58" customWidth="1"/>
+    <col min="6" max="7" width="31.5703125" style="58" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="58" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="58"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="13.5" thickBot="1">
+      <c r="A1" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="37"/>
+    </row>
+    <row r="2" spans="1:9" ht="140.25">
+      <c r="A2" s="60" t="s">
+        <v>322</v>
+      </c>
+      <c r="B2" s="93" t="s">
+        <v>323</v>
+      </c>
+      <c r="C2" s="68" t="s">
+        <v>324</v>
+      </c>
+      <c r="D2" s="68" t="s">
+        <v>325</v>
+      </c>
+      <c r="E2" s="68" t="s">
+        <v>326</v>
+      </c>
+      <c r="F2" s="68" t="s">
+        <v>327</v>
+      </c>
+      <c r="G2" s="68" t="s">
+        <v>285</v>
+      </c>
+      <c r="H2" s="71" t="s">
+        <v>397</v>
+      </c>
+      <c r="I2" s="61"/>
+    </row>
+    <row r="3" spans="1:9" ht="140.25">
+      <c r="A3" s="62" t="s">
+        <v>328</v>
+      </c>
+      <c r="B3" s="94"/>
+      <c r="C3" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="H3" s="59" t="s">
+        <v>397</v>
+      </c>
+      <c r="I3" s="63"/>
+    </row>
+    <row r="4" spans="1:9" ht="140.25">
+      <c r="A4" s="62" t="s">
+        <v>332</v>
+      </c>
+      <c r="B4" s="94" t="s">
+        <v>333</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="H4" s="59" t="s">
+        <v>397</v>
+      </c>
+      <c r="I4" s="63"/>
+    </row>
+    <row r="5" spans="1:9" ht="63.75">
+      <c r="A5" s="62" t="s">
+        <v>336</v>
+      </c>
+      <c r="B5" s="94"/>
+      <c r="C5" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="H5" s="59" t="s">
+        <v>397</v>
+      </c>
+      <c r="I5" s="63"/>
+    </row>
+    <row r="6" spans="1:9" ht="51">
+      <c r="A6" s="62" t="s">
+        <v>340</v>
+      </c>
+      <c r="B6" s="94"/>
+      <c r="C6" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="H6" s="59" t="s">
+        <v>397</v>
+      </c>
+      <c r="I6" s="63"/>
+    </row>
+    <row r="7" spans="1:9" ht="51">
+      <c r="A7" s="62" t="s">
+        <v>345</v>
+      </c>
+      <c r="B7" s="94" t="s">
+        <v>346</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="H7" s="59" t="s">
+        <v>397</v>
+      </c>
+      <c r="I7" s="63"/>
+    </row>
+    <row r="8" spans="1:9" ht="51">
+      <c r="A8" s="62" t="s">
+        <v>350</v>
+      </c>
+      <c r="B8" s="94"/>
+      <c r="C8" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="H8" s="59" t="s">
+        <v>397</v>
+      </c>
+      <c r="I8" s="63"/>
+    </row>
+    <row r="9" spans="1:9" ht="51">
+      <c r="A9" s="62" t="s">
+        <v>353</v>
+      </c>
+      <c r="B9" s="94"/>
+      <c r="C9" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="H9" s="59" t="s">
+        <v>397</v>
+      </c>
+      <c r="I9" s="63"/>
+    </row>
+    <row r="10" spans="1:9" ht="51">
+      <c r="A10" s="62" t="s">
+        <v>358</v>
+      </c>
+      <c r="B10" s="94" t="s">
+        <v>359</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="H10" s="59" t="s">
+        <v>397</v>
+      </c>
+      <c r="I10" s="63"/>
+    </row>
+    <row r="11" spans="1:9" ht="51">
+      <c r="A11" s="62" t="s">
+        <v>364</v>
+      </c>
+      <c r="B11" s="94"/>
+      <c r="C11" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="H11" s="59" t="s">
+        <v>397</v>
+      </c>
+      <c r="I11" s="63"/>
+    </row>
+    <row r="12" spans="1:9" ht="51">
+      <c r="A12" s="62" t="s">
+        <v>366</v>
+      </c>
+      <c r="B12" s="94" t="s">
+        <v>367</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="H12" s="59" t="s">
+        <v>397</v>
+      </c>
+      <c r="I12" s="63"/>
+    </row>
+    <row r="13" spans="1:9" ht="51">
+      <c r="A13" s="62" t="s">
+        <v>371</v>
+      </c>
+      <c r="B13" s="94"/>
+      <c r="C13" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="H13" s="59" t="s">
+        <v>397</v>
+      </c>
+      <c r="I13" s="63"/>
+    </row>
+    <row r="14" spans="1:9" ht="51">
+      <c r="A14" s="62" t="s">
+        <v>374</v>
+      </c>
+      <c r="B14" s="94"/>
+      <c r="C14" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="H14" s="59" t="s">
+        <v>397</v>
+      </c>
+      <c r="I14" s="63"/>
+    </row>
+    <row r="15" spans="1:9" ht="51">
+      <c r="A15" s="62" t="s">
+        <v>376</v>
+      </c>
+      <c r="B15" s="94"/>
+      <c r="C15" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="H15" s="59" t="s">
+        <v>397</v>
+      </c>
+      <c r="I15" s="63"/>
+    </row>
+    <row r="16" spans="1:9" ht="51">
+      <c r="A16" s="62" t="s">
+        <v>381</v>
+      </c>
+      <c r="B16" s="94" t="s">
+        <v>382</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="H16" s="59" t="s">
+        <v>397</v>
+      </c>
+      <c r="I16" s="63"/>
+    </row>
+    <row r="17" spans="1:9" ht="51">
+      <c r="A17" s="62" t="s">
+        <v>386</v>
+      </c>
+      <c r="B17" s="94"/>
+      <c r="C17" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="H17" s="59" t="s">
+        <v>397</v>
+      </c>
+      <c r="I17" s="63"/>
+    </row>
+    <row r="18" spans="1:9" ht="51">
+      <c r="A18" s="62" t="s">
+        <v>389</v>
+      </c>
+      <c r="B18" s="66" t="s">
+        <v>390</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="H18" s="59" t="s">
+        <v>397</v>
+      </c>
+      <c r="I18" s="63"/>
+    </row>
+    <row r="19" spans="1:9" ht="51.75" thickBot="1">
+      <c r="A19" s="64" t="s">
+        <v>393</v>
+      </c>
+      <c r="B19" s="67" t="s">
+        <v>394</v>
+      </c>
+      <c r="C19" s="69" t="s">
+        <v>395</v>
+      </c>
+      <c r="D19" s="69" t="s">
+        <v>325</v>
+      </c>
+      <c r="E19" s="69" t="s">
+        <v>356</v>
+      </c>
+      <c r="F19" s="69" t="s">
+        <v>396</v>
+      </c>
+      <c r="G19" s="69" t="s">
+        <v>286</v>
+      </c>
+      <c r="H19" s="72" t="s">
+        <v>397</v>
+      </c>
+      <c r="I19" s="65"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A068CEBD-4C22-427A-8D4A-7C4C89933131}">
   <dimension ref="B2:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5825,7 +6777,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -5870,12 +6822,12 @@
     </row>
     <row r="2" spans="1:20" ht="12.75" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -8058,7 +9010,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -8242,7 +9194,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -8336,7 +9288,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -8576,7 +9528,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
